--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768301349364488</v>
+        <v>0.9768301349364493</v>
       </c>
       <c r="D2">
-        <v>0.9990116336890422</v>
+        <v>0.9990116336890421</v>
       </c>
       <c r="E2">
-        <v>0.98517115744544</v>
+        <v>0.9851711574454404</v>
       </c>
       <c r="F2">
-        <v>0.979829820234187</v>
+        <v>0.9798298202341871</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036016100263541</v>
       </c>
       <c r="J2">
-        <v>0.9997266491269523</v>
+        <v>0.9997266491269526</v>
       </c>
       <c r="K2">
         <v>1.010484755219646</v>
       </c>
       <c r="L2">
-        <v>0.9968410217883413</v>
+        <v>0.9968410217883417</v>
       </c>
       <c r="M2">
-        <v>0.99157749837721</v>
+        <v>0.9915774983772102</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,28 +459,28 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862796150378136</v>
+        <v>0.9862796150378139</v>
       </c>
       <c r="D3">
-        <v>1.00617655367575</v>
+        <v>1.006176553675751</v>
       </c>
       <c r="E3">
-        <v>0.9940566784203234</v>
+        <v>0.9940566784203242</v>
       </c>
       <c r="F3">
-        <v>0.9897026087951372</v>
+        <v>0.9897026087951377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039146850046925</v>
+        <v>1.039146850046926</v>
       </c>
       <c r="J3">
         <v>1.007151430621862</v>
       </c>
       <c r="K3">
-        <v>1.016731009676407</v>
+        <v>1.016731009676408</v>
       </c>
       <c r="L3">
         <v>1.004766174266251</v>
@@ -497,22 +497,22 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9921562378558381</v>
+        <v>0.9921562378558386</v>
       </c>
       <c r="D4">
         <v>1.010634149193248</v>
       </c>
       <c r="E4">
-        <v>0.9995891308844248</v>
+        <v>0.9995891308844255</v>
       </c>
       <c r="F4">
-        <v>0.9958496209053324</v>
+        <v>0.9958496209053328</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041075684393016</v>
+        <v>1.041075684393017</v>
       </c>
       <c r="J4">
         <v>1.011762738561061</v>
@@ -521,7 +521,7 @@
         <v>1.020605901544031</v>
       </c>
       <c r="L4">
-        <v>1.009692517265081</v>
+        <v>1.009692517265082</v>
       </c>
       <c r="M4">
         <v>1.005998396802412</v>
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945739782714647</v>
+        <v>0.9945739782714653</v>
       </c>
       <c r="D5">
         <v>1.012468313551109</v>
@@ -544,25 +544,25 @@
         <v>1.001866740987661</v>
       </c>
       <c r="F5">
-        <v>0.9983802981313721</v>
+        <v>0.9983802981313726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041864783275784</v>
+        <v>1.041864783275785</v>
       </c>
       <c r="J5">
         <v>1.013658344563953</v>
       </c>
       <c r="K5">
-        <v>1.022197664229768</v>
+        <v>1.022197664229769</v>
       </c>
       <c r="L5">
-        <v>1.011718652141895</v>
+        <v>1.011718652141896</v>
       </c>
       <c r="M5">
-        <v>1.008273218856256</v>
+        <v>1.008273218856257</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949769434409583</v>
+        <v>0.9949769434409586</v>
       </c>
       <c r="D6">
         <v>1.012774022884697</v>
       </c>
       <c r="E6">
-        <v>1.002246434065876</v>
+        <v>1.002246434065877</v>
       </c>
       <c r="F6">
-        <v>0.9988021857006119</v>
+        <v>0.9988021857006122</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9921887461349892</v>
+        <v>0.9921887461349895</v>
       </c>
       <c r="D7">
-        <v>1.01065881016255</v>
+        <v>1.010658810162551</v>
       </c>
       <c r="E7">
-        <v>0.9996197493238622</v>
+        <v>0.9996197493238627</v>
       </c>
       <c r="F7">
-        <v>0.9958836410059503</v>
+        <v>0.9958836410059505</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.041086312191317</v>
       </c>
       <c r="J7">
-        <v>1.011788232668172</v>
+        <v>1.011788232668173</v>
       </c>
       <c r="K7">
         <v>1.020627313745169</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9800755270558127</v>
+        <v>0.9800755270558137</v>
       </c>
       <c r="D8">
-        <v>1.001471913528458</v>
+        <v>1.001471913528459</v>
       </c>
       <c r="E8">
-        <v>0.9882213978025911</v>
+        <v>0.9882213978025923</v>
       </c>
       <c r="F8">
-        <v>0.9832190691864897</v>
+        <v>0.9832190691864908</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03709514621975</v>
       </c>
       <c r="J8">
-        <v>1.002277917519922</v>
+        <v>1.002277917519923</v>
       </c>
       <c r="K8">
-        <v>1.01263198365712</v>
+        <v>1.012631983657121</v>
       </c>
       <c r="L8">
-        <v>0.9995633174847105</v>
+        <v>0.9995633174847116</v>
       </c>
       <c r="M8">
-        <v>0.9946312513021572</v>
+        <v>0.9946312513021583</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9566925883059294</v>
+        <v>0.9566925883059287</v>
       </c>
       <c r="D9">
-        <v>0.9837622460439186</v>
+        <v>0.9837622460439182</v>
       </c>
       <c r="E9">
-        <v>0.966278696101473</v>
+        <v>0.9662786961014722</v>
       </c>
       <c r="F9">
-        <v>0.9588319853924843</v>
+        <v>0.9588319853924837</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.029244902952497</v>
       </c>
       <c r="J9">
-        <v>0.9838731231913755</v>
+        <v>0.983873123191375</v>
       </c>
       <c r="K9">
-        <v>0.9971243803285459</v>
+        <v>0.9971243803285453</v>
       </c>
       <c r="L9">
-        <v>0.979943645328221</v>
+        <v>0.9799436453282203</v>
       </c>
       <c r="M9">
-        <v>0.9726302722262755</v>
+        <v>0.9726302722262752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9393704319785785</v>
+        <v>0.9393704319785758</v>
       </c>
       <c r="D10">
-        <v>0.970676444246884</v>
+        <v>0.970676444246882</v>
       </c>
       <c r="E10">
-        <v>0.9500750293834183</v>
+        <v>0.9500750293834154</v>
       </c>
       <c r="F10">
-        <v>0.940808992469364</v>
+        <v>0.9408089924693616</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023337043826579</v>
+        <v>1.023337043826578</v>
       </c>
       <c r="J10">
-        <v>0.9702146809929132</v>
+        <v>0.9702146809929105</v>
       </c>
       <c r="K10">
-        <v>0.9855961275345226</v>
+        <v>0.9855961275345204</v>
       </c>
       <c r="L10">
-        <v>0.9654082556346848</v>
+        <v>0.965408255634682</v>
       </c>
       <c r="M10">
-        <v>0.9563360413222458</v>
+        <v>0.9563360413222435</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9313539299893321</v>
+        <v>0.931353929989333</v>
       </c>
       <c r="D11">
-        <v>0.9646331643697148</v>
+        <v>0.9646331643697157</v>
       </c>
       <c r="E11">
-        <v>0.9425912759259977</v>
+        <v>0.9425912759259986</v>
       </c>
       <c r="F11">
-        <v>0.9324788172505494</v>
+        <v>0.9324788172505505</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020583135956261</v>
+        <v>1.020583135956262</v>
       </c>
       <c r="J11">
-        <v>0.9638901710967712</v>
+        <v>0.963890171096772</v>
       </c>
       <c r="K11">
-        <v>0.9802543563191326</v>
+        <v>0.9802543563191334</v>
       </c>
       <c r="L11">
-        <v>0.9586836055519785</v>
+        <v>0.9586836055519795</v>
       </c>
       <c r="M11">
-        <v>0.9487972464640974</v>
+        <v>0.9487972464640984</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282874692664417</v>
+        <v>0.9282874692664427</v>
       </c>
       <c r="D12">
-        <v>0.9623238897118407</v>
+        <v>0.9623238897118414</v>
       </c>
       <c r="E12">
-        <v>0.9397311710224144</v>
+        <v>0.9397311710224152</v>
       </c>
       <c r="F12">
-        <v>0.9292940120740888</v>
+        <v>0.9292940120740893</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019526962646374</v>
       </c>
       <c r="J12">
-        <v>0.9614706295284098</v>
+        <v>0.9614706295284109</v>
       </c>
       <c r="K12">
-        <v>0.9782103410938677</v>
+        <v>0.9782103410938686</v>
       </c>
       <c r="L12">
-        <v>0.9561118818962284</v>
+        <v>0.9561118818962293</v>
       </c>
       <c r="M12">
-        <v>0.9459139208323821</v>
+        <v>0.945913920832383</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9289494603988914</v>
+        <v>0.9289494603988903</v>
       </c>
       <c r="D13">
-        <v>0.9628223021289617</v>
+        <v>0.9628223021289611</v>
       </c>
       <c r="E13">
-        <v>0.9403484926872536</v>
+        <v>0.9403484926872525</v>
       </c>
       <c r="F13">
-        <v>0.9299814769417676</v>
+        <v>0.9299814769417669</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019755090563053</v>
       </c>
       <c r="J13">
-        <v>0.961992972287653</v>
+        <v>0.9619929722876521</v>
       </c>
       <c r="K13">
-        <v>0.9786516310039713</v>
+        <v>0.9786516310039706</v>
       </c>
       <c r="L13">
-        <v>0.956667037900377</v>
+        <v>0.956667037900376</v>
       </c>
       <c r="M13">
-        <v>0.9465363565237981</v>
+        <v>0.9465363565237974</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9311023402372756</v>
+        <v>0.9311023402372758</v>
       </c>
       <c r="D14">
-        <v>0.9644436470114461</v>
+        <v>0.9644436470114464</v>
       </c>
       <c r="E14">
-        <v>0.9423565629515851</v>
+        <v>0.9423565629515853</v>
       </c>
       <c r="F14">
-        <v>0.9322174844545433</v>
+        <v>0.9322174844545432</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>1.020496535720268</v>
       </c>
       <c r="J14">
-        <v>0.9636916628056876</v>
+        <v>0.963691662805688</v>
       </c>
       <c r="K14">
-        <v>0.9800866657267778</v>
+        <v>0.9800866657267781</v>
       </c>
       <c r="L14">
-        <v>0.9584725934814836</v>
+        <v>0.9584725934814838</v>
       </c>
       <c r="M14">
         <v>0.948560673343397</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9324166587825276</v>
+        <v>0.9324166587825292</v>
       </c>
       <c r="D15">
-        <v>0.9654337958792125</v>
+        <v>0.9654337958792139</v>
       </c>
       <c r="E15">
-        <v>0.9435828221616867</v>
+        <v>0.9435828221616884</v>
       </c>
       <c r="F15">
-        <v>0.9335827678386948</v>
+        <v>0.9335827678386962</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02094883012858</v>
       </c>
       <c r="J15">
-        <v>0.9647286702916885</v>
+        <v>0.9647286702916901</v>
       </c>
       <c r="K15">
-        <v>0.9809626645958407</v>
+        <v>0.980962664595842</v>
       </c>
       <c r="L15">
-        <v>0.9595749570963684</v>
+        <v>0.9595749570963701</v>
       </c>
       <c r="M15">
-        <v>0.9497965611651527</v>
+        <v>0.9497965611651539</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.9398906828046438</v>
       </c>
       <c r="D16">
-        <v>0.9710689364372564</v>
+        <v>0.9710689364372567</v>
       </c>
       <c r="E16">
-        <v>0.9505610396713612</v>
+        <v>0.9505610396713606</v>
       </c>
       <c r="F16">
-        <v>0.9413498216676365</v>
+        <v>0.9413498216676368</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023515377237069</v>
       </c>
       <c r="J16">
-        <v>0.9706250716770626</v>
+        <v>0.9706250716770624</v>
       </c>
       <c r="K16">
-        <v>0.9859426835832418</v>
+        <v>0.985942683583242</v>
       </c>
       <c r="L16">
-        <v>0.9658447330336438</v>
+        <v>0.9658447330336432</v>
       </c>
       <c r="M16">
-        <v>0.9568253392570546</v>
+        <v>0.9568253392570549</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9444335770778258</v>
+        <v>0.9444335770778244</v>
       </c>
       <c r="D17">
-        <v>0.9744976887227004</v>
+        <v>0.9744976887226993</v>
       </c>
       <c r="E17">
-        <v>0.9548066562722297</v>
+        <v>0.9548066562722285</v>
       </c>
       <c r="F17">
-        <v>0.9460736017950947</v>
+        <v>0.9460736017950933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025070420858578</v>
+        <v>1.025070420858577</v>
       </c>
       <c r="J17">
-        <v>0.9742082827102091</v>
+        <v>0.9742082827102082</v>
       </c>
       <c r="K17">
-        <v>0.9889681460639701</v>
+        <v>0.9889681460639691</v>
       </c>
       <c r="L17">
-        <v>0.9696563740648015</v>
+        <v>0.9696563740648004</v>
       </c>
       <c r="M17">
-        <v>0.9610981817584386</v>
+        <v>0.9610981817584372</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9470344664886262</v>
+        <v>0.9470344664886261</v>
       </c>
       <c r="D18">
-        <v>0.9764618521473082</v>
+        <v>0.9764618521473081</v>
       </c>
       <c r="E18">
-        <v>0.9572387288286622</v>
+        <v>0.9572387288286627</v>
       </c>
       <c r="F18">
-        <v>0.9487790373244698</v>
+        <v>0.9487790373244696</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,13 +1050,13 @@
         <v>0.976259391910464</v>
       </c>
       <c r="K18">
-        <v>0.9906996425580238</v>
+        <v>0.9906996425580237</v>
       </c>
       <c r="L18">
-        <v>0.9718387902597068</v>
+        <v>0.971838790259707</v>
       </c>
       <c r="M18">
-        <v>0.9635446390595394</v>
+        <v>0.9635446390595391</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.94791331259269</v>
+        <v>0.9479133125926911</v>
       </c>
       <c r="D19">
-        <v>0.9771257278140402</v>
+        <v>0.9771257278140414</v>
       </c>
       <c r="E19">
-        <v>0.9580607576349788</v>
+        <v>0.9580607576349801</v>
       </c>
       <c r="F19">
-        <v>0.9496933759136652</v>
+        <v>0.9496933759136666</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026258744586158</v>
       </c>
       <c r="J19">
-        <v>0.9769524016398414</v>
+        <v>0.9769524016398426</v>
       </c>
       <c r="K19">
-        <v>0.9912846030219297</v>
+        <v>0.991284603021931</v>
       </c>
       <c r="L19">
-        <v>0.9725762576585728</v>
+        <v>0.9725762576585744</v>
       </c>
       <c r="M19">
-        <v>0.964371329581578</v>
+        <v>0.9643713295815795</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.943951299837902</v>
+        <v>0.9439512998379034</v>
       </c>
       <c r="D20">
-        <v>0.9741335677322929</v>
+        <v>0.9741335677322941</v>
       </c>
       <c r="E20">
-        <v>0.9543557925949941</v>
+        <v>0.954355792594996</v>
       </c>
       <c r="F20">
-        <v>0.945572018625791</v>
+        <v>0.9455720186257918</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024905527693316</v>
+        <v>1.024905527693317</v>
       </c>
       <c r="J20">
-        <v>0.9738279205657804</v>
+        <v>0.9738279205657814</v>
       </c>
       <c r="K20">
-        <v>0.9886470248318837</v>
+        <v>0.9886470248318847</v>
       </c>
       <c r="L20">
-        <v>0.9692517066018526</v>
+        <v>0.969251706601854</v>
       </c>
       <c r="M20">
-        <v>0.9606445542761158</v>
+        <v>0.9606445542761168</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9304709241121547</v>
+        <v>0.9304709241121537</v>
       </c>
       <c r="D21">
-        <v>0.963968054461057</v>
+        <v>0.9639680544610564</v>
       </c>
       <c r="E21">
-        <v>0.941767544875335</v>
+        <v>0.9417675448753337</v>
       </c>
       <c r="F21">
-        <v>0.9315616426168906</v>
+        <v>0.9315616426168898</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020279151349647</v>
+        <v>1.020279151349646</v>
       </c>
       <c r="J21">
-        <v>0.9631934615701562</v>
+        <v>0.9631934615701552</v>
       </c>
       <c r="K21">
-        <v>0.9796658018626889</v>
+        <v>0.9796658018626884</v>
       </c>
       <c r="L21">
-        <v>0.9579430256219518</v>
+        <v>0.9579430256219503</v>
       </c>
       <c r="M21">
-        <v>0.9479669513869926</v>
+        <v>0.9479669513869917</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.921474135908223</v>
+        <v>0.9214741359082246</v>
       </c>
       <c r="D22">
-        <v>0.9571979989129924</v>
+        <v>0.9571979989129932</v>
       </c>
       <c r="E22">
-        <v>0.9333814855741497</v>
+        <v>0.9333814855741511</v>
       </c>
       <c r="F22">
-        <v>0.9222208198399887</v>
+        <v>0.9222208198399905</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017175447386329</v>
+        <v>1.01717544738633</v>
       </c>
       <c r="J22">
-        <v>0.9560944236118318</v>
+        <v>0.9560944236118333</v>
       </c>
       <c r="K22">
-        <v>0.9736678853839603</v>
+        <v>0.9736678853839614</v>
       </c>
       <c r="L22">
-        <v>0.9503992028840021</v>
+        <v>0.9503992028840035</v>
       </c>
       <c r="M22">
-        <v>0.939508373462618</v>
+        <v>0.9395083734626195</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9262973427081633</v>
+        <v>0.9262973427081639</v>
       </c>
       <c r="D23">
-        <v>0.960825918936865</v>
+        <v>0.9608259189368655</v>
       </c>
       <c r="E23">
-        <v>0.937875736105624</v>
+        <v>0.9378757361056248</v>
       </c>
       <c r="F23">
-        <v>0.9272275483459294</v>
+        <v>0.9272275483459297</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018840763682419</v>
       </c>
       <c r="J23">
-        <v>0.959900300797036</v>
+        <v>0.9599003007970367</v>
       </c>
       <c r="K23">
-        <v>0.9768836287772527</v>
+        <v>0.976883628777253</v>
       </c>
       <c r="L23">
-        <v>0.9544430384229667</v>
+        <v>0.9544430384229675</v>
       </c>
       <c r="M23">
-        <v>0.9440427769417168</v>
+        <v>0.9440427769417172</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9441693704626803</v>
+        <v>0.9441693704626807</v>
       </c>
       <c r="D24">
-        <v>0.9742982082938489</v>
+        <v>0.9742982082938492</v>
       </c>
       <c r="E24">
-        <v>0.954559654716444</v>
+        <v>0.9545596547164446</v>
       </c>
       <c r="F24">
         <v>0.945798815718654</v>
@@ -1272,19 +1272,19 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024980092989549</v>
+        <v>1.02498009298955</v>
       </c>
       <c r="J24">
-        <v>0.9739999094728031</v>
+        <v>0.9739999094728035</v>
       </c>
       <c r="K24">
-        <v>0.9887922277718123</v>
+        <v>0.9887922277718124</v>
       </c>
       <c r="L24">
-        <v>0.9694346839720549</v>
+        <v>0.9694346839720553</v>
       </c>
       <c r="M24">
-        <v>0.9608496698349247</v>
+        <v>0.9608496698349248</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630127859972625</v>
+        <v>0.9630127859972616</v>
       </c>
       <c r="D25">
-        <v>0.9885446959722144</v>
+        <v>0.9885446959722139</v>
       </c>
       <c r="E25">
-        <v>0.9722017730798874</v>
+        <v>0.9722017730798864</v>
       </c>
       <c r="F25">
-        <v>0.9654165178176293</v>
+        <v>0.9654165178176285</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031382816427956</v>
       </c>
       <c r="J25">
-        <v>0.9888524162412697</v>
+        <v>0.9888524162412687</v>
       </c>
       <c r="K25">
         <v>1.001323482398173</v>
       </c>
       <c r="L25">
-        <v>0.9852475144746152</v>
+        <v>0.9852475144746143</v>
       </c>
       <c r="M25">
-        <v>0.978576521356621</v>
+        <v>0.9785765213566204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768301349364493</v>
+        <v>0.9768301349364488</v>
       </c>
       <c r="D2">
-        <v>0.9990116336890421</v>
+        <v>0.9990116336890422</v>
       </c>
       <c r="E2">
-        <v>0.9851711574454404</v>
+        <v>0.98517115744544</v>
       </c>
       <c r="F2">
-        <v>0.9798298202341871</v>
+        <v>0.979829820234187</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036016100263541</v>
       </c>
       <c r="J2">
-        <v>0.9997266491269526</v>
+        <v>0.9997266491269523</v>
       </c>
       <c r="K2">
         <v>1.010484755219646</v>
       </c>
       <c r="L2">
-        <v>0.9968410217883417</v>
+        <v>0.9968410217883413</v>
       </c>
       <c r="M2">
-        <v>0.9915774983772102</v>
+        <v>0.99157749837721</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,28 +459,28 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862796150378139</v>
+        <v>0.9862796150378136</v>
       </c>
       <c r="D3">
-        <v>1.006176553675751</v>
+        <v>1.00617655367575</v>
       </c>
       <c r="E3">
-        <v>0.9940566784203242</v>
+        <v>0.9940566784203234</v>
       </c>
       <c r="F3">
-        <v>0.9897026087951377</v>
+        <v>0.9897026087951372</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039146850046926</v>
+        <v>1.039146850046925</v>
       </c>
       <c r="J3">
         <v>1.007151430621862</v>
       </c>
       <c r="K3">
-        <v>1.016731009676408</v>
+        <v>1.016731009676407</v>
       </c>
       <c r="L3">
         <v>1.004766174266251</v>
@@ -497,22 +497,22 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9921562378558386</v>
+        <v>0.9921562378558381</v>
       </c>
       <c r="D4">
         <v>1.010634149193248</v>
       </c>
       <c r="E4">
-        <v>0.9995891308844255</v>
+        <v>0.9995891308844248</v>
       </c>
       <c r="F4">
-        <v>0.9958496209053328</v>
+        <v>0.9958496209053324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041075684393017</v>
+        <v>1.041075684393016</v>
       </c>
       <c r="J4">
         <v>1.011762738561061</v>
@@ -521,7 +521,7 @@
         <v>1.020605901544031</v>
       </c>
       <c r="L4">
-        <v>1.009692517265082</v>
+        <v>1.009692517265081</v>
       </c>
       <c r="M4">
         <v>1.005998396802412</v>
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945739782714653</v>
+        <v>0.9945739782714647</v>
       </c>
       <c r="D5">
         <v>1.012468313551109</v>
@@ -544,25 +544,25 @@
         <v>1.001866740987661</v>
       </c>
       <c r="F5">
-        <v>0.9983802981313726</v>
+        <v>0.9983802981313721</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041864783275785</v>
+        <v>1.041864783275784</v>
       </c>
       <c r="J5">
         <v>1.013658344563953</v>
       </c>
       <c r="K5">
-        <v>1.022197664229769</v>
+        <v>1.022197664229768</v>
       </c>
       <c r="L5">
-        <v>1.011718652141896</v>
+        <v>1.011718652141895</v>
       </c>
       <c r="M5">
-        <v>1.008273218856257</v>
+        <v>1.008273218856256</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949769434409586</v>
+        <v>0.9949769434409583</v>
       </c>
       <c r="D6">
         <v>1.012774022884697</v>
       </c>
       <c r="E6">
-        <v>1.002246434065877</v>
+        <v>1.002246434065876</v>
       </c>
       <c r="F6">
-        <v>0.9988021857006122</v>
+        <v>0.9988021857006119</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9921887461349895</v>
+        <v>0.9921887461349892</v>
       </c>
       <c r="D7">
-        <v>1.010658810162551</v>
+        <v>1.01065881016255</v>
       </c>
       <c r="E7">
-        <v>0.9996197493238627</v>
+        <v>0.9996197493238622</v>
       </c>
       <c r="F7">
-        <v>0.9958836410059505</v>
+        <v>0.9958836410059503</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.041086312191317</v>
       </c>
       <c r="J7">
-        <v>1.011788232668173</v>
+        <v>1.011788232668172</v>
       </c>
       <c r="K7">
         <v>1.020627313745169</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9800755270558137</v>
+        <v>0.9800755270558127</v>
       </c>
       <c r="D8">
-        <v>1.001471913528459</v>
+        <v>1.001471913528458</v>
       </c>
       <c r="E8">
-        <v>0.9882213978025923</v>
+        <v>0.9882213978025911</v>
       </c>
       <c r="F8">
-        <v>0.9832190691864908</v>
+        <v>0.9832190691864897</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03709514621975</v>
       </c>
       <c r="J8">
-        <v>1.002277917519923</v>
+        <v>1.002277917519922</v>
       </c>
       <c r="K8">
-        <v>1.012631983657121</v>
+        <v>1.01263198365712</v>
       </c>
       <c r="L8">
-        <v>0.9995633174847116</v>
+        <v>0.9995633174847105</v>
       </c>
       <c r="M8">
-        <v>0.9946312513021583</v>
+        <v>0.9946312513021572</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9566925883059287</v>
+        <v>0.9566925883059294</v>
       </c>
       <c r="D9">
-        <v>0.9837622460439182</v>
+        <v>0.9837622460439186</v>
       </c>
       <c r="E9">
-        <v>0.9662786961014722</v>
+        <v>0.966278696101473</v>
       </c>
       <c r="F9">
-        <v>0.9588319853924837</v>
+        <v>0.9588319853924843</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.029244902952497</v>
       </c>
       <c r="J9">
-        <v>0.983873123191375</v>
+        <v>0.9838731231913755</v>
       </c>
       <c r="K9">
-        <v>0.9971243803285453</v>
+        <v>0.9971243803285459</v>
       </c>
       <c r="L9">
-        <v>0.9799436453282203</v>
+        <v>0.979943645328221</v>
       </c>
       <c r="M9">
-        <v>0.9726302722262752</v>
+        <v>0.9726302722262755</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9393704319785758</v>
+        <v>0.9393704319785785</v>
       </c>
       <c r="D10">
-        <v>0.970676444246882</v>
+        <v>0.970676444246884</v>
       </c>
       <c r="E10">
-        <v>0.9500750293834154</v>
+        <v>0.9500750293834183</v>
       </c>
       <c r="F10">
-        <v>0.9408089924693616</v>
+        <v>0.940808992469364</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023337043826578</v>
+        <v>1.023337043826579</v>
       </c>
       <c r="J10">
-        <v>0.9702146809929105</v>
+        <v>0.9702146809929132</v>
       </c>
       <c r="K10">
-        <v>0.9855961275345204</v>
+        <v>0.9855961275345226</v>
       </c>
       <c r="L10">
-        <v>0.965408255634682</v>
+        <v>0.9654082556346848</v>
       </c>
       <c r="M10">
-        <v>0.9563360413222435</v>
+        <v>0.9563360413222458</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.931353929989333</v>
+        <v>0.9313539299893321</v>
       </c>
       <c r="D11">
-        <v>0.9646331643697157</v>
+        <v>0.9646331643697148</v>
       </c>
       <c r="E11">
-        <v>0.9425912759259986</v>
+        <v>0.9425912759259977</v>
       </c>
       <c r="F11">
-        <v>0.9324788172505505</v>
+        <v>0.9324788172505494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020583135956262</v>
+        <v>1.020583135956261</v>
       </c>
       <c r="J11">
-        <v>0.963890171096772</v>
+        <v>0.9638901710967712</v>
       </c>
       <c r="K11">
-        <v>0.9802543563191334</v>
+        <v>0.9802543563191326</v>
       </c>
       <c r="L11">
-        <v>0.9586836055519795</v>
+        <v>0.9586836055519785</v>
       </c>
       <c r="M11">
-        <v>0.9487972464640984</v>
+        <v>0.9487972464640974</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282874692664427</v>
+        <v>0.9282874692664417</v>
       </c>
       <c r="D12">
-        <v>0.9623238897118414</v>
+        <v>0.9623238897118407</v>
       </c>
       <c r="E12">
-        <v>0.9397311710224152</v>
+        <v>0.9397311710224144</v>
       </c>
       <c r="F12">
-        <v>0.9292940120740893</v>
+        <v>0.9292940120740888</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019526962646374</v>
       </c>
       <c r="J12">
-        <v>0.9614706295284109</v>
+        <v>0.9614706295284098</v>
       </c>
       <c r="K12">
-        <v>0.9782103410938686</v>
+        <v>0.9782103410938677</v>
       </c>
       <c r="L12">
-        <v>0.9561118818962293</v>
+        <v>0.9561118818962284</v>
       </c>
       <c r="M12">
-        <v>0.945913920832383</v>
+        <v>0.9459139208323821</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9289494603988903</v>
+        <v>0.9289494603988914</v>
       </c>
       <c r="D13">
-        <v>0.9628223021289611</v>
+        <v>0.9628223021289617</v>
       </c>
       <c r="E13">
-        <v>0.9403484926872525</v>
+        <v>0.9403484926872536</v>
       </c>
       <c r="F13">
-        <v>0.9299814769417669</v>
+        <v>0.9299814769417676</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019755090563053</v>
       </c>
       <c r="J13">
-        <v>0.9619929722876521</v>
+        <v>0.961992972287653</v>
       </c>
       <c r="K13">
-        <v>0.9786516310039706</v>
+        <v>0.9786516310039713</v>
       </c>
       <c r="L13">
-        <v>0.956667037900376</v>
+        <v>0.956667037900377</v>
       </c>
       <c r="M13">
-        <v>0.9465363565237974</v>
+        <v>0.9465363565237981</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9311023402372758</v>
+        <v>0.9311023402372756</v>
       </c>
       <c r="D14">
-        <v>0.9644436470114464</v>
+        <v>0.9644436470114461</v>
       </c>
       <c r="E14">
-        <v>0.9423565629515853</v>
+        <v>0.9423565629515851</v>
       </c>
       <c r="F14">
-        <v>0.9322174844545432</v>
+        <v>0.9322174844545433</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>1.020496535720268</v>
       </c>
       <c r="J14">
-        <v>0.963691662805688</v>
+        <v>0.9636916628056876</v>
       </c>
       <c r="K14">
-        <v>0.9800866657267781</v>
+        <v>0.9800866657267778</v>
       </c>
       <c r="L14">
-        <v>0.9584725934814838</v>
+        <v>0.9584725934814836</v>
       </c>
       <c r="M14">
         <v>0.948560673343397</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9324166587825292</v>
+        <v>0.9324166587825276</v>
       </c>
       <c r="D15">
-        <v>0.9654337958792139</v>
+        <v>0.9654337958792125</v>
       </c>
       <c r="E15">
-        <v>0.9435828221616884</v>
+        <v>0.9435828221616867</v>
       </c>
       <c r="F15">
-        <v>0.9335827678386962</v>
+        <v>0.9335827678386948</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02094883012858</v>
       </c>
       <c r="J15">
-        <v>0.9647286702916901</v>
+        <v>0.9647286702916885</v>
       </c>
       <c r="K15">
-        <v>0.980962664595842</v>
+        <v>0.9809626645958407</v>
       </c>
       <c r="L15">
-        <v>0.9595749570963701</v>
+        <v>0.9595749570963684</v>
       </c>
       <c r="M15">
-        <v>0.9497965611651539</v>
+        <v>0.9497965611651527</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.9398906828046438</v>
       </c>
       <c r="D16">
-        <v>0.9710689364372567</v>
+        <v>0.9710689364372564</v>
       </c>
       <c r="E16">
-        <v>0.9505610396713606</v>
+        <v>0.9505610396713612</v>
       </c>
       <c r="F16">
-        <v>0.9413498216676368</v>
+        <v>0.9413498216676365</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023515377237069</v>
       </c>
       <c r="J16">
-        <v>0.9706250716770624</v>
+        <v>0.9706250716770626</v>
       </c>
       <c r="K16">
-        <v>0.985942683583242</v>
+        <v>0.9859426835832418</v>
       </c>
       <c r="L16">
-        <v>0.9658447330336432</v>
+        <v>0.9658447330336438</v>
       </c>
       <c r="M16">
-        <v>0.9568253392570549</v>
+        <v>0.9568253392570546</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9444335770778244</v>
+        <v>0.9444335770778258</v>
       </c>
       <c r="D17">
-        <v>0.9744976887226993</v>
+        <v>0.9744976887227004</v>
       </c>
       <c r="E17">
-        <v>0.9548066562722285</v>
+        <v>0.9548066562722297</v>
       </c>
       <c r="F17">
-        <v>0.9460736017950933</v>
+        <v>0.9460736017950947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025070420858577</v>
+        <v>1.025070420858578</v>
       </c>
       <c r="J17">
-        <v>0.9742082827102082</v>
+        <v>0.9742082827102091</v>
       </c>
       <c r="K17">
-        <v>0.9889681460639691</v>
+        <v>0.9889681460639701</v>
       </c>
       <c r="L17">
-        <v>0.9696563740648004</v>
+        <v>0.9696563740648015</v>
       </c>
       <c r="M17">
-        <v>0.9610981817584372</v>
+        <v>0.9610981817584386</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9470344664886261</v>
+        <v>0.9470344664886262</v>
       </c>
       <c r="D18">
-        <v>0.9764618521473081</v>
+        <v>0.9764618521473082</v>
       </c>
       <c r="E18">
-        <v>0.9572387288286627</v>
+        <v>0.9572387288286622</v>
       </c>
       <c r="F18">
-        <v>0.9487790373244696</v>
+        <v>0.9487790373244698</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,13 +1050,13 @@
         <v>0.976259391910464</v>
       </c>
       <c r="K18">
-        <v>0.9906996425580237</v>
+        <v>0.9906996425580238</v>
       </c>
       <c r="L18">
-        <v>0.971838790259707</v>
+        <v>0.9718387902597068</v>
       </c>
       <c r="M18">
-        <v>0.9635446390595391</v>
+        <v>0.9635446390595394</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9479133125926911</v>
+        <v>0.94791331259269</v>
       </c>
       <c r="D19">
-        <v>0.9771257278140414</v>
+        <v>0.9771257278140402</v>
       </c>
       <c r="E19">
-        <v>0.9580607576349801</v>
+        <v>0.9580607576349788</v>
       </c>
       <c r="F19">
-        <v>0.9496933759136666</v>
+        <v>0.9496933759136652</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026258744586158</v>
       </c>
       <c r="J19">
-        <v>0.9769524016398426</v>
+        <v>0.9769524016398414</v>
       </c>
       <c r="K19">
-        <v>0.991284603021931</v>
+        <v>0.9912846030219297</v>
       </c>
       <c r="L19">
-        <v>0.9725762576585744</v>
+        <v>0.9725762576585728</v>
       </c>
       <c r="M19">
-        <v>0.9643713295815795</v>
+        <v>0.964371329581578</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9439512998379034</v>
+        <v>0.943951299837902</v>
       </c>
       <c r="D20">
-        <v>0.9741335677322941</v>
+        <v>0.9741335677322929</v>
       </c>
       <c r="E20">
-        <v>0.954355792594996</v>
+        <v>0.9543557925949941</v>
       </c>
       <c r="F20">
-        <v>0.9455720186257918</v>
+        <v>0.945572018625791</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024905527693317</v>
+        <v>1.024905527693316</v>
       </c>
       <c r="J20">
-        <v>0.9738279205657814</v>
+        <v>0.9738279205657804</v>
       </c>
       <c r="K20">
-        <v>0.9886470248318847</v>
+        <v>0.9886470248318837</v>
       </c>
       <c r="L20">
-        <v>0.969251706601854</v>
+        <v>0.9692517066018526</v>
       </c>
       <c r="M20">
-        <v>0.9606445542761168</v>
+        <v>0.9606445542761158</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9304709241121537</v>
+        <v>0.9304709241121547</v>
       </c>
       <c r="D21">
-        <v>0.9639680544610564</v>
+        <v>0.963968054461057</v>
       </c>
       <c r="E21">
-        <v>0.9417675448753337</v>
+        <v>0.941767544875335</v>
       </c>
       <c r="F21">
-        <v>0.9315616426168898</v>
+        <v>0.9315616426168906</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020279151349646</v>
+        <v>1.020279151349647</v>
       </c>
       <c r="J21">
-        <v>0.9631934615701552</v>
+        <v>0.9631934615701562</v>
       </c>
       <c r="K21">
-        <v>0.9796658018626884</v>
+        <v>0.9796658018626889</v>
       </c>
       <c r="L21">
-        <v>0.9579430256219503</v>
+        <v>0.9579430256219518</v>
       </c>
       <c r="M21">
-        <v>0.9479669513869917</v>
+        <v>0.9479669513869926</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9214741359082246</v>
+        <v>0.921474135908223</v>
       </c>
       <c r="D22">
-        <v>0.9571979989129932</v>
+        <v>0.9571979989129924</v>
       </c>
       <c r="E22">
-        <v>0.9333814855741511</v>
+        <v>0.9333814855741497</v>
       </c>
       <c r="F22">
-        <v>0.9222208198399905</v>
+        <v>0.9222208198399887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01717544738633</v>
+        <v>1.017175447386329</v>
       </c>
       <c r="J22">
-        <v>0.9560944236118333</v>
+        <v>0.9560944236118318</v>
       </c>
       <c r="K22">
-        <v>0.9736678853839614</v>
+        <v>0.9736678853839603</v>
       </c>
       <c r="L22">
-        <v>0.9503992028840035</v>
+        <v>0.9503992028840021</v>
       </c>
       <c r="M22">
-        <v>0.9395083734626195</v>
+        <v>0.939508373462618</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9262973427081639</v>
+        <v>0.9262973427081633</v>
       </c>
       <c r="D23">
-        <v>0.9608259189368655</v>
+        <v>0.960825918936865</v>
       </c>
       <c r="E23">
-        <v>0.9378757361056248</v>
+        <v>0.937875736105624</v>
       </c>
       <c r="F23">
-        <v>0.9272275483459297</v>
+        <v>0.9272275483459294</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018840763682419</v>
       </c>
       <c r="J23">
-        <v>0.9599003007970367</v>
+        <v>0.959900300797036</v>
       </c>
       <c r="K23">
-        <v>0.976883628777253</v>
+        <v>0.9768836287772527</v>
       </c>
       <c r="L23">
-        <v>0.9544430384229675</v>
+        <v>0.9544430384229667</v>
       </c>
       <c r="M23">
-        <v>0.9440427769417172</v>
+        <v>0.9440427769417168</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9441693704626807</v>
+        <v>0.9441693704626803</v>
       </c>
       <c r="D24">
-        <v>0.9742982082938492</v>
+        <v>0.9742982082938489</v>
       </c>
       <c r="E24">
-        <v>0.9545596547164446</v>
+        <v>0.954559654716444</v>
       </c>
       <c r="F24">
         <v>0.945798815718654</v>
@@ -1272,19 +1272,19 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02498009298955</v>
+        <v>1.024980092989549</v>
       </c>
       <c r="J24">
-        <v>0.9739999094728035</v>
+        <v>0.9739999094728031</v>
       </c>
       <c r="K24">
-        <v>0.9887922277718124</v>
+        <v>0.9887922277718123</v>
       </c>
       <c r="L24">
-        <v>0.9694346839720553</v>
+        <v>0.9694346839720549</v>
       </c>
       <c r="M24">
-        <v>0.9608496698349248</v>
+        <v>0.9608496698349247</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630127859972616</v>
+        <v>0.9630127859972625</v>
       </c>
       <c r="D25">
-        <v>0.9885446959722139</v>
+        <v>0.9885446959722144</v>
       </c>
       <c r="E25">
-        <v>0.9722017730798864</v>
+        <v>0.9722017730798874</v>
       </c>
       <c r="F25">
-        <v>0.9654165178176285</v>
+        <v>0.9654165178176293</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031382816427956</v>
       </c>
       <c r="J25">
-        <v>0.9888524162412687</v>
+        <v>0.9888524162412697</v>
       </c>
       <c r="K25">
         <v>1.001323482398173</v>
       </c>
       <c r="L25">
-        <v>0.9852475144746143</v>
+        <v>0.9852475144746152</v>
       </c>
       <c r="M25">
-        <v>0.9785765213566204</v>
+        <v>0.978576521356621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768301349364488</v>
+        <v>0.9768641927793423</v>
       </c>
       <c r="D2">
-        <v>0.9990116336890422</v>
+        <v>0.9990391379458985</v>
       </c>
       <c r="E2">
-        <v>0.98517115744544</v>
+        <v>0.985204958360819</v>
       </c>
       <c r="F2">
-        <v>0.979829820234187</v>
+        <v>0.9798619936366619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036016100263541</v>
+        <v>1.036030052114896</v>
       </c>
       <c r="J2">
-        <v>0.9997266491269523</v>
+        <v>0.9997596202620617</v>
       </c>
       <c r="K2">
-        <v>1.010484755219646</v>
+        <v>1.010511875354222</v>
       </c>
       <c r="L2">
-        <v>0.9968410217883413</v>
+        <v>0.9968743336895196</v>
       </c>
       <c r="M2">
-        <v>0.99157749837721</v>
+        <v>0.9916091998466546</v>
+      </c>
+      <c r="N2">
+        <v>1.000190259685068</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862796150378136</v>
+        <v>0.9863053033757979</v>
       </c>
       <c r="D3">
-        <v>1.00617655367575</v>
+        <v>1.006197500478436</v>
       </c>
       <c r="E3">
-        <v>0.9940566784203234</v>
+        <v>0.9940822092589776</v>
       </c>
       <c r="F3">
-        <v>0.9897026087951372</v>
+        <v>0.989726923826349</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039146850046925</v>
+        <v>1.03915748905657</v>
       </c>
       <c r="J3">
-        <v>1.007151430621862</v>
+        <v>1.007176391788758</v>
       </c>
       <c r="K3">
-        <v>1.016731009676407</v>
+        <v>1.0167516925576</v>
       </c>
       <c r="L3">
-        <v>1.004766174266251</v>
+        <v>1.004791373535775</v>
       </c>
       <c r="M3">
-        <v>1.000468964580999</v>
+        <v>1.000492960340341</v>
+      </c>
+      <c r="N3">
+        <v>1.00546671600786</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9921562378558381</v>
+        <v>0.9921768717313557</v>
       </c>
       <c r="D4">
-        <v>1.010634149193248</v>
+        <v>1.010651127898612</v>
       </c>
       <c r="E4">
-        <v>0.9995891308844248</v>
+        <v>0.9996096554837045</v>
       </c>
       <c r="F4">
-        <v>0.9958496209053324</v>
+        <v>0.9958692034275344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041075684393016</v>
+        <v>1.041084314979875</v>
       </c>
       <c r="J4">
-        <v>1.011762738561061</v>
+        <v>1.01178283326007</v>
       </c>
       <c r="K4">
-        <v>1.020605901544031</v>
+        <v>1.020622680639924</v>
       </c>
       <c r="L4">
-        <v>1.009692517265081</v>
+        <v>1.009712793903946</v>
       </c>
       <c r="M4">
-        <v>1.005998396802412</v>
+        <v>1.00601774053189</v>
+      </c>
+      <c r="N4">
+        <v>1.008739242058285</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945739782714647</v>
+        <v>0.9945925640202429</v>
       </c>
       <c r="D5">
-        <v>1.012468313551109</v>
+        <v>1.01248368277329</v>
       </c>
       <c r="E5">
-        <v>1.001866740987661</v>
+        <v>1.001885234514764</v>
       </c>
       <c r="F5">
-        <v>0.9983802981313721</v>
+        <v>0.9983979659025567</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041864783275784</v>
+        <v>1.041872598382487</v>
       </c>
       <c r="J5">
-        <v>1.013658344563953</v>
+        <v>1.013676461044162</v>
       </c>
       <c r="K5">
-        <v>1.022197664229768</v>
+        <v>1.022212858073468</v>
       </c>
       <c r="L5">
-        <v>1.011718652141895</v>
+        <v>1.011736929078991</v>
       </c>
       <c r="M5">
-        <v>1.008273218856256</v>
+        <v>1.008290677914637</v>
+      </c>
+      <c r="N5">
+        <v>1.010083382242877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949769434409583</v>
+        <v>0.9949951895485243</v>
       </c>
       <c r="D6">
-        <v>1.012774022884697</v>
+        <v>1.012789125123015</v>
       </c>
       <c r="E6">
-        <v>1.002246434065876</v>
+        <v>1.002264590642869</v>
       </c>
       <c r="F6">
-        <v>0.9988021857006119</v>
+        <v>0.9988195361128615</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041996037700242</v>
+        <v>1.042003717484627</v>
       </c>
       <c r="J6">
-        <v>1.013974191206219</v>
+        <v>1.013991979288217</v>
       </c>
       <c r="K6">
-        <v>1.022462817212713</v>
+        <v>1.022477747987388</v>
       </c>
       <c r="L6">
-        <v>1.012056307904115</v>
+        <v>1.012074252952138</v>
       </c>
       <c r="M6">
-        <v>1.008652358107562</v>
+        <v>1.008669504653595</v>
+      </c>
+      <c r="N6">
+        <v>1.010307276345792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9921887461349892</v>
+        <v>0.9922093523533571</v>
       </c>
       <c r="D7">
-        <v>1.01065881016255</v>
+        <v>1.010675767139859</v>
       </c>
       <c r="E7">
-        <v>0.9996197493238622</v>
+        <v>0.9996402465057699</v>
       </c>
       <c r="F7">
-        <v>0.9958836410059503</v>
+        <v>0.9959031976607644</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041086312191317</v>
+        <v>1.041094931772522</v>
       </c>
       <c r="J7">
-        <v>1.011788232668172</v>
+        <v>1.011808300678144</v>
       </c>
       <c r="K7">
-        <v>1.020627313745169</v>
+        <v>1.020644071447306</v>
       </c>
       <c r="L7">
-        <v>1.009719762794822</v>
+        <v>1.009740012449625</v>
       </c>
       <c r="M7">
-        <v>1.006028983800598</v>
+        <v>1.006048302078622</v>
+      </c>
+      <c r="N7">
+        <v>1.008757323971674</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9800755270558127</v>
+        <v>0.9801066752463621</v>
       </c>
       <c r="D8">
-        <v>1.001471913528458</v>
+        <v>1.001497140051243</v>
       </c>
       <c r="E8">
-        <v>0.9882213978025911</v>
+        <v>0.9882523264315145</v>
       </c>
       <c r="F8">
-        <v>0.9832190691864897</v>
+        <v>0.9832485075754868</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03709514621975</v>
+        <v>1.037107948190405</v>
       </c>
       <c r="J8">
-        <v>1.002277917519922</v>
+        <v>1.002308110793223</v>
       </c>
       <c r="K8">
-        <v>1.01263198365712</v>
+        <v>1.012656869743246</v>
       </c>
       <c r="L8">
-        <v>0.9995633174847105</v>
+        <v>0.9995938144845926</v>
       </c>
       <c r="M8">
-        <v>0.9946312513021572</v>
+        <v>0.9946602735578076</v>
+      </c>
+      <c r="N8">
+        <v>1.00200426789805</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9566925883059294</v>
+        <v>0.9567456188872557</v>
       </c>
       <c r="D9">
-        <v>0.9837622460439186</v>
+        <v>0.983804546011283</v>
       </c>
       <c r="E9">
-        <v>0.966278696101473</v>
+        <v>0.9663311514991051</v>
       </c>
       <c r="F9">
-        <v>0.9588319853924843</v>
+        <v>0.9588820693669835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029244902952497</v>
+        <v>1.02926630449025</v>
       </c>
       <c r="J9">
-        <v>0.9838731231913755</v>
+        <v>0.9839240325944579</v>
       </c>
       <c r="K9">
-        <v>0.9971243803285459</v>
+        <v>0.9971659645032023</v>
       </c>
       <c r="L9">
-        <v>0.979943645328221</v>
+        <v>0.9799951709380877</v>
       </c>
       <c r="M9">
-        <v>0.9726302722262755</v>
+        <v>0.9726794504235456</v>
+      </c>
+      <c r="N9">
+        <v>0.9888998695780731</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9393704319785785</v>
+        <v>0.9394412567317373</v>
       </c>
       <c r="D10">
-        <v>0.970676444246884</v>
+        <v>0.9707325229873965</v>
       </c>
       <c r="E10">
-        <v>0.9500750293834183</v>
+        <v>0.9501448614486041</v>
       </c>
       <c r="F10">
-        <v>0.940808992469364</v>
+        <v>0.940875988067767</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023337043826579</v>
+        <v>1.023365355857822</v>
       </c>
       <c r="J10">
-        <v>0.9702146809929132</v>
+        <v>0.9702821465293671</v>
       </c>
       <c r="K10">
-        <v>0.9855961275345226</v>
+        <v>0.9856511119953018</v>
       </c>
       <c r="L10">
-        <v>0.9654082556346848</v>
+        <v>0.9654766459314914</v>
       </c>
       <c r="M10">
-        <v>0.9563360413222458</v>
+        <v>0.9564016173959414</v>
+      </c>
+      <c r="N10">
+        <v>0.9791537996278958</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9313539299893321</v>
+        <v>0.9314335358562214</v>
       </c>
       <c r="D11">
-        <v>0.9646331643697148</v>
+        <v>0.964696005414284</v>
       </c>
       <c r="E11">
-        <v>0.9425912759259977</v>
+        <v>0.9426696406808422</v>
       </c>
       <c r="F11">
-        <v>0.9324788172505494</v>
+        <v>0.9325541962502036</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020583135956261</v>
+        <v>1.020614831089709</v>
       </c>
       <c r="J11">
-        <v>0.9638901710967712</v>
+        <v>0.9639657153488124</v>
       </c>
       <c r="K11">
-        <v>0.9802543563191326</v>
+        <v>0.9803158947999138</v>
       </c>
       <c r="L11">
-        <v>0.9586836055519785</v>
+        <v>0.9587602433746383</v>
       </c>
       <c r="M11">
-        <v>0.9487972464640974</v>
+        <v>0.9488709158960161</v>
+      </c>
+      <c r="N11">
+        <v>0.9746368214612516</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282874692664417</v>
+        <v>0.9283705358086241</v>
       </c>
       <c r="D12">
-        <v>0.9623238897118407</v>
+        <v>0.9623893888775912</v>
       </c>
       <c r="E12">
-        <v>0.9397311710224144</v>
+        <v>0.9398128909224289</v>
       </c>
       <c r="F12">
-        <v>0.9292940120740888</v>
+        <v>0.9293727015635841</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019526962646374</v>
+        <v>1.019559986206623</v>
       </c>
       <c r="J12">
-        <v>0.9614706295284098</v>
+        <v>0.961549341591438</v>
       </c>
       <c r="K12">
-        <v>0.9782103410938677</v>
+        <v>0.978274451998137</v>
       </c>
       <c r="L12">
-        <v>0.9561118818962284</v>
+        <v>0.9561917568965541</v>
       </c>
       <c r="M12">
-        <v>0.9459139208323821</v>
+        <v>0.9459907800254077</v>
+      </c>
+      <c r="N12">
+        <v>0.9729082660046557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9289494603988914</v>
+        <v>0.9290317748860792</v>
       </c>
       <c r="D13">
-        <v>0.9628223021289617</v>
+        <v>0.962887223981635</v>
       </c>
       <c r="E13">
-        <v>0.9403484926872536</v>
+        <v>0.9404294838302667</v>
       </c>
       <c r="F13">
-        <v>0.9299814769417676</v>
+        <v>0.9300594467040946</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019755090563053</v>
+        <v>1.019787825669679</v>
       </c>
       <c r="J13">
-        <v>0.961992972287653</v>
+        <v>0.9620709967001732</v>
       </c>
       <c r="K13">
-        <v>0.9786516310039713</v>
+        <v>0.9787151833869797</v>
       </c>
       <c r="L13">
-        <v>0.956667037900377</v>
+        <v>0.9567462100423897</v>
       </c>
       <c r="M13">
-        <v>0.9465363565237981</v>
+        <v>0.9466125225305682</v>
+      </c>
+      <c r="N13">
+        <v>0.9732814565635642</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9311023402372756</v>
+        <v>0.9311822278490428</v>
       </c>
       <c r="D14">
-        <v>0.9644436470114461</v>
+        <v>0.964506704609597</v>
       </c>
       <c r="E14">
-        <v>0.9423565629515851</v>
+        <v>0.9424352010203243</v>
       </c>
       <c r="F14">
-        <v>0.9322174844545433</v>
+        <v>0.9322931328353306</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020496535720268</v>
+        <v>1.020528339107771</v>
       </c>
       <c r="J14">
-        <v>0.9636916628056876</v>
+        <v>0.9637674652950933</v>
       </c>
       <c r="K14">
-        <v>0.9800866657267778</v>
+        <v>0.9801484138587613</v>
       </c>
       <c r="L14">
-        <v>0.9584725934814836</v>
+        <v>0.9585494951299335</v>
       </c>
       <c r="M14">
-        <v>0.948560673343397</v>
+        <v>0.9486346024619164</v>
+      </c>
+      <c r="N14">
+        <v>0.9744950140116161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9324166587825276</v>
+        <v>0.9324950787909253</v>
       </c>
       <c r="D15">
-        <v>0.9654337958792125</v>
+        <v>0.9654957251686034</v>
       </c>
       <c r="E15">
-        <v>0.9435828221616867</v>
+        <v>0.9436600362311905</v>
       </c>
       <c r="F15">
-        <v>0.9335827678386948</v>
+        <v>0.933657013286052</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02094883012858</v>
+        <v>1.020980069423285</v>
       </c>
       <c r="J15">
-        <v>0.9647286702916885</v>
+        <v>0.964803126972179</v>
       </c>
       <c r="K15">
-        <v>0.9809626645958407</v>
+        <v>0.9810233202267697</v>
       </c>
       <c r="L15">
-        <v>0.9595749570963684</v>
+        <v>0.9596504839414862</v>
       </c>
       <c r="M15">
-        <v>0.9497965611651527</v>
+        <v>0.9498691375863533</v>
+      </c>
+      <c r="N15">
+        <v>0.9752357961033573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9398906828046438</v>
+        <v>0.9399609503961748</v>
       </c>
       <c r="D16">
-        <v>0.9710689364372564</v>
+        <v>0.9711245852648971</v>
       </c>
       <c r="E16">
-        <v>0.9505610396713612</v>
+        <v>0.950630329396248</v>
       </c>
       <c r="F16">
-        <v>0.9413498216676365</v>
+        <v>0.9414162861601729</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023515377237069</v>
+        <v>1.023543474009272</v>
       </c>
       <c r="J16">
-        <v>0.9706250716770626</v>
+        <v>0.9706920226183734</v>
       </c>
       <c r="K16">
-        <v>0.9859426835832418</v>
+        <v>0.9859972508881268</v>
       </c>
       <c r="L16">
-        <v>0.9658447330336438</v>
+        <v>0.9659125983814751</v>
       </c>
       <c r="M16">
-        <v>0.9568253392570546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.956890401828341</v>
+      </c>
+      <c r="N16">
+        <v>0.979446825708056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9444335770778258</v>
+        <v>0.9444990420669785</v>
       </c>
       <c r="D17">
-        <v>0.9744976887227004</v>
+        <v>0.9745496276700198</v>
       </c>
       <c r="E17">
-        <v>0.9548066562722297</v>
+        <v>0.9548712664742597</v>
       </c>
       <c r="F17">
-        <v>0.9460736017950947</v>
+        <v>0.946135492429597</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025070420858578</v>
+        <v>1.025096659158939</v>
       </c>
       <c r="J17">
-        <v>0.9742082827102091</v>
+        <v>0.9742707879048691</v>
       </c>
       <c r="K17">
-        <v>0.9889681460639701</v>
+        <v>0.9890191110978359</v>
       </c>
       <c r="L17">
-        <v>0.9696563740648015</v>
+        <v>0.9697197062329551</v>
       </c>
       <c r="M17">
-        <v>0.9610981817584386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9611588181930009</v>
+      </c>
+      <c r="N17">
+        <v>0.9820048555346704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9470344664886262</v>
+        <v>0.9470972310216246</v>
       </c>
       <c r="D18">
-        <v>0.9764618521473082</v>
+        <v>0.9765117018383495</v>
       </c>
       <c r="E18">
-        <v>0.9572387288286622</v>
+        <v>0.9573007040928777</v>
       </c>
       <c r="F18">
-        <v>0.9487790373244698</v>
+        <v>0.9488383594303776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025958859431463</v>
+        <v>1.025984050372862</v>
       </c>
       <c r="J18">
-        <v>0.976259391910464</v>
+        <v>0.9763193893197624</v>
       </c>
       <c r="K18">
-        <v>0.9906996425580238</v>
+        <v>0.9907485769530436</v>
       </c>
       <c r="L18">
-        <v>0.9718387902597068</v>
+        <v>0.9718995669294049</v>
       </c>
       <c r="M18">
-        <v>0.9635446390595394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9636027868401971</v>
+      </c>
+      <c r="N18">
+        <v>0.9834687429473434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.94791331259269</v>
+        <v>0.9479751724782014</v>
       </c>
       <c r="D19">
-        <v>0.9771257278140402</v>
+        <v>0.9771748770936972</v>
       </c>
       <c r="E19">
-        <v>0.9580607576349788</v>
+        <v>0.9581218496056961</v>
       </c>
       <c r="F19">
-        <v>0.9496933759136652</v>
+        <v>0.9497518381066793</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026258744586158</v>
+        <v>1.026283584283972</v>
       </c>
       <c r="J19">
-        <v>0.9769524016398414</v>
+        <v>0.9770115576492422</v>
       </c>
       <c r="K19">
-        <v>0.9912846030219297</v>
+        <v>0.991332856331574</v>
       </c>
       <c r="L19">
-        <v>0.9725762576585728</v>
+        <v>0.9726361771814916</v>
       </c>
       <c r="M19">
-        <v>0.964371329581578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9644286436898108</v>
+      </c>
+      <c r="N19">
+        <v>0.983963279643433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.943951299837902</v>
+        <v>0.944017269437342</v>
       </c>
       <c r="D20">
-        <v>0.9741335677322929</v>
+        <v>0.9741858968239738</v>
       </c>
       <c r="E20">
-        <v>0.9543557925949941</v>
+        <v>0.9544208948698419</v>
       </c>
       <c r="F20">
-        <v>0.945572018625791</v>
+        <v>0.9456343894841323</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024905527693316</v>
+        <v>1.024931961515888</v>
       </c>
       <c r="J20">
-        <v>0.9738279205657804</v>
+        <v>0.973890893727711</v>
       </c>
       <c r="K20">
-        <v>0.9886470248318837</v>
+        <v>0.9886983689042791</v>
       </c>
       <c r="L20">
-        <v>0.9692517066018526</v>
+        <v>0.9693155157696185</v>
       </c>
       <c r="M20">
-        <v>0.9606445542761158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9607056557535053</v>
+      </c>
+      <c r="N20">
+        <v>0.9817333571183796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9304709241121547</v>
+        <v>0.9305515205287735</v>
       </c>
       <c r="D21">
-        <v>0.963968054461057</v>
+        <v>0.9640316567425479</v>
       </c>
       <c r="E21">
-        <v>0.941767544875335</v>
+        <v>0.9418468704125054</v>
       </c>
       <c r="F21">
-        <v>0.9315616426168906</v>
+        <v>0.9316379688057428</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020279151349647</v>
+        <v>1.020311226998831</v>
       </c>
       <c r="J21">
-        <v>0.9631934615701562</v>
+        <v>0.9632699134611307</v>
       </c>
       <c r="K21">
-        <v>0.9796658018626889</v>
+        <v>0.9797280772544008</v>
       </c>
       <c r="L21">
-        <v>0.9579430256219518</v>
+        <v>0.9580205907775839</v>
       </c>
       <c r="M21">
-        <v>0.9479669513869926</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9480415338187365</v>
+      </c>
+      <c r="N21">
+        <v>0.9741391084334021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.921474135908223</v>
+        <v>0.9215651077772098</v>
       </c>
       <c r="D22">
-        <v>0.9571979989129924</v>
+        <v>0.9572695552767674</v>
       </c>
       <c r="E22">
-        <v>0.9333814855741497</v>
+        <v>0.933470853719128</v>
       </c>
       <c r="F22">
-        <v>0.9222208198399887</v>
+        <v>0.9223070850617536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017175447386329</v>
+        <v>1.017211495292928</v>
       </c>
       <c r="J22">
-        <v>0.9560944236118318</v>
+        <v>0.9561803388087288</v>
       </c>
       <c r="K22">
-        <v>0.9736678853839603</v>
+        <v>0.9737378504627194</v>
       </c>
       <c r="L22">
-        <v>0.9503992028840021</v>
+        <v>0.9504864452595553</v>
       </c>
       <c r="M22">
-        <v>0.939508373462618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9395925192928023</v>
+      </c>
+      <c r="N22">
+        <v>0.9690666035044089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9262973427081633</v>
+        <v>0.9263826869109418</v>
       </c>
       <c r="D23">
-        <v>0.960825918936865</v>
+        <v>0.9608931654047667</v>
       </c>
       <c r="E23">
-        <v>0.937875736105624</v>
+        <v>0.9379596618742545</v>
       </c>
       <c r="F23">
-        <v>0.9272275483459294</v>
+        <v>0.9273084186283044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018840763682419</v>
+        <v>1.018874660062023</v>
       </c>
       <c r="J23">
-        <v>0.959900300797036</v>
+        <v>0.9599810929075006</v>
       </c>
       <c r="K23">
-        <v>0.9768836287772527</v>
+        <v>0.9769494295090917</v>
       </c>
       <c r="L23">
-        <v>0.9544430384229667</v>
+        <v>0.9545250399756773</v>
       </c>
       <c r="M23">
-        <v>0.9440427769417168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9441217355205132</v>
+      </c>
+      <c r="N23">
+        <v>0.971786269776297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9441693704626803</v>
+        <v>0.9442351117415877</v>
       </c>
       <c r="D24">
-        <v>0.9742982082938489</v>
+        <v>0.9743503608673197</v>
       </c>
       <c r="E24">
-        <v>0.954559654716444</v>
+        <v>0.9546245343550621</v>
       </c>
       <c r="F24">
-        <v>0.945798815718654</v>
+        <v>0.9458609692802592</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024980092989549</v>
+        <v>1.025006438351721</v>
       </c>
       <c r="J24">
-        <v>0.9739999094728031</v>
+        <v>0.97406267091893</v>
       </c>
       <c r="K24">
-        <v>0.9887922277718123</v>
+        <v>0.9888434003569472</v>
       </c>
       <c r="L24">
-        <v>0.9694346839720549</v>
+        <v>0.9694982773326377</v>
       </c>
       <c r="M24">
-        <v>0.9608496698349247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9609105608944535</v>
+      </c>
+      <c r="N24">
+        <v>0.9818561221617867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630127859972625</v>
+        <v>0.9630596806941555</v>
       </c>
       <c r="D25">
-        <v>0.9885446959722144</v>
+        <v>0.9885822221497632</v>
       </c>
       <c r="E25">
-        <v>0.9722017730798874</v>
+        <v>0.9722482097852195</v>
       </c>
       <c r="F25">
-        <v>0.9654165178176293</v>
+        <v>0.9654607952353647</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031382816427956</v>
+        <v>1.031401817889588</v>
       </c>
       <c r="J25">
-        <v>0.9888524162412697</v>
+        <v>0.9888975571997336</v>
       </c>
       <c r="K25">
-        <v>1.001323482398173</v>
+        <v>1.001360408623084</v>
       </c>
       <c r="L25">
-        <v>0.9852475144746152</v>
+        <v>0.9852931762758054</v>
       </c>
       <c r="M25">
-        <v>0.978576521356621</v>
+        <v>0.978620046431708</v>
+      </c>
+      <c r="N25">
+        <v>0.9924489678439208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768641927793423</v>
+        <v>1.011927377011447</v>
       </c>
       <c r="D2">
-        <v>0.9990391379458985</v>
+        <v>1.024457352632092</v>
       </c>
       <c r="E2">
-        <v>0.985204958360819</v>
+        <v>1.027167466081029</v>
       </c>
       <c r="F2">
-        <v>0.9798619936366619</v>
+        <v>1.029176313361295</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036030052114896</v>
+        <v>1.04277149048439</v>
       </c>
       <c r="J2">
-        <v>0.9997596202620617</v>
+        <v>1.033757102124075</v>
       </c>
       <c r="K2">
-        <v>1.010511875354222</v>
+        <v>1.035586156830771</v>
       </c>
       <c r="L2">
-        <v>0.9968743336895196</v>
+        <v>1.038260857735173</v>
       </c>
       <c r="M2">
-        <v>0.9916091998466546</v>
+        <v>1.040243606431961</v>
       </c>
       <c r="N2">
-        <v>1.000190259685068</v>
+        <v>1.035225155782688</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9863053033757979</v>
+        <v>1.024300433946578</v>
       </c>
       <c r="D3">
-        <v>1.006197500478436</v>
+        <v>1.03416975558524</v>
       </c>
       <c r="E3">
-        <v>0.9940822092589776</v>
+        <v>1.039418735311766</v>
       </c>
       <c r="F3">
-        <v>0.989726923826349</v>
+        <v>1.042114542667585</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03915748905657</v>
+        <v>1.047037188785699</v>
       </c>
       <c r="J3">
-        <v>1.007176391788758</v>
+        <v>1.044149873698162</v>
       </c>
       <c r="K3">
-        <v>1.0167516925576</v>
+        <v>1.044383326869506</v>
       </c>
       <c r="L3">
-        <v>1.004791373535775</v>
+        <v>1.049570916036945</v>
       </c>
       <c r="M3">
-        <v>1.000492960340341</v>
+        <v>1.052235490988177</v>
       </c>
       <c r="N3">
-        <v>1.00546671600786</v>
+        <v>1.045632686284478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9921768717313557</v>
+        <v>1.031929079836919</v>
       </c>
       <c r="D4">
-        <v>1.010651127898612</v>
+        <v>1.040158813118077</v>
       </c>
       <c r="E4">
-        <v>0.9996096554837045</v>
+        <v>1.046979041464053</v>
       </c>
       <c r="F4">
-        <v>0.9958692034275344</v>
+        <v>1.050101494094683</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041084314979875</v>
+        <v>1.04964948321285</v>
       </c>
       <c r="J4">
-        <v>1.01178283326007</v>
+        <v>1.050549858145833</v>
       </c>
       <c r="K4">
-        <v>1.020622680639924</v>
+        <v>1.049795562182603</v>
       </c>
       <c r="L4">
-        <v>1.009712793903946</v>
+        <v>1.056541699533952</v>
       </c>
       <c r="M4">
-        <v>1.00601774053189</v>
+        <v>1.059630625108062</v>
       </c>
       <c r="N4">
-        <v>1.008739242058285</v>
+        <v>1.052041759444153</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>0.9945925640202429</v>
+        <v>1.035053926912235</v>
       </c>
       <c r="D5">
-        <v>1.01248368277329</v>
+        <v>1.042612014624015</v>
       </c>
       <c r="E5">
-        <v>1.001885234514764</v>
+        <v>1.050077410957075</v>
       </c>
       <c r="F5">
-        <v>0.9983979659025567</v>
+        <v>1.05337540352172</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041872598382487</v>
+        <v>1.050715138807129</v>
       </c>
       <c r="J5">
-        <v>1.013676461044162</v>
+        <v>1.053169474159684</v>
       </c>
       <c r="K5">
-        <v>1.022212858073468</v>
+        <v>1.05200957002503</v>
       </c>
       <c r="L5">
-        <v>1.011736929078991</v>
+        <v>1.059396391064984</v>
       </c>
       <c r="M5">
-        <v>1.008290677914637</v>
+        <v>1.062660104330419</v>
       </c>
       <c r="N5">
-        <v>1.010083382242877</v>
+        <v>1.054665095613218</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949951895485243</v>
+        <v>1.035573995077862</v>
       </c>
       <c r="D6">
-        <v>1.012789125123015</v>
+        <v>1.043020292237399</v>
       </c>
       <c r="E6">
-        <v>1.002264590642869</v>
+        <v>1.050593158916495</v>
       </c>
       <c r="F6">
-        <v>0.9988195361128615</v>
+        <v>1.053920413250481</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042003717484627</v>
+        <v>1.050892233530955</v>
       </c>
       <c r="J6">
-        <v>1.013991979288217</v>
+        <v>1.053605339585569</v>
       </c>
       <c r="K6">
-        <v>1.022477747987388</v>
+        <v>1.052377869465972</v>
       </c>
       <c r="L6">
-        <v>1.012074252952138</v>
+        <v>1.059871454724311</v>
       </c>
       <c r="M6">
-        <v>1.008669504653595</v>
+        <v>1.063164315050231</v>
       </c>
       <c r="N6">
-        <v>1.010307276345792</v>
+        <v>1.055101580018002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922093523533571</v>
+        <v>1.031971147441288</v>
       </c>
       <c r="D7">
-        <v>1.010675767139859</v>
+        <v>1.040191839277218</v>
       </c>
       <c r="E7">
-        <v>0.9996402465057699</v>
+        <v>1.047020746726501</v>
       </c>
       <c r="F7">
-        <v>0.9959031976607644</v>
+        <v>1.050145559397357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041094931772522</v>
+        <v>1.049663846999102</v>
       </c>
       <c r="J7">
-        <v>1.011808300678144</v>
+        <v>1.050585132032515</v>
       </c>
       <c r="K7">
-        <v>1.020644071447306</v>
+        <v>1.049825379714966</v>
       </c>
       <c r="L7">
-        <v>1.009740012449625</v>
+        <v>1.056580133044217</v>
       </c>
       <c r="M7">
-        <v>1.006048302078622</v>
+        <v>1.059671407812055</v>
       </c>
       <c r="N7">
-        <v>1.008757323971674</v>
+        <v>1.0520770834238</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9801066752463621</v>
+        <v>1.016192395020751</v>
       </c>
       <c r="D8">
-        <v>1.001497140051243</v>
+        <v>1.027804896446144</v>
       </c>
       <c r="E8">
-        <v>0.9882523264315145</v>
+        <v>1.03138899212516</v>
       </c>
       <c r="F8">
-        <v>0.9832485075754868</v>
+        <v>1.033633996938604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037107948190405</v>
+        <v>1.044245583864821</v>
       </c>
       <c r="J8">
-        <v>1.002308110793223</v>
+        <v>1.037341094662221</v>
       </c>
       <c r="K8">
-        <v>1.012656869743246</v>
+        <v>1.038620957199159</v>
       </c>
       <c r="L8">
-        <v>0.9995938144845926</v>
+        <v>1.042159924952704</v>
       </c>
       <c r="M8">
-        <v>0.9946602735578076</v>
+        <v>1.044376861208557</v>
       </c>
       <c r="N8">
-        <v>1.00200426789805</v>
+        <v>1.038814238001329</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9567456188872557</v>
+        <v>0.9850493269466758</v>
       </c>
       <c r="D9">
-        <v>0.983804546011283</v>
+        <v>1.003377675172862</v>
       </c>
       <c r="E9">
-        <v>0.9663311514991051</v>
+        <v>1.000599339246892</v>
       </c>
       <c r="F9">
-        <v>0.9588820693669835</v>
+        <v>1.001132020134865</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02926630449025</v>
+        <v>1.033409116139569</v>
       </c>
       <c r="J9">
-        <v>0.9839240325944579</v>
+        <v>1.011141307716082</v>
       </c>
       <c r="K9">
-        <v>0.9971659645032023</v>
+        <v>1.016416188628347</v>
       </c>
       <c r="L9">
-        <v>0.9799951709380877</v>
+        <v>1.013682700068325</v>
       </c>
       <c r="M9">
-        <v>0.9726794504235456</v>
+        <v>1.014206757763078</v>
       </c>
       <c r="N9">
-        <v>0.9888998695780731</v>
+        <v>1.012577244352568</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9394412567317373</v>
+        <v>0.9612376018040679</v>
       </c>
       <c r="D10">
-        <v>0.9707325229873965</v>
+        <v>0.984741500800408</v>
       </c>
       <c r="E10">
-        <v>0.9501448614486041</v>
+        <v>0.9771130983041397</v>
       </c>
       <c r="F10">
-        <v>0.940875988067767</v>
+        <v>0.9763495283897654</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023365355857822</v>
+        <v>1.025038784921726</v>
       </c>
       <c r="J10">
-        <v>0.9702821465293671</v>
+        <v>0.9910782637998587</v>
       </c>
       <c r="K10">
-        <v>0.9856511119953018</v>
+        <v>0.9993918277624161</v>
       </c>
       <c r="L10">
-        <v>0.9654766459314914</v>
+        <v>0.9919082550457394</v>
       </c>
       <c r="M10">
-        <v>0.9564016173959414</v>
+        <v>0.9911593451243128</v>
       </c>
       <c r="N10">
-        <v>0.9791537996278958</v>
+        <v>0.99248570861272</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9314335358562214</v>
+        <v>0.9499464416942476</v>
       </c>
       <c r="D11">
-        <v>0.964696005414284</v>
+        <v>0.9759222753078536</v>
       </c>
       <c r="E11">
-        <v>0.9426696406808422</v>
+        <v>0.9659929630809121</v>
       </c>
       <c r="F11">
-        <v>0.9325541962502036</v>
+        <v>0.9646165697370654</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020614831089709</v>
+        <v>1.021053787159286</v>
       </c>
       <c r="J11">
-        <v>0.9639657153488124</v>
+        <v>0.9815606571903697</v>
       </c>
       <c r="K11">
-        <v>0.9803158947999138</v>
+        <v>0.9913130097843104</v>
       </c>
       <c r="L11">
-        <v>0.9587602433746383</v>
+        <v>0.9815860191976976</v>
       </c>
       <c r="M11">
-        <v>0.9488709158960161</v>
+        <v>0.9802381056960021</v>
       </c>
       <c r="N11">
-        <v>0.9746368214612516</v>
+        <v>0.982954585910161</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9283705358086241</v>
+        <v>0.9455744783321649</v>
       </c>
       <c r="D12">
-        <v>0.9623893888775912</v>
+        <v>0.9725110418530196</v>
       </c>
       <c r="E12">
-        <v>0.9398128909224289</v>
+        <v>0.9616901234318637</v>
       </c>
       <c r="F12">
-        <v>0.9293727015635841</v>
+        <v>0.9600765685333037</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019559986206623</v>
+        <v>1.019508896012199</v>
       </c>
       <c r="J12">
-        <v>0.961549341591438</v>
+        <v>0.977875210695254</v>
       </c>
       <c r="K12">
-        <v>0.978274451998137</v>
+        <v>0.9881845412013032</v>
       </c>
       <c r="L12">
-        <v>0.9561917568965541</v>
+        <v>0.9775900204900846</v>
       </c>
       <c r="M12">
-        <v>0.9459907800254077</v>
+        <v>0.9760108041628344</v>
       </c>
       <c r="N12">
-        <v>0.9729082660046557</v>
+        <v>0.9792639056582958</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290317748860792</v>
+        <v>0.9465209310501419</v>
       </c>
       <c r="D13">
-        <v>0.962887223981635</v>
+        <v>0.9732493345789504</v>
       </c>
       <c r="E13">
-        <v>0.9404294838302667</v>
+        <v>0.9626214741064179</v>
       </c>
       <c r="F13">
-        <v>0.9300594467040946</v>
+        <v>0.9610592578067294</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019787825669679</v>
+        <v>1.019843413115789</v>
       </c>
       <c r="J13">
-        <v>0.9620709967001732</v>
+        <v>0.9786730463467065</v>
       </c>
       <c r="K13">
-        <v>0.9787151833869797</v>
+        <v>0.9888618029292036</v>
       </c>
       <c r="L13">
-        <v>0.9567462100423897</v>
+        <v>0.9784550408207492</v>
       </c>
       <c r="M13">
-        <v>0.9466125225305682</v>
+        <v>0.9769258702239287</v>
       </c>
       <c r="N13">
-        <v>0.9732814565635642</v>
+        <v>0.9800628743278864</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9311822278490428</v>
+        <v>0.949588895819659</v>
       </c>
       <c r="D14">
-        <v>0.964506704609597</v>
+        <v>0.9756432209882481</v>
       </c>
       <c r="E14">
-        <v>0.9424352010203243</v>
+        <v>0.9656410092199914</v>
       </c>
       <c r="F14">
-        <v>0.9322931328353306</v>
+        <v>0.9642452189575276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020528339107771</v>
+        <v>1.020927478281697</v>
       </c>
       <c r="J14">
-        <v>0.9637674652950933</v>
+        <v>0.9812592572047584</v>
       </c>
       <c r="K14">
-        <v>0.9801484138587613</v>
+        <v>0.9910571615235542</v>
       </c>
       <c r="L14">
-        <v>0.9585494951299335</v>
+        <v>0.9812592018512093</v>
       </c>
       <c r="M14">
-        <v>0.9486346024619164</v>
+        <v>0.9798923597441009</v>
       </c>
       <c r="N14">
-        <v>0.9744950140116161</v>
+        <v>0.9826527579019992</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9324950787909253</v>
+        <v>0.951454511655508</v>
       </c>
       <c r="D15">
-        <v>0.9654957251686034</v>
+        <v>0.9770994313507658</v>
       </c>
       <c r="E15">
-        <v>0.9436600362311905</v>
+        <v>0.9674775662625479</v>
       </c>
       <c r="F15">
-        <v>0.933657013286052</v>
+        <v>0.966182989967174</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020980069423285</v>
+        <v>1.021586464527959</v>
       </c>
       <c r="J15">
-        <v>0.964803126972179</v>
+        <v>0.9828319072820284</v>
       </c>
       <c r="K15">
-        <v>0.9810233202267697</v>
+        <v>0.9923921264210448</v>
       </c>
       <c r="L15">
-        <v>0.9596504839414862</v>
+        <v>0.9829645156581869</v>
       </c>
       <c r="M15">
-        <v>0.9498691375863533</v>
+        <v>0.9816964649670032</v>
       </c>
       <c r="N15">
-        <v>0.9752357961033573</v>
+        <v>0.9842276413227643</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9399609503961748</v>
+        <v>0.9619638977966015</v>
       </c>
       <c r="D16">
-        <v>0.9711245852648971</v>
+        <v>0.9853092219497274</v>
       </c>
       <c r="E16">
-        <v>0.950630329396248</v>
+        <v>0.9778287617445052</v>
       </c>
       <c r="F16">
-        <v>0.9414162861601729</v>
+        <v>0.9771046371028403</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023543474009272</v>
+        <v>1.025294832833566</v>
       </c>
       <c r="J16">
-        <v>0.9706920226183734</v>
+        <v>0.9916904259447398</v>
       </c>
       <c r="K16">
-        <v>0.9859972508881268</v>
+        <v>0.9999114128213408</v>
       </c>
       <c r="L16">
-        <v>0.9659125983814751</v>
+        <v>0.9925723116098835</v>
       </c>
       <c r="M16">
-        <v>0.956890401828341</v>
+        <v>0.9918620211932052</v>
       </c>
       <c r="N16">
-        <v>0.979446825708056</v>
+        <v>0.9930987400980631</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9444990420669785</v>
+        <v>0.9682748104406368</v>
       </c>
       <c r="D17">
-        <v>0.9745496276700198</v>
+        <v>0.9902442844955177</v>
       </c>
       <c r="E17">
-        <v>0.9548712664742597</v>
+        <v>0.9840491552832651</v>
       </c>
       <c r="F17">
-        <v>0.946135492429597</v>
+        <v>0.9836679668005452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025096659158939</v>
+        <v>1.027517973615091</v>
       </c>
       <c r="J17">
-        <v>0.9742707879048691</v>
+        <v>0.9970092027945474</v>
       </c>
       <c r="K17">
-        <v>0.9890191110978359</v>
+        <v>1.00442555663701</v>
       </c>
       <c r="L17">
-        <v>0.9697197062329551</v>
+        <v>0.9983427628323875</v>
       </c>
       <c r="M17">
-        <v>0.9611588181930009</v>
+        <v>0.9979685465571498</v>
       </c>
       <c r="N17">
-        <v>0.9820048555346704</v>
+        <v>0.9984250702210697</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9470972310216246</v>
+        <v>0.9718637276721471</v>
       </c>
       <c r="D18">
-        <v>0.9765117018383495</v>
+        <v>0.9930523308391883</v>
       </c>
       <c r="E18">
-        <v>0.9573007040928777</v>
+        <v>0.9875880891535253</v>
       </c>
       <c r="F18">
-        <v>0.9488383594303776</v>
+        <v>0.9874021021691719</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025984050372862</v>
+        <v>1.028780750536699</v>
       </c>
       <c r="J18">
-        <v>0.9763193893197624</v>
+        <v>1.000033512377787</v>
       </c>
       <c r="K18">
-        <v>0.9907485769530436</v>
+        <v>1.006992077533472</v>
       </c>
       <c r="L18">
-        <v>0.9718995669294049</v>
+        <v>1.001624563859034</v>
       </c>
       <c r="M18">
-        <v>0.9636027868401971</v>
+        <v>1.001441893675618</v>
       </c>
       <c r="N18">
-        <v>0.9834687429473434</v>
+        <v>1.00145367467081</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>0.9479751724782014</v>
+        <v>0.9730726127571256</v>
       </c>
       <c r="D19">
-        <v>0.9771748770936972</v>
+        <v>0.9939984294689538</v>
       </c>
       <c r="E19">
-        <v>0.9581218496056961</v>
+        <v>0.9887803815088158</v>
       </c>
       <c r="F19">
-        <v>0.9497518381066793</v>
+        <v>0.9886601799107249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026283584283972</v>
+        <v>1.029205837411653</v>
       </c>
       <c r="J19">
-        <v>0.9770115576492422</v>
+        <v>1.001052139177194</v>
       </c>
       <c r="K19">
-        <v>0.991332856331574</v>
+        <v>1.007856463745836</v>
       </c>
       <c r="L19">
-        <v>0.9726361771814916</v>
+        <v>1.002730031539234</v>
       </c>
       <c r="M19">
-        <v>0.9644286436898108</v>
+        <v>1.002611955157169</v>
       </c>
       <c r="N19">
-        <v>0.983963279643433</v>
+        <v>1.002473748037111</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.944017269437342</v>
+        <v>0.9676074305008779</v>
       </c>
       <c r="D20">
-        <v>0.9741858968239738</v>
+        <v>0.9897222330610094</v>
       </c>
       <c r="E20">
-        <v>0.9544208948698419</v>
+        <v>0.9833911893747844</v>
       </c>
       <c r="F20">
-        <v>0.9456343894841323</v>
+        <v>0.9829737175437152</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024931961515888</v>
+        <v>1.027283028553894</v>
       </c>
       <c r="J20">
-        <v>0.973890893727711</v>
+        <v>0.9964467802873999</v>
       </c>
       <c r="K20">
-        <v>0.9886983689042791</v>
+        <v>1.003948244582973</v>
       </c>
       <c r="L20">
-        <v>0.9693155157696185</v>
+        <v>0.9977325099574097</v>
       </c>
       <c r="M20">
-        <v>0.9607056557535053</v>
+        <v>0.9973227096647542</v>
       </c>
       <c r="N20">
-        <v>0.9817333571183796</v>
+        <v>0.9978618490094514</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9305515205287735</v>
+        <v>0.9486906635629982</v>
       </c>
       <c r="D21">
-        <v>0.9640316567425479</v>
+        <v>0.9749422373912585</v>
       </c>
       <c r="E21">
-        <v>0.9418468704125054</v>
+        <v>0.9647568732217678</v>
       </c>
       <c r="F21">
-        <v>0.9316379688057428</v>
+        <v>0.9633123551228423</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020311226998831</v>
+        <v>1.020610134895834</v>
       </c>
       <c r="J21">
-        <v>0.9632699134611307</v>
+        <v>0.9805020737573734</v>
       </c>
       <c r="K21">
-        <v>0.9797280772544008</v>
+        <v>0.9904144125793688</v>
       </c>
       <c r="L21">
-        <v>0.9580205907775839</v>
+        <v>0.9804381803971811</v>
       </c>
       <c r="M21">
-        <v>0.9480415338187365</v>
+        <v>0.9790237954231713</v>
       </c>
       <c r="N21">
-        <v>0.9741391084334021</v>
+        <v>0.9818944991672691</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9215651077772098</v>
+        <v>0.9357441768547181</v>
       </c>
       <c r="D22">
-        <v>0.9572695552767674</v>
+        <v>0.964848913579351</v>
       </c>
       <c r="E22">
-        <v>0.933470853719128</v>
+        <v>0.9520212097198971</v>
       </c>
       <c r="F22">
-        <v>0.9223070850617536</v>
+        <v>0.9498744161504268</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017211495292928</v>
+        <v>1.016032399008161</v>
       </c>
       <c r="J22">
-        <v>0.9561803388087288</v>
+        <v>0.9695887085156141</v>
       </c>
       <c r="K22">
-        <v>0.9737378504627194</v>
+        <v>0.9811504322874778</v>
       </c>
       <c r="L22">
-        <v>0.9504864452595553</v>
+        <v>0.9686070650769738</v>
       </c>
       <c r="M22">
-        <v>0.9395925192928023</v>
+        <v>0.9665088581651308</v>
       </c>
       <c r="N22">
-        <v>0.9690666035044089</v>
+        <v>0.9709656356950859</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9263826869109418</v>
+        <v>0.9427202035467444</v>
       </c>
       <c r="D23">
-        <v>0.9608931654047667</v>
+        <v>0.9702851411362451</v>
       </c>
       <c r="E23">
-        <v>0.9379596618742545</v>
+        <v>0.9588818555892227</v>
       </c>
       <c r="F23">
-        <v>0.9273084186283044</v>
+        <v>0.9571134795206797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018874660062023</v>
+        <v>1.018499842121297</v>
       </c>
       <c r="J23">
-        <v>0.9599810929075006</v>
+        <v>0.9754691367739328</v>
       </c>
       <c r="K23">
-        <v>0.9769494295090917</v>
+        <v>0.9861420891613463</v>
       </c>
       <c r="L23">
-        <v>0.9545250399756773</v>
+        <v>0.9749814773139293</v>
       </c>
       <c r="M23">
-        <v>0.9441217355205132</v>
+        <v>0.9732514218592341</v>
       </c>
       <c r="N23">
-        <v>0.971786269776297</v>
+        <v>0.9768544148360255</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9442351117415877</v>
+        <v>0.9679092732805195</v>
       </c>
       <c r="D24">
-        <v>0.9743503608673197</v>
+        <v>0.9899583418369095</v>
       </c>
       <c r="E24">
-        <v>0.9546245343550621</v>
+        <v>0.9836887697371189</v>
       </c>
       <c r="F24">
-        <v>0.9458609692802592</v>
+        <v>0.9832877075790706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025006438351721</v>
+        <v>1.027389294252647</v>
       </c>
       <c r="J24">
-        <v>0.97406267091893</v>
+        <v>0.9967011541535352</v>
       </c>
       <c r="K24">
-        <v>0.9888434003569472</v>
+        <v>1.004164125328476</v>
       </c>
       <c r="L24">
-        <v>0.9694982773326377</v>
+        <v>0.9980085145814471</v>
       </c>
       <c r="M24">
-        <v>0.9609105608944535</v>
+        <v>0.9976148069032912</v>
       </c>
       <c r="N24">
-        <v>0.9818561221617867</v>
+        <v>0.9981165841156535</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630596806941555</v>
+        <v>0.9935678042920053</v>
       </c>
       <c r="D25">
-        <v>0.9885822221497632</v>
+        <v>1.010054558275215</v>
       </c>
       <c r="E25">
-        <v>0.9722482097852195</v>
+        <v>1.009012956016216</v>
       </c>
       <c r="F25">
-        <v>0.9654607952353647</v>
+        <v>1.010011557182703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031401817889588</v>
+        <v>1.036388254851674</v>
       </c>
       <c r="J25">
-        <v>0.9888975571997336</v>
+        <v>1.018313593562633</v>
       </c>
       <c r="K25">
-        <v>1.001360408623084</v>
+        <v>1.022498769816418</v>
       </c>
       <c r="L25">
-        <v>0.9852931762758054</v>
+        <v>1.021472950276752</v>
       </c>
       <c r="M25">
-        <v>0.978620046431708</v>
+        <v>1.022456419470687</v>
       </c>
       <c r="N25">
-        <v>0.9924489678439208</v>
+        <v>1.019759715667694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011927377011447</v>
+        <v>1.018394180274951</v>
       </c>
       <c r="D2">
-        <v>1.024457352632092</v>
+        <v>1.037022268502037</v>
       </c>
       <c r="E2">
-        <v>1.027167466081029</v>
+        <v>1.026450753304945</v>
       </c>
       <c r="F2">
-        <v>1.029176313361295</v>
+        <v>1.041284419716873</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04277149048439</v>
+        <v>1.05179191294636</v>
       </c>
       <c r="J2">
-        <v>1.033757102124075</v>
+        <v>1.040038306646506</v>
       </c>
       <c r="K2">
-        <v>1.035586156830771</v>
+        <v>1.047988838315449</v>
       </c>
       <c r="L2">
-        <v>1.038260857735173</v>
+        <v>1.037553487330136</v>
       </c>
       <c r="M2">
-        <v>1.040243606431961</v>
+        <v>1.052197067530295</v>
       </c>
       <c r="N2">
-        <v>1.035225155782688</v>
+        <v>1.041515280336005</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024300433946578</v>
+        <v>1.022847891976391</v>
       </c>
       <c r="D3">
-        <v>1.03416975558524</v>
+        <v>1.040474977538213</v>
       </c>
       <c r="E3">
-        <v>1.039418735311766</v>
+        <v>1.030419943699059</v>
       </c>
       <c r="F3">
-        <v>1.042114542667585</v>
+        <v>1.04524147023533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047037188785699</v>
+        <v>1.053218784846598</v>
       </c>
       <c r="J3">
-        <v>1.044149873698162</v>
+        <v>1.042734502939786</v>
       </c>
       <c r="K3">
-        <v>1.044383326869506</v>
+        <v>1.050614897287234</v>
       </c>
       <c r="L3">
-        <v>1.049570916036945</v>
+        <v>1.040677846261934</v>
       </c>
       <c r="M3">
-        <v>1.052235490988177</v>
+        <v>1.055326440516838</v>
       </c>
       <c r="N3">
-        <v>1.045632686284478</v>
+        <v>1.044215305537279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031929079836919</v>
+        <v>1.025673404098788</v>
       </c>
       <c r="D4">
-        <v>1.040158813118077</v>
+        <v>1.042668475273993</v>
       </c>
       <c r="E4">
-        <v>1.046979041464053</v>
+        <v>1.032943275575157</v>
       </c>
       <c r="F4">
-        <v>1.050101494094683</v>
+        <v>1.047756948521535</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04964948321285</v>
+        <v>1.054115987215207</v>
       </c>
       <c r="J4">
-        <v>1.050549858145833</v>
+        <v>1.044442425393431</v>
       </c>
       <c r="K4">
-        <v>1.049795562182603</v>
+        <v>1.052277822511843</v>
       </c>
       <c r="L4">
-        <v>1.056541699533952</v>
+        <v>1.042659720106627</v>
       </c>
       <c r="M4">
-        <v>1.059630625108062</v>
+        <v>1.057311230977623</v>
       </c>
       <c r="N4">
-        <v>1.052041759444153</v>
+        <v>1.04592565343671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035053926912235</v>
+        <v>1.026848228347597</v>
       </c>
       <c r="D5">
-        <v>1.042612014624015</v>
+        <v>1.043581196518237</v>
       </c>
       <c r="E5">
-        <v>1.050077410957075</v>
+        <v>1.033993672300708</v>
       </c>
       <c r="F5">
-        <v>1.05337540352172</v>
+        <v>1.048804035045624</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050715138807129</v>
+        <v>1.054487076774261</v>
       </c>
       <c r="J5">
-        <v>1.053169474159684</v>
+        <v>1.045151912221191</v>
       </c>
       <c r="K5">
-        <v>1.05200957002503</v>
+        <v>1.052968473336385</v>
       </c>
       <c r="L5">
-        <v>1.059396391064984</v>
+        <v>1.043483668083093</v>
       </c>
       <c r="M5">
-        <v>1.062660104330419</v>
+        <v>1.058136321088122</v>
       </c>
       <c r="N5">
-        <v>1.054665095613218</v>
+        <v>1.046636147817145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035573995077862</v>
+        <v>1.027044736089574</v>
       </c>
       <c r="D6">
-        <v>1.043020292237399</v>
+        <v>1.043733902289193</v>
       </c>
       <c r="E6">
-        <v>1.050593158916495</v>
+        <v>1.034169438158332</v>
       </c>
       <c r="F6">
-        <v>1.053920413250481</v>
+        <v>1.048979244353964</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050892233530955</v>
+        <v>1.054549031172922</v>
       </c>
       <c r="J6">
-        <v>1.053605339585569</v>
+        <v>1.045270545719145</v>
       </c>
       <c r="K6">
-        <v>1.052377869465972</v>
+        <v>1.053083948599179</v>
       </c>
       <c r="L6">
-        <v>1.059871454724311</v>
+        <v>1.04362147954789</v>
       </c>
       <c r="M6">
-        <v>1.063164315050231</v>
+        <v>1.058274319241632</v>
       </c>
       <c r="N6">
-        <v>1.055101580018002</v>
+        <v>1.046754949788273</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031971147441288</v>
+        <v>1.025689152720142</v>
       </c>
       <c r="D7">
-        <v>1.040191839277218</v>
+        <v>1.042680707742526</v>
       </c>
       <c r="E7">
-        <v>1.047020746726501</v>
+        <v>1.032957351472998</v>
       </c>
       <c r="F7">
-        <v>1.050145559397357</v>
+        <v>1.047770980233304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049663846999102</v>
+        <v>1.054120969485794</v>
       </c>
       <c r="J7">
-        <v>1.050585132032515</v>
+        <v>1.04445193874581</v>
       </c>
       <c r="K7">
-        <v>1.049825379714966</v>
+        <v>1.05228708387394</v>
       </c>
       <c r="L7">
-        <v>1.056580133044217</v>
+        <v>1.042670765632819</v>
       </c>
       <c r="M7">
-        <v>1.059671407812055</v>
+        <v>1.057322292102171</v>
       </c>
       <c r="N7">
-        <v>1.0520770834238</v>
+        <v>1.045935180299141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016192395020751</v>
+        <v>1.019911285865476</v>
       </c>
       <c r="D8">
-        <v>1.027804896446144</v>
+        <v>1.03819772859588</v>
       </c>
       <c r="E8">
-        <v>1.03138899212516</v>
+        <v>1.027801700008102</v>
       </c>
       <c r="F8">
-        <v>1.033633996938604</v>
+        <v>1.042631257759673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044245583864821</v>
+        <v>1.052279622920457</v>
       </c>
       <c r="J8">
-        <v>1.037341094662221</v>
+        <v>1.040957258573827</v>
       </c>
       <c r="K8">
-        <v>1.038620957199159</v>
+        <v>1.048883999805342</v>
       </c>
       <c r="L8">
-        <v>1.042159924952704</v>
+        <v>1.038617801183345</v>
       </c>
       <c r="M8">
-        <v>1.044376861208557</v>
+        <v>1.053263140334891</v>
       </c>
       <c r="N8">
-        <v>1.038814238001329</v>
+        <v>1.042435537280468</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9850493269466758</v>
+        <v>1.009276345606587</v>
       </c>
       <c r="D9">
-        <v>1.003377675172862</v>
+        <v>1.029972577651983</v>
       </c>
       <c r="E9">
-        <v>1.000599339246892</v>
+        <v>1.018355045756448</v>
       </c>
       <c r="F9">
-        <v>1.001132020134865</v>
+        <v>1.033213118914764</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033409116139569</v>
+        <v>1.048828124402513</v>
       </c>
       <c r="J9">
-        <v>1.011141307716082</v>
+        <v>1.034505731717928</v>
       </c>
       <c r="K9">
-        <v>1.016416188628347</v>
+        <v>1.042597392267708</v>
       </c>
       <c r="L9">
-        <v>1.013682700068325</v>
+        <v>1.031157182591125</v>
       </c>
       <c r="M9">
-        <v>1.014206757763078</v>
+        <v>1.045789376888127</v>
       </c>
       <c r="N9">
-        <v>1.012577244352568</v>
+        <v>1.035974848516433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9612376018040679</v>
+        <v>1.001848556155421</v>
       </c>
       <c r="D10">
-        <v>0.984741500800408</v>
+        <v>1.024249014673351</v>
       </c>
       <c r="E10">
-        <v>0.9771130983041397</v>
+        <v>1.011788752164477</v>
       </c>
       <c r="F10">
-        <v>0.9763495283897654</v>
+        <v>1.026666793129899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025038784921726</v>
+        <v>1.046377576271002</v>
       </c>
       <c r="J10">
-        <v>0.9910782637998587</v>
+        <v>1.029989023116793</v>
       </c>
       <c r="K10">
-        <v>0.9993918277624161</v>
+        <v>1.038193826453242</v>
       </c>
       <c r="L10">
-        <v>0.9919082550457394</v>
+        <v>1.025948370008677</v>
       </c>
       <c r="M10">
-        <v>0.9911593451243128</v>
+        <v>1.040570703303966</v>
       </c>
       <c r="N10">
-        <v>0.99248570861272</v>
+        <v>1.03145172567101</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9499464416942476</v>
+        <v>0.9985441796958328</v>
       </c>
       <c r="D11">
-        <v>0.9759222753078536</v>
+        <v>1.02170858896455</v>
       </c>
       <c r="E11">
-        <v>0.9659929630809121</v>
+        <v>1.008875695325704</v>
       </c>
       <c r="F11">
-        <v>0.9646165697370654</v>
+        <v>1.023762773180694</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021053787159286</v>
+        <v>1.045278458314708</v>
       </c>
       <c r="J11">
-        <v>0.9815606571903697</v>
+        <v>1.027977648158857</v>
       </c>
       <c r="K11">
-        <v>0.9913130097843104</v>
+        <v>1.036232405222706</v>
       </c>
       <c r="L11">
-        <v>0.9815860191976976</v>
+        <v>1.023632147915483</v>
       </c>
       <c r="M11">
-        <v>0.9802381056960021</v>
+        <v>1.038250053497084</v>
       </c>
       <c r="N11">
-        <v>0.982954585910161</v>
+        <v>1.029437494329927</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455744783321649</v>
+        <v>0.9973028233713532</v>
       </c>
       <c r="D12">
-        <v>0.9725110418530196</v>
+        <v>1.020755167099053</v>
       </c>
       <c r="E12">
-        <v>0.9616901234318637</v>
+        <v>1.007782610918705</v>
       </c>
       <c r="F12">
-        <v>0.9600765685333037</v>
+        <v>1.022673119548868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019508896012199</v>
+        <v>1.044864253386602</v>
       </c>
       <c r="J12">
-        <v>0.977875210695254</v>
+        <v>1.027221772835025</v>
       </c>
       <c r="K12">
-        <v>0.9881845412013032</v>
+        <v>1.035495248345609</v>
       </c>
       <c r="L12">
-        <v>0.9775900204900846</v>
+        <v>1.022762212002005</v>
       </c>
       <c r="M12">
-        <v>0.9760108041628344</v>
+        <v>1.037378458915523</v>
       </c>
       <c r="N12">
-        <v>0.9792639056582958</v>
+        <v>1.028680545576435</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9465209310501419</v>
+        <v>0.9975697426558837</v>
       </c>
       <c r="D13">
-        <v>0.9732493345789504</v>
+        <v>1.020960130388835</v>
       </c>
       <c r="E13">
-        <v>0.9626214741064179</v>
+        <v>1.008017590417902</v>
       </c>
       <c r="F13">
-        <v>0.9610592578067294</v>
+        <v>1.022907359521136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019843413115789</v>
+        <v>1.044953374610537</v>
       </c>
       <c r="J13">
-        <v>0.9786730463467065</v>
+        <v>1.02738431393891</v>
       </c>
       <c r="K13">
-        <v>0.9888618029292036</v>
+        <v>1.035653766565702</v>
       </c>
       <c r="L13">
-        <v>0.9784550408207492</v>
+        <v>1.022949257763598</v>
       </c>
       <c r="M13">
-        <v>0.9769258702239287</v>
+        <v>1.037565860935604</v>
       </c>
       <c r="N13">
-        <v>0.9800628743278864</v>
+        <v>1.028843317507331</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.949588895819659</v>
+        <v>0.9984418580408564</v>
       </c>
       <c r="D14">
-        <v>0.9756432209882481</v>
+        <v>1.02162998143146</v>
       </c>
       <c r="E14">
-        <v>0.9656410092199914</v>
+        <v>1.008785569303342</v>
       </c>
       <c r="F14">
-        <v>0.9642452189575276</v>
+        <v>1.023672929142398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020927478281697</v>
+        <v>1.045244342651446</v>
       </c>
       <c r="J14">
-        <v>0.9812592572047584</v>
+        <v>1.027915348437676</v>
       </c>
       <c r="K14">
-        <v>0.9910571615235542</v>
+        <v>1.036171649326473</v>
       </c>
       <c r="L14">
-        <v>0.9812592018512093</v>
+        <v>1.023560437084913</v>
       </c>
       <c r="M14">
-        <v>0.9798923597441009</v>
+        <v>1.038178205787112</v>
       </c>
       <c r="N14">
-        <v>0.9826527579019992</v>
+        <v>1.029375106135996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.951454511655508</v>
+        <v>0.9989773241424679</v>
       </c>
       <c r="D15">
-        <v>0.9770994313507658</v>
+        <v>1.022041386398677</v>
       </c>
       <c r="E15">
-        <v>0.9674775662625479</v>
+        <v>1.009257265526093</v>
       </c>
       <c r="F15">
-        <v>0.966182989967174</v>
+        <v>1.024143151236602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021586464527959</v>
+        <v>1.045422822872162</v>
       </c>
       <c r="J15">
-        <v>0.9828319072820284</v>
+        <v>1.028241362777625</v>
       </c>
       <c r="K15">
-        <v>0.9923921264210448</v>
+        <v>1.036489582688494</v>
       </c>
       <c r="L15">
-        <v>0.9829645156581869</v>
+        <v>1.023935720147369</v>
       </c>
       <c r="M15">
-        <v>0.9816964649670032</v>
+        <v>1.03855420541929</v>
       </c>
       <c r="N15">
-        <v>0.9842276413227643</v>
+        <v>1.029701583453702</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9619638977966015</v>
+        <v>1.00206593962115</v>
       </c>
       <c r="D16">
-        <v>0.9853092219497274</v>
+        <v>1.024416267116094</v>
       </c>
       <c r="E16">
-        <v>0.9778287617445052</v>
+        <v>1.011980564611958</v>
       </c>
       <c r="F16">
-        <v>0.9771046371028403</v>
+        <v>1.026858015341472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025294832833566</v>
+        <v>1.046449700705489</v>
       </c>
       <c r="J16">
-        <v>0.9916904259447398</v>
+        <v>1.030121305733133</v>
       </c>
       <c r="K16">
-        <v>0.9999114128213408</v>
+        <v>1.038322815653239</v>
       </c>
       <c r="L16">
-        <v>0.9925723116098835</v>
+        <v>1.026100771269669</v>
       </c>
       <c r="M16">
-        <v>0.9918620211932052</v>
+        <v>1.04072339589914</v>
       </c>
       <c r="N16">
-        <v>0.9930987400980631</v>
+        <v>1.031584196143839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9682748104406368</v>
+        <v>1.003979262098243</v>
       </c>
       <c r="D17">
-        <v>0.9902442844955177</v>
+        <v>1.025889024724854</v>
       </c>
       <c r="E17">
-        <v>0.9840491552832651</v>
+        <v>1.01366974623141</v>
       </c>
       <c r="F17">
-        <v>0.9836679668005452</v>
+        <v>1.028542020949511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027517973615091</v>
+        <v>1.047083497233307</v>
       </c>
       <c r="J17">
-        <v>0.9970092027945474</v>
+        <v>1.031285377334763</v>
       </c>
       <c r="K17">
-        <v>1.00442555663701</v>
+        <v>1.039457857769532</v>
       </c>
       <c r="L17">
-        <v>0.9983427628323875</v>
+        <v>1.027442266566012</v>
       </c>
       <c r="M17">
-        <v>0.9979685465571498</v>
+        <v>1.042067452009804</v>
       </c>
       <c r="N17">
-        <v>0.9984250702210697</v>
+        <v>1.032749920860665</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9718637276721471</v>
+        <v>1.005086822634212</v>
       </c>
       <c r="D18">
-        <v>0.9930523308391883</v>
+        <v>1.026742102101967</v>
       </c>
       <c r="E18">
-        <v>0.9875880891535253</v>
+        <v>1.014648321321676</v>
       </c>
       <c r="F18">
-        <v>0.9874021021691719</v>
+        <v>1.029517613547413</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028780750536699</v>
+        <v>1.047449528668186</v>
       </c>
       <c r="J18">
-        <v>1.000033512377787</v>
+        <v>1.031959023842454</v>
       </c>
       <c r="K18">
-        <v>1.006992077533472</v>
+        <v>1.040114663355369</v>
       </c>
       <c r="L18">
-        <v>1.001624563859034</v>
+        <v>1.028218906931085</v>
       </c>
       <c r="M18">
-        <v>1.001441893675618</v>
+        <v>1.042845570123953</v>
       </c>
       <c r="N18">
-        <v>1.00145367467081</v>
+        <v>1.033424524023665</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9730726127571256</v>
+        <v>1.005463060531311</v>
       </c>
       <c r="D19">
-        <v>0.9939984294689538</v>
+        <v>1.02703198268611</v>
       </c>
       <c r="E19">
-        <v>0.9887803815088158</v>
+        <v>1.014980870722676</v>
       </c>
       <c r="F19">
-        <v>0.9886601799107249</v>
+        <v>1.029849151756765</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029205837411653</v>
+        <v>1.047573723400429</v>
       </c>
       <c r="J19">
-        <v>1.001052139177194</v>
+        <v>1.032187826585656</v>
       </c>
       <c r="K19">
-        <v>1.007856463745836</v>
+        <v>1.040337738747896</v>
       </c>
       <c r="L19">
-        <v>1.002730031539234</v>
+        <v>1.028482745568443</v>
       </c>
       <c r="M19">
-        <v>1.002611955157169</v>
+        <v>1.043109909653766</v>
       </c>
       <c r="N19">
-        <v>1.002473748037111</v>
+        <v>1.033653651693006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676074305008779</v>
+        <v>1.003774859637623</v>
       </c>
       <c r="D20">
-        <v>0.9897222330610094</v>
+        <v>1.025731631234127</v>
       </c>
       <c r="E20">
-        <v>0.9833911893747844</v>
+        <v>1.01348920953857</v>
       </c>
       <c r="F20">
-        <v>0.9829737175437152</v>
+        <v>1.028362035702604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027283028553894</v>
+        <v>1.047015876171474</v>
       </c>
       <c r="J20">
-        <v>0.9964467802873999</v>
+        <v>1.031161038325811</v>
       </c>
       <c r="K20">
-        <v>1.003948244582973</v>
+        <v>1.039336623755206</v>
       </c>
       <c r="L20">
-        <v>0.9977325099574097</v>
+        <v>1.027298943170655</v>
       </c>
       <c r="M20">
-        <v>0.9973227096647542</v>
+        <v>1.041923855443967</v>
       </c>
       <c r="N20">
-        <v>0.9978618490094514</v>
+        <v>1.032625405276058</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9486906635629982</v>
+        <v>0.998185433367917</v>
       </c>
       <c r="D21">
-        <v>0.9749422373912585</v>
+        <v>1.021433001279143</v>
       </c>
       <c r="E21">
-        <v>0.9647568732217678</v>
+        <v>1.008559728231695</v>
       </c>
       <c r="F21">
-        <v>0.9633123551228423</v>
+        <v>1.023447795363803</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020610134895834</v>
+        <v>1.04515882583131</v>
       </c>
       <c r="J21">
-        <v>0.9805020737573734</v>
+        <v>1.027759217262224</v>
       </c>
       <c r="K21">
-        <v>0.9904144125793688</v>
+        <v>1.036019386340402</v>
       </c>
       <c r="L21">
-        <v>0.9804381803971811</v>
+        <v>1.023380728508819</v>
       </c>
       <c r="M21">
-        <v>0.9790237954231713</v>
+        <v>1.037998154295892</v>
       </c>
       <c r="N21">
-        <v>0.9818944991672691</v>
+        <v>1.029218753236366</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9357441768547181</v>
+        <v>0.9945899511175097</v>
       </c>
       <c r="D22">
-        <v>0.964848913579351</v>
+        <v>1.018673359315227</v>
       </c>
       <c r="E22">
-        <v>0.9520212097198971</v>
+        <v>1.005396159070579</v>
       </c>
       <c r="F22">
-        <v>0.9498744161504268</v>
+        <v>1.020294246019204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016032399008161</v>
+        <v>1.043956710291674</v>
       </c>
       <c r="J22">
-        <v>0.9695887085156141</v>
+        <v>1.025569446913963</v>
       </c>
       <c r="K22">
-        <v>0.9811504322874778</v>
+        <v>1.033883752952355</v>
       </c>
       <c r="L22">
-        <v>0.9686070650769738</v>
+        <v>1.020861469619053</v>
       </c>
       <c r="M22">
-        <v>0.9665088581651308</v>
+        <v>1.035474112747166</v>
       </c>
       <c r="N22">
-        <v>0.9709656356950859</v>
+        <v>1.02702587316304</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9427202035467444</v>
+        <v>0.9965039365435281</v>
       </c>
       <c r="D23">
-        <v>0.9702851411362451</v>
+        <v>1.020141857384209</v>
       </c>
       <c r="E23">
-        <v>0.9588818555892227</v>
+        <v>1.007079509078185</v>
       </c>
       <c r="F23">
-        <v>0.9571134795206797</v>
+        <v>1.021972237383877</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018499842121297</v>
+        <v>1.044597327730795</v>
       </c>
       <c r="J23">
-        <v>0.9754691367739328</v>
+        <v>1.026735254195248</v>
       </c>
       <c r="K23">
-        <v>0.9861420891613463</v>
+        <v>1.035020763914666</v>
       </c>
       <c r="L23">
-        <v>0.9749814773139293</v>
+        <v>1.022202419077673</v>
       </c>
       <c r="M23">
-        <v>0.9732514218592341</v>
+        <v>1.036817601265495</v>
       </c>
       <c r="N23">
-        <v>0.9768544148360255</v>
+        <v>1.028193336024385</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679092732805195</v>
+        <v>1.003867246365273</v>
       </c>
       <c r="D24">
-        <v>0.9899583418369095</v>
+        <v>1.025802768953573</v>
       </c>
       <c r="E24">
-        <v>0.9836887697371189</v>
+        <v>1.013570806951219</v>
       </c>
       <c r="F24">
-        <v>0.9832877075790706</v>
+        <v>1.028443383828668</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027389294252647</v>
+        <v>1.047046442485478</v>
       </c>
       <c r="J24">
-        <v>0.9967011541535352</v>
+        <v>1.031217238234579</v>
       </c>
       <c r="K24">
-        <v>1.004164125328476</v>
+        <v>1.039391420369234</v>
       </c>
       <c r="L24">
-        <v>0.9980085145814471</v>
+        <v>1.027363722830578</v>
       </c>
       <c r="M24">
-        <v>0.9976148069032912</v>
+        <v>1.041988758587841</v>
       </c>
       <c r="N24">
-        <v>0.9981165841156535</v>
+        <v>1.032681684995142</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9935678042920053</v>
+        <v>1.012082742264411</v>
       </c>
       <c r="D25">
-        <v>1.010054558275215</v>
+        <v>1.032139665977313</v>
       </c>
       <c r="E25">
-        <v>1.009012956016216</v>
+        <v>1.020842612166356</v>
       </c>
       <c r="F25">
-        <v>1.010011557182703</v>
+        <v>1.035693196130587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036388254851674</v>
+        <v>1.049745968812809</v>
       </c>
       <c r="J25">
-        <v>1.018313593562633</v>
+        <v>1.036210205570967</v>
       </c>
       <c r="K25">
-        <v>1.022498769816418</v>
+        <v>1.044258731769919</v>
       </c>
       <c r="L25">
-        <v>1.021472950276752</v>
+        <v>1.033125765461943</v>
       </c>
       <c r="M25">
-        <v>1.022456419470687</v>
+        <v>1.047761583714866</v>
       </c>
       <c r="N25">
-        <v>1.019759715667694</v>
+        <v>1.03768174291785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018394180274951</v>
+        <v>1.045207493600382</v>
       </c>
       <c r="D2">
-        <v>1.037022268502037</v>
+        <v>1.052815768352613</v>
       </c>
       <c r="E2">
-        <v>1.026450753304945</v>
+        <v>1.048872992161993</v>
       </c>
       <c r="F2">
-        <v>1.041284419716873</v>
+        <v>1.061448878614035</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05179191294636</v>
+        <v>1.044975512436983</v>
       </c>
       <c r="J2">
-        <v>1.040038306646506</v>
+        <v>1.050268461179476</v>
       </c>
       <c r="K2">
-        <v>1.047988838315449</v>
+        <v>1.055563456390983</v>
       </c>
       <c r="L2">
-        <v>1.037553487330136</v>
+        <v>1.051631624664941</v>
       </c>
       <c r="M2">
-        <v>1.052197067530295</v>
+        <v>1.064172910069629</v>
       </c>
       <c r="N2">
-        <v>1.041515280336005</v>
+        <v>1.051759962861827</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022847891976391</v>
+        <v>1.046153369513794</v>
       </c>
       <c r="D3">
-        <v>1.040474977538213</v>
+        <v>1.053573392722363</v>
       </c>
       <c r="E3">
-        <v>1.030419943699059</v>
+        <v>1.049767935389616</v>
       </c>
       <c r="F3">
-        <v>1.04524147023533</v>
+        <v>1.062337575659549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053218784846598</v>
+        <v>1.045230857899465</v>
       </c>
       <c r="J3">
-        <v>1.042734502939786</v>
+        <v>1.050861923263942</v>
       </c>
       <c r="K3">
-        <v>1.050614897287234</v>
+        <v>1.056134143469728</v>
       </c>
       <c r="L3">
-        <v>1.040677846261934</v>
+        <v>1.052338486476701</v>
       </c>
       <c r="M3">
-        <v>1.055326440516838</v>
+        <v>1.064876043494955</v>
       </c>
       <c r="N3">
-        <v>1.044215305537279</v>
+        <v>1.052354267730524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>1.025673404098788</v>
+        <v>1.046765961332291</v>
       </c>
       <c r="D4">
-        <v>1.042668475273993</v>
+        <v>1.054064104069925</v>
       </c>
       <c r="E4">
-        <v>1.032943275575157</v>
+        <v>1.050347897833222</v>
       </c>
       <c r="F4">
-        <v>1.047756948521535</v>
+        <v>1.062913433190467</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054115987215207</v>
+        <v>1.045395205484071</v>
       </c>
       <c r="J4">
-        <v>1.044442425393431</v>
+        <v>1.05124584450863</v>
       </c>
       <c r="K4">
-        <v>1.052277822511843</v>
+        <v>1.056503228756553</v>
       </c>
       <c r="L4">
-        <v>1.042659720106627</v>
+        <v>1.052796111583347</v>
       </c>
       <c r="M4">
-        <v>1.057311230977623</v>
+        <v>1.065331189175089</v>
       </c>
       <c r="N4">
-        <v>1.04592565343671</v>
+        <v>1.052738734187416</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026848228347597</v>
+        <v>1.047023624815105</v>
       </c>
       <c r="D5">
-        <v>1.043581196518237</v>
+        <v>1.054270512109144</v>
       </c>
       <c r="E5">
-        <v>1.033993672300708</v>
+        <v>1.050591922003011</v>
       </c>
       <c r="F5">
-        <v>1.048804035045624</v>
+        <v>1.063155716429843</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054487076774261</v>
+        <v>1.045464086448198</v>
       </c>
       <c r="J5">
-        <v>1.045151912221191</v>
+        <v>1.051407222859535</v>
       </c>
       <c r="K5">
-        <v>1.052968473336385</v>
+        <v>1.05665834631745</v>
       </c>
       <c r="L5">
-        <v>1.043483668083093</v>
+        <v>1.052988553089416</v>
       </c>
       <c r="M5">
-        <v>1.058136321088122</v>
+        <v>1.065522572232708</v>
       </c>
       <c r="N5">
-        <v>1.046636147817145</v>
+        <v>1.052900341714089</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027044736089574</v>
+        <v>1.047066895234024</v>
       </c>
       <c r="D6">
-        <v>1.043733902289193</v>
+        <v>1.054305175512832</v>
       </c>
       <c r="E6">
-        <v>1.034169438158332</v>
+        <v>1.050632906890226</v>
       </c>
       <c r="F6">
-        <v>1.048979244353964</v>
+        <v>1.06319640811171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054549031172922</v>
+        <v>1.045475639489717</v>
       </c>
       <c r="J6">
-        <v>1.045270545719145</v>
+        <v>1.051434317668124</v>
       </c>
       <c r="K6">
-        <v>1.053083948599179</v>
+        <v>1.056684388517451</v>
       </c>
       <c r="L6">
-        <v>1.04362147954789</v>
+        <v>1.053020868111054</v>
       </c>
       <c r="M6">
-        <v>1.058274319241632</v>
+        <v>1.065554708589927</v>
       </c>
       <c r="N6">
-        <v>1.046754949788273</v>
+        <v>1.052927475000414</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025689152720142</v>
+        <v>1.046769403735293</v>
       </c>
       <c r="D7">
-        <v>1.042680707742526</v>
+        <v>1.054066861662005</v>
       </c>
       <c r="E7">
-        <v>1.032957351472998</v>
+        <v>1.050351157680684</v>
       </c>
       <c r="F7">
-        <v>1.047770980233304</v>
+        <v>1.062916669835472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054120969485794</v>
+        <v>1.04539612670373</v>
       </c>
       <c r="J7">
-        <v>1.04445193874581</v>
+        <v>1.051248000942267</v>
       </c>
       <c r="K7">
-        <v>1.05228708387394</v>
+        <v>1.056505301626606</v>
       </c>
       <c r="L7">
-        <v>1.042670765632819</v>
+        <v>1.052798682777882</v>
       </c>
       <c r="M7">
-        <v>1.057322292102171</v>
+        <v>1.065333746289936</v>
       </c>
       <c r="N7">
-        <v>1.045935180299141</v>
+        <v>1.052740893683436</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019911285865476</v>
+        <v>1.04552704294008</v>
       </c>
       <c r="D8">
-        <v>1.03819772859588</v>
+        <v>1.053071711311672</v>
       </c>
       <c r="E8">
-        <v>1.027801700008102</v>
+        <v>1.049175260562245</v>
       </c>
       <c r="F8">
-        <v>1.042631257759673</v>
+        <v>1.061749049122144</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052279622920457</v>
+        <v>1.045061989087975</v>
       </c>
       <c r="J8">
-        <v>1.040957258573827</v>
+        <v>1.050469042187814</v>
       </c>
       <c r="K8">
-        <v>1.048883999805342</v>
+        <v>1.055756360948799</v>
       </c>
       <c r="L8">
-        <v>1.038617801183345</v>
+        <v>1.051870461915411</v>
       </c>
       <c r="M8">
-        <v>1.053263140334891</v>
+        <v>1.064410501101488</v>
       </c>
       <c r="N8">
-        <v>1.042435537280468</v>
+        <v>1.051960828718203</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009276345606587</v>
+        <v>1.043342078546998</v>
       </c>
       <c r="D9">
-        <v>1.029972577651983</v>
+        <v>1.051321848907006</v>
       </c>
       <c r="E9">
-        <v>1.018355045756448</v>
+        <v>1.047109935987333</v>
       </c>
       <c r="F9">
-        <v>1.033213118914764</v>
+        <v>1.059697828512584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048828124402513</v>
+        <v>1.044466496455923</v>
       </c>
       <c r="J9">
-        <v>1.034505731717928</v>
+        <v>1.049095783357623</v>
       </c>
       <c r="K9">
-        <v>1.042597392267708</v>
+        <v>1.054435241792597</v>
       </c>
       <c r="L9">
-        <v>1.031157182591125</v>
+        <v>1.050236692620307</v>
       </c>
       <c r="M9">
-        <v>1.045789376888127</v>
+        <v>1.062784990609511</v>
       </c>
       <c r="N9">
-        <v>1.035974848516433</v>
+        <v>1.050585619702959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001848556155421</v>
+        <v>1.041888343035839</v>
       </c>
       <c r="D10">
-        <v>1.024249014673351</v>
+        <v>1.050157856477263</v>
       </c>
       <c r="E10">
-        <v>1.011788752164477</v>
+        <v>1.045737675842625</v>
       </c>
       <c r="F10">
-        <v>1.026666793129899</v>
+        <v>1.058334653721522</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046377576271002</v>
+        <v>1.04406503044227</v>
       </c>
       <c r="J10">
-        <v>1.029989023116793</v>
+        <v>1.048179908778896</v>
       </c>
       <c r="K10">
-        <v>1.038193826453242</v>
+        <v>1.053553621809261</v>
       </c>
       <c r="L10">
-        <v>1.025948370008677</v>
+        <v>1.049148839854411</v>
       </c>
       <c r="M10">
-        <v>1.040570703303966</v>
+        <v>1.061702306274827</v>
       </c>
       <c r="N10">
-        <v>1.03145172567101</v>
+        <v>1.049668444477278</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9985441796958328</v>
+        <v>1.041259561541669</v>
       </c>
       <c r="D11">
-        <v>1.02170858896455</v>
+        <v>1.049654464496067</v>
       </c>
       <c r="E11">
-        <v>1.008875695325704</v>
+        <v>1.045144585259859</v>
       </c>
       <c r="F11">
-        <v>1.023762773180694</v>
+        <v>1.057745423127409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045278458314708</v>
+        <v>1.04389013771616</v>
       </c>
       <c r="J11">
-        <v>1.027977648158857</v>
+        <v>1.047783249471658</v>
       </c>
       <c r="K11">
-        <v>1.036232405222706</v>
+        <v>1.053171675974876</v>
       </c>
       <c r="L11">
-        <v>1.023632147915483</v>
+        <v>1.048678116104749</v>
       </c>
       <c r="M11">
-        <v>1.038250053497084</v>
+        <v>1.061233741501652</v>
       </c>
       <c r="N11">
-        <v>1.029437494329927</v>
+        <v>1.049271221868326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9973028233713532</v>
+        <v>1.041026109555165</v>
       </c>
       <c r="D12">
-        <v>1.020755167099053</v>
+        <v>1.049467577469318</v>
       </c>
       <c r="E12">
-        <v>1.007782610918705</v>
+        <v>1.04492445266633</v>
       </c>
       <c r="F12">
-        <v>1.022673119548868</v>
+        <v>1.05752671328158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044864253386602</v>
+        <v>1.043825016756297</v>
       </c>
       <c r="J12">
-        <v>1.027221772835025</v>
+        <v>1.047635901522475</v>
       </c>
       <c r="K12">
-        <v>1.035495248345609</v>
+        <v>1.053029775443789</v>
       </c>
       <c r="L12">
-        <v>1.022762212002005</v>
+        <v>1.048503318059982</v>
       </c>
       <c r="M12">
-        <v>1.037378458915523</v>
+        <v>1.06105973361404</v>
       </c>
       <c r="N12">
-        <v>1.028680545576435</v>
+        <v>1.049123664668154</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9975697426558837</v>
+        <v>1.041076181011207</v>
       </c>
       <c r="D13">
-        <v>1.020960130388835</v>
+        <v>1.049507661042597</v>
       </c>
       <c r="E13">
-        <v>1.008017590417902</v>
+        <v>1.044971664246809</v>
       </c>
       <c r="F13">
-        <v>1.022907359521136</v>
+        <v>1.057573620175134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044953374610537</v>
+        <v>1.043838992565162</v>
       </c>
       <c r="J13">
-        <v>1.02738431393891</v>
+        <v>1.047667508641482</v>
       </c>
       <c r="K13">
-        <v>1.035653766565702</v>
+        <v>1.053060214878649</v>
       </c>
       <c r="L13">
-        <v>1.022949257763598</v>
+        <v>1.048540810566788</v>
       </c>
       <c r="M13">
-        <v>1.037565860935604</v>
+        <v>1.061097057161301</v>
       </c>
       <c r="N13">
-        <v>1.028843317507331</v>
+        <v>1.049155316672895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9984418580408564</v>
+        <v>1.041240262170806</v>
       </c>
       <c r="D14">
-        <v>1.02162998143146</v>
+        <v>1.049639014406879</v>
       </c>
       <c r="E14">
-        <v>1.008785569303342</v>
+        <v>1.045126385603199</v>
       </c>
       <c r="F14">
-        <v>1.023672929142398</v>
+        <v>1.057727341299839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045244342651446</v>
+        <v>1.043884758017661</v>
       </c>
       <c r="J14">
-        <v>1.027915348437676</v>
+        <v>1.047771069863635</v>
       </c>
       <c r="K14">
-        <v>1.036171649326473</v>
+        <v>1.053159947015346</v>
       </c>
       <c r="L14">
-        <v>1.023560437084913</v>
+        <v>1.048663666223382</v>
       </c>
       <c r="M14">
-        <v>1.038178205787112</v>
+        <v>1.061219357174802</v>
       </c>
       <c r="N14">
-        <v>1.029375106135996</v>
+        <v>1.049259024963862</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9989773241424679</v>
+        <v>1.041341371991329</v>
       </c>
       <c r="D15">
-        <v>1.022041386398677</v>
+        <v>1.049719958201168</v>
       </c>
       <c r="E15">
-        <v>1.009257265526093</v>
+        <v>1.045221736793073</v>
       </c>
       <c r="F15">
-        <v>1.024143151236602</v>
+        <v>1.057822074756106</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045422822872162</v>
+        <v>1.043912934700924</v>
       </c>
       <c r="J15">
-        <v>1.028241362777625</v>
+        <v>1.047834875918104</v>
       </c>
       <c r="K15">
-        <v>1.036489582688494</v>
+        <v>1.053221391484141</v>
       </c>
       <c r="L15">
-        <v>1.023935720147369</v>
+        <v>1.04873936826839</v>
       </c>
       <c r="M15">
-        <v>1.03855420541929</v>
+        <v>1.061294715310936</v>
       </c>
       <c r="N15">
-        <v>1.029701583453702</v>
+        <v>1.049322921630248</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00206593962115</v>
+        <v>1.041930087929078</v>
       </c>
       <c r="D16">
-        <v>1.024416267116094</v>
+        <v>1.050191278216775</v>
       </c>
       <c r="E16">
-        <v>1.011980564611958</v>
+        <v>1.045777060749973</v>
       </c>
       <c r="F16">
-        <v>1.026858015341472</v>
+        <v>1.058373780902807</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046449700705489</v>
+        <v>1.044076615308</v>
       </c>
       <c r="J16">
-        <v>1.030121305733133</v>
+        <v>1.048206232153899</v>
       </c>
       <c r="K16">
-        <v>1.038322815653239</v>
+        <v>1.053578966197314</v>
       </c>
       <c r="L16">
-        <v>1.026100771269669</v>
+        <v>1.049180087151526</v>
       </c>
       <c r="M16">
-        <v>1.04072339589914</v>
+        <v>1.061733408630788</v>
       </c>
       <c r="N16">
-        <v>1.031584196143839</v>
+        <v>1.049694805234493</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003979262098243</v>
+        <v>1.042299560780446</v>
       </c>
       <c r="D17">
-        <v>1.025889024724854</v>
+        <v>1.050487092943141</v>
       </c>
       <c r="E17">
-        <v>1.01366974623141</v>
+        <v>1.046125698137328</v>
       </c>
       <c r="F17">
-        <v>1.028542020949511</v>
+        <v>1.058720129183019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047083497233307</v>
+        <v>1.04417900567087</v>
       </c>
       <c r="J17">
-        <v>1.031285377334763</v>
+        <v>1.048439153464285</v>
       </c>
       <c r="K17">
-        <v>1.039457857769532</v>
+        <v>1.053803210904849</v>
       </c>
       <c r="L17">
-        <v>1.027442266566012</v>
+        <v>1.049456625886643</v>
       </c>
       <c r="M17">
-        <v>1.042067452009804</v>
+        <v>1.062008655695712</v>
       </c>
       <c r="N17">
-        <v>1.032749920860665</v>
+        <v>1.049928057319856</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005086822634212</v>
+        <v>1.042515135092259</v>
       </c>
       <c r="D18">
-        <v>1.026742102101967</v>
+        <v>1.05065969682492</v>
       </c>
       <c r="E18">
-        <v>1.014648321321676</v>
+        <v>1.046329159158517</v>
       </c>
       <c r="F18">
-        <v>1.029517613547413</v>
+        <v>1.058922247857415</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047449528668186</v>
+        <v>1.044238626380951</v>
       </c>
       <c r="J18">
-        <v>1.031959023842454</v>
+        <v>1.048575004783753</v>
       </c>
       <c r="K18">
-        <v>1.040114663355369</v>
+        <v>1.0539339898238</v>
       </c>
       <c r="L18">
-        <v>1.028218906931085</v>
+        <v>1.04961795740931</v>
       </c>
       <c r="M18">
-        <v>1.042845570123953</v>
+        <v>1.062169226182141</v>
       </c>
       <c r="N18">
-        <v>1.033424524023665</v>
+        <v>1.050064101563781</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005463060531311</v>
+        <v>1.042588651705299</v>
       </c>
       <c r="D19">
-        <v>1.02703198268611</v>
+        <v>1.05071856045049</v>
       </c>
       <c r="E19">
-        <v>1.014980870722676</v>
+        <v>1.046398552172107</v>
       </c>
       <c r="F19">
-        <v>1.029849151756765</v>
+        <v>1.058991181949795</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047573723400429</v>
+        <v>1.044258938209633</v>
       </c>
       <c r="J19">
-        <v>1.032187826585656</v>
+        <v>1.048621325231755</v>
       </c>
       <c r="K19">
-        <v>1.040337738747896</v>
+        <v>1.05397857876455</v>
       </c>
       <c r="L19">
-        <v>1.028482745568443</v>
+        <v>1.049672972541146</v>
       </c>
       <c r="M19">
-        <v>1.043109909653766</v>
+        <v>1.062223980524072</v>
       </c>
       <c r="N19">
-        <v>1.033653651693006</v>
+        <v>1.050110487792132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003774859637623</v>
+        <v>1.042259912898079</v>
       </c>
       <c r="D20">
-        <v>1.025731631234127</v>
+        <v>1.050455348590473</v>
       </c>
       <c r="E20">
-        <v>1.01348920953857</v>
+        <v>1.046088281595802</v>
       </c>
       <c r="F20">
-        <v>1.028362035702604</v>
+        <v>1.058682958979809</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047015876171474</v>
+        <v>1.044168030685577</v>
       </c>
       <c r="J20">
-        <v>1.031161038325811</v>
+        <v>1.048414164005873</v>
       </c>
       <c r="K20">
-        <v>1.039336623755206</v>
+        <v>1.053779153551337</v>
       </c>
       <c r="L20">
-        <v>1.027298943170655</v>
+        <v>1.049426952666915</v>
       </c>
       <c r="M20">
-        <v>1.041923855443967</v>
+        <v>1.061979121848248</v>
       </c>
       <c r="N20">
-        <v>1.032625405276058</v>
+        <v>1.049903032373547</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.998185433367917</v>
+        <v>1.041191941440096</v>
       </c>
       <c r="D21">
-        <v>1.021433001279143</v>
+        <v>1.049600331476979</v>
       </c>
       <c r="E21">
-        <v>1.008559728231695</v>
+        <v>1.045080819381287</v>
       </c>
       <c r="F21">
-        <v>1.023447795363803</v>
+        <v>1.057682069924756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04515882583131</v>
+        <v>1.043871285590259</v>
       </c>
       <c r="J21">
-        <v>1.027759217262224</v>
+        <v>1.047740573961637</v>
       </c>
       <c r="K21">
-        <v>1.036019386340402</v>
+        <v>1.053130579175068</v>
       </c>
       <c r="L21">
-        <v>1.023380728508819</v>
+        <v>1.048627486913505</v>
       </c>
       <c r="M21">
-        <v>1.037998154295892</v>
+        <v>1.061183341812555</v>
       </c>
       <c r="N21">
-        <v>1.029218753236366</v>
+        <v>1.049228485754186</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9945899511175097</v>
+        <v>1.04052107601516</v>
       </c>
       <c r="D22">
-        <v>1.018673359315227</v>
+        <v>1.049063299570379</v>
       </c>
       <c r="E22">
-        <v>1.005396159070579</v>
+        <v>1.044448358566002</v>
       </c>
       <c r="F22">
-        <v>1.020294246019204</v>
+        <v>1.057053678182802</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043956710291674</v>
+        <v>1.043683796214431</v>
       </c>
       <c r="J22">
-        <v>1.025569446913963</v>
+        <v>1.047316997864724</v>
       </c>
       <c r="K22">
-        <v>1.033883752952355</v>
+        <v>1.05272262834333</v>
       </c>
       <c r="L22">
-        <v>1.020861469619053</v>
+        <v>1.048125119237862</v>
       </c>
       <c r="M22">
-        <v>1.035474112747166</v>
+        <v>1.060683223363567</v>
       </c>
       <c r="N22">
-        <v>1.02702587316304</v>
+        <v>1.048804308130631</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9965039365435281</v>
+        <v>1.040876656270166</v>
       </c>
       <c r="D23">
-        <v>1.020141857384209</v>
+        <v>1.049347937636192</v>
       </c>
       <c r="E23">
-        <v>1.007079509078185</v>
+        <v>1.044783545559926</v>
       </c>
       <c r="F23">
-        <v>1.021972237383877</v>
+        <v>1.057386714092445</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044597327730795</v>
+        <v>1.043783274334225</v>
       </c>
       <c r="J23">
-        <v>1.026735254195248</v>
+        <v>1.047541549255902</v>
       </c>
       <c r="K23">
-        <v>1.035020763914666</v>
+        <v>1.052938906237631</v>
       </c>
       <c r="L23">
-        <v>1.022202419077673</v>
+        <v>1.048391406168908</v>
       </c>
       <c r="M23">
-        <v>1.036817601265495</v>
+        <v>1.060948324366908</v>
       </c>
       <c r="N23">
-        <v>1.028193336024385</v>
+        <v>1.049029178410541</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003867246365273</v>
+        <v>1.042277827862392</v>
       </c>
       <c r="D24">
-        <v>1.025802768953573</v>
+        <v>1.050469692311295</v>
       </c>
       <c r="E24">
-        <v>1.013570806951219</v>
+        <v>1.046105188190692</v>
       </c>
       <c r="F24">
-        <v>1.028443383828668</v>
+        <v>1.058699754287123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047046442485478</v>
+        <v>1.044172990123784</v>
       </c>
       <c r="J24">
-        <v>1.031217238234579</v>
+        <v>1.048425455690471</v>
       </c>
       <c r="K24">
-        <v>1.039391420369234</v>
+        <v>1.05379002409335</v>
       </c>
       <c r="L24">
-        <v>1.027363722830578</v>
+        <v>1.049440360621474</v>
       </c>
       <c r="M24">
-        <v>1.041988758587841</v>
+        <v>1.061992466850059</v>
       </c>
       <c r="N24">
-        <v>1.032681684995142</v>
+        <v>1.049914340093632</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012082742264411</v>
+        <v>1.043906436227076</v>
       </c>
       <c r="D25">
-        <v>1.032139665977313</v>
+        <v>1.051773781076882</v>
       </c>
       <c r="E25">
-        <v>1.020842612166356</v>
+        <v>1.047643062963981</v>
       </c>
       <c r="F25">
-        <v>1.035693196130587</v>
+        <v>1.060227365603041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049745968812809</v>
+        <v>1.044621236063268</v>
       </c>
       <c r="J25">
-        <v>1.036210205570967</v>
+        <v>1.049450872889677</v>
       </c>
       <c r="K25">
-        <v>1.044258731769919</v>
+        <v>1.054776941238725</v>
       </c>
       <c r="L25">
-        <v>1.033125765461943</v>
+        <v>1.050658832169495</v>
       </c>
       <c r="M25">
-        <v>1.047761583714866</v>
+        <v>1.063205054883897</v>
       </c>
       <c r="N25">
-        <v>1.03768174291785</v>
+        <v>1.050941213502878</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045207493600382</v>
+        <v>1.018394180274952</v>
       </c>
       <c r="D2">
-        <v>1.052815768352613</v>
+        <v>1.037022268502038</v>
       </c>
       <c r="E2">
-        <v>1.048872992161993</v>
+        <v>1.026450753304946</v>
       </c>
       <c r="F2">
-        <v>1.061448878614035</v>
+        <v>1.041284419716873</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044975512436983</v>
+        <v>1.051791912946361</v>
       </c>
       <c r="J2">
-        <v>1.050268461179476</v>
+        <v>1.040038306646507</v>
       </c>
       <c r="K2">
-        <v>1.055563456390983</v>
+        <v>1.047988838315449</v>
       </c>
       <c r="L2">
-        <v>1.051631624664941</v>
+        <v>1.037553487330136</v>
       </c>
       <c r="M2">
-        <v>1.064172910069629</v>
+        <v>1.052197067530295</v>
       </c>
       <c r="N2">
-        <v>1.051759962861827</v>
+        <v>1.041515280336005</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046153369513794</v>
+        <v>1.022847891976391</v>
       </c>
       <c r="D3">
-        <v>1.053573392722363</v>
+        <v>1.040474977538213</v>
       </c>
       <c r="E3">
-        <v>1.049767935389616</v>
+        <v>1.030419943699059</v>
       </c>
       <c r="F3">
-        <v>1.062337575659549</v>
+        <v>1.045241470235329</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045230857899465</v>
+        <v>1.053218784846598</v>
       </c>
       <c r="J3">
-        <v>1.050861923263942</v>
+        <v>1.042734502939786</v>
       </c>
       <c r="K3">
-        <v>1.056134143469728</v>
+        <v>1.050614897287234</v>
       </c>
       <c r="L3">
-        <v>1.052338486476701</v>
+        <v>1.040677846261934</v>
       </c>
       <c r="M3">
-        <v>1.064876043494955</v>
+        <v>1.055326440516838</v>
       </c>
       <c r="N3">
-        <v>1.052354267730524</v>
+        <v>1.044215305537279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046765961332291</v>
+        <v>1.025673404098787</v>
       </c>
       <c r="D4">
-        <v>1.054064104069925</v>
+        <v>1.042668475273992</v>
       </c>
       <c r="E4">
-        <v>1.050347897833222</v>
+        <v>1.032943275575156</v>
       </c>
       <c r="F4">
-        <v>1.062913433190467</v>
+        <v>1.047756948521534</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045395205484071</v>
+        <v>1.054115987215207</v>
       </c>
       <c r="J4">
-        <v>1.05124584450863</v>
+        <v>1.04444242539343</v>
       </c>
       <c r="K4">
-        <v>1.056503228756553</v>
+        <v>1.052277822511843</v>
       </c>
       <c r="L4">
-        <v>1.052796111583347</v>
+        <v>1.042659720106627</v>
       </c>
       <c r="M4">
-        <v>1.065331189175089</v>
+        <v>1.057311230977622</v>
       </c>
       <c r="N4">
-        <v>1.052738734187416</v>
+        <v>1.04592565343671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047023624815105</v>
+        <v>1.026848228347598</v>
       </c>
       <c r="D5">
-        <v>1.054270512109144</v>
+        <v>1.043581196518237</v>
       </c>
       <c r="E5">
-        <v>1.050591922003011</v>
+        <v>1.033993672300709</v>
       </c>
       <c r="F5">
-        <v>1.063155716429843</v>
+        <v>1.048804035045625</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045464086448198</v>
+        <v>1.054487076774261</v>
       </c>
       <c r="J5">
-        <v>1.051407222859535</v>
+        <v>1.045151912221192</v>
       </c>
       <c r="K5">
-        <v>1.05665834631745</v>
+        <v>1.052968473336386</v>
       </c>
       <c r="L5">
-        <v>1.052988553089416</v>
+        <v>1.043483668083094</v>
       </c>
       <c r="M5">
-        <v>1.065522572232708</v>
+        <v>1.058136321088123</v>
       </c>
       <c r="N5">
-        <v>1.052900341714089</v>
+        <v>1.046636147817146</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047066895234024</v>
+        <v>1.027044736089575</v>
       </c>
       <c r="D6">
-        <v>1.054305175512832</v>
+        <v>1.043733902289194</v>
       </c>
       <c r="E6">
-        <v>1.050632906890226</v>
+        <v>1.034169438158334</v>
       </c>
       <c r="F6">
-        <v>1.06319640811171</v>
+        <v>1.048979244353965</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045475639489717</v>
+        <v>1.054549031172923</v>
       </c>
       <c r="J6">
-        <v>1.051434317668124</v>
+        <v>1.045270545719146</v>
       </c>
       <c r="K6">
-        <v>1.056684388517451</v>
+        <v>1.05308394859918</v>
       </c>
       <c r="L6">
-        <v>1.053020868111054</v>
+        <v>1.043621479547892</v>
       </c>
       <c r="M6">
-        <v>1.065554708589927</v>
+        <v>1.058274319241633</v>
       </c>
       <c r="N6">
-        <v>1.052927475000414</v>
+        <v>1.046754949788274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046769403735293</v>
+        <v>1.025689152720141</v>
       </c>
       <c r="D7">
-        <v>1.054066861662005</v>
+        <v>1.042680707742525</v>
       </c>
       <c r="E7">
-        <v>1.050351157680684</v>
+        <v>1.032957351472997</v>
       </c>
       <c r="F7">
-        <v>1.062916669835472</v>
+        <v>1.047770980233302</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04539612670373</v>
+        <v>1.054120969485794</v>
       </c>
       <c r="J7">
-        <v>1.051248000942267</v>
+        <v>1.04445193874581</v>
       </c>
       <c r="K7">
-        <v>1.056505301626606</v>
+        <v>1.052287083873939</v>
       </c>
       <c r="L7">
-        <v>1.052798682777882</v>
+        <v>1.042670765632818</v>
       </c>
       <c r="M7">
-        <v>1.065333746289936</v>
+        <v>1.05732229210217</v>
       </c>
       <c r="N7">
-        <v>1.052740893683436</v>
+        <v>1.04593518029914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04552704294008</v>
+        <v>1.019911285865476</v>
       </c>
       <c r="D8">
-        <v>1.053071711311672</v>
+        <v>1.03819772859588</v>
       </c>
       <c r="E8">
-        <v>1.049175260562245</v>
+        <v>1.027801700008102</v>
       </c>
       <c r="F8">
-        <v>1.061749049122144</v>
+        <v>1.042631257759673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045061989087975</v>
+        <v>1.052279622920456</v>
       </c>
       <c r="J8">
-        <v>1.050469042187814</v>
+        <v>1.040957258573827</v>
       </c>
       <c r="K8">
-        <v>1.055756360948799</v>
+        <v>1.048883999805342</v>
       </c>
       <c r="L8">
-        <v>1.051870461915411</v>
+        <v>1.038617801183345</v>
       </c>
       <c r="M8">
-        <v>1.064410501101488</v>
+        <v>1.053263140334891</v>
       </c>
       <c r="N8">
-        <v>1.051960828718203</v>
+        <v>1.042435537280468</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043342078546998</v>
+        <v>1.009276345606587</v>
       </c>
       <c r="D9">
-        <v>1.051321848907006</v>
+        <v>1.029972577651983</v>
       </c>
       <c r="E9">
-        <v>1.047109935987333</v>
+        <v>1.018355045756448</v>
       </c>
       <c r="F9">
-        <v>1.059697828512584</v>
+        <v>1.033213118914764</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044466496455923</v>
+        <v>1.048828124402513</v>
       </c>
       <c r="J9">
-        <v>1.049095783357623</v>
+        <v>1.034505731717928</v>
       </c>
       <c r="K9">
-        <v>1.054435241792597</v>
+        <v>1.042597392267708</v>
       </c>
       <c r="L9">
-        <v>1.050236692620307</v>
+        <v>1.031157182591125</v>
       </c>
       <c r="M9">
-        <v>1.062784990609511</v>
+        <v>1.045789376888127</v>
       </c>
       <c r="N9">
-        <v>1.050585619702959</v>
+        <v>1.035974848516433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041888343035839</v>
+        <v>1.001848556155422</v>
       </c>
       <c r="D10">
-        <v>1.050157856477263</v>
+        <v>1.024249014673351</v>
       </c>
       <c r="E10">
-        <v>1.045737675842625</v>
+        <v>1.011788752164478</v>
       </c>
       <c r="F10">
-        <v>1.058334653721522</v>
+        <v>1.0266667931299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04406503044227</v>
+        <v>1.046377576271003</v>
       </c>
       <c r="J10">
-        <v>1.048179908778896</v>
+        <v>1.029989023116793</v>
       </c>
       <c r="K10">
-        <v>1.053553621809261</v>
+        <v>1.038193826453242</v>
       </c>
       <c r="L10">
-        <v>1.049148839854411</v>
+        <v>1.025948370008678</v>
       </c>
       <c r="M10">
-        <v>1.061702306274827</v>
+        <v>1.040570703303966</v>
       </c>
       <c r="N10">
-        <v>1.049668444477278</v>
+        <v>1.031451725671011</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041259561541669</v>
+        <v>0.9985441796958319</v>
       </c>
       <c r="D11">
-        <v>1.049654464496067</v>
+        <v>1.021708588964549</v>
       </c>
       <c r="E11">
-        <v>1.045144585259859</v>
+        <v>1.008875695325703</v>
       </c>
       <c r="F11">
-        <v>1.057745423127409</v>
+        <v>1.023762773180693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04389013771616</v>
+        <v>1.045278458314707</v>
       </c>
       <c r="J11">
-        <v>1.047783249471658</v>
+        <v>1.027977648158857</v>
       </c>
       <c r="K11">
-        <v>1.053171675974876</v>
+        <v>1.036232405222705</v>
       </c>
       <c r="L11">
-        <v>1.048678116104749</v>
+        <v>1.023632147915482</v>
       </c>
       <c r="M11">
-        <v>1.061233741501652</v>
+        <v>1.038250053497083</v>
       </c>
       <c r="N11">
-        <v>1.049271221868326</v>
+        <v>1.029437494329927</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041026109555165</v>
+        <v>0.9973028233713531</v>
       </c>
       <c r="D12">
-        <v>1.049467577469318</v>
+        <v>1.020755167099052</v>
       </c>
       <c r="E12">
-        <v>1.04492445266633</v>
+        <v>1.007782610918705</v>
       </c>
       <c r="F12">
-        <v>1.05752671328158</v>
+        <v>1.022673119548868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043825016756297</v>
+        <v>1.044864253386602</v>
       </c>
       <c r="J12">
-        <v>1.047635901522475</v>
+        <v>1.027221772835026</v>
       </c>
       <c r="K12">
-        <v>1.053029775443789</v>
+        <v>1.035495248345609</v>
       </c>
       <c r="L12">
-        <v>1.048503318059982</v>
+        <v>1.022762212002005</v>
       </c>
       <c r="M12">
-        <v>1.06105973361404</v>
+        <v>1.037378458915523</v>
       </c>
       <c r="N12">
-        <v>1.049123664668154</v>
+        <v>1.028680545576435</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041076181011207</v>
+        <v>0.9975697426558837</v>
       </c>
       <c r="D13">
-        <v>1.049507661042597</v>
+        <v>1.020960130388835</v>
       </c>
       <c r="E13">
-        <v>1.044971664246809</v>
+        <v>1.008017590417902</v>
       </c>
       <c r="F13">
-        <v>1.057573620175134</v>
+        <v>1.022907359521136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043838992565162</v>
+        <v>1.044953374610537</v>
       </c>
       <c r="J13">
-        <v>1.047667508641482</v>
+        <v>1.02738431393891</v>
       </c>
       <c r="K13">
-        <v>1.053060214878649</v>
+        <v>1.035653766565702</v>
       </c>
       <c r="L13">
-        <v>1.048540810566788</v>
+        <v>1.022949257763598</v>
       </c>
       <c r="M13">
-        <v>1.061097057161301</v>
+        <v>1.037565860935604</v>
       </c>
       <c r="N13">
-        <v>1.049155316672895</v>
+        <v>1.028843317507331</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041240262170806</v>
+        <v>0.9984418580408564</v>
       </c>
       <c r="D14">
-        <v>1.049639014406879</v>
+        <v>1.02162998143146</v>
       </c>
       <c r="E14">
-        <v>1.045126385603199</v>
+        <v>1.008785569303342</v>
       </c>
       <c r="F14">
-        <v>1.057727341299839</v>
+        <v>1.023672929142398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043884758017661</v>
+        <v>1.045244342651446</v>
       </c>
       <c r="J14">
-        <v>1.047771069863635</v>
+        <v>1.027915348437675</v>
       </c>
       <c r="K14">
-        <v>1.053159947015346</v>
+        <v>1.036171649326473</v>
       </c>
       <c r="L14">
-        <v>1.048663666223382</v>
+        <v>1.023560437084913</v>
       </c>
       <c r="M14">
-        <v>1.061219357174802</v>
+        <v>1.038178205787112</v>
       </c>
       <c r="N14">
-        <v>1.049259024963862</v>
+        <v>1.029375106135995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041341371991329</v>
+        <v>0.9989773241424678</v>
       </c>
       <c r="D15">
-        <v>1.049719958201168</v>
+        <v>1.022041386398677</v>
       </c>
       <c r="E15">
-        <v>1.045221736793073</v>
+        <v>1.009257265526093</v>
       </c>
       <c r="F15">
-        <v>1.057822074756106</v>
+        <v>1.024143151236602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043912934700924</v>
+        <v>1.045422822872162</v>
       </c>
       <c r="J15">
-        <v>1.047834875918104</v>
+        <v>1.028241362777625</v>
       </c>
       <c r="K15">
-        <v>1.053221391484141</v>
+        <v>1.036489582688494</v>
       </c>
       <c r="L15">
-        <v>1.04873936826839</v>
+        <v>1.023935720147369</v>
       </c>
       <c r="M15">
-        <v>1.061294715310936</v>
+        <v>1.03855420541929</v>
       </c>
       <c r="N15">
-        <v>1.049322921630248</v>
+        <v>1.029701583453702</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041930087929078</v>
+        <v>1.00206593962115</v>
       </c>
       <c r="D16">
-        <v>1.050191278216775</v>
+        <v>1.024416267116094</v>
       </c>
       <c r="E16">
-        <v>1.045777060749973</v>
+        <v>1.011980564611958</v>
       </c>
       <c r="F16">
-        <v>1.058373780902807</v>
+        <v>1.026858015341471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044076615308</v>
+        <v>1.046449700705488</v>
       </c>
       <c r="J16">
-        <v>1.048206232153899</v>
+        <v>1.030121305733133</v>
       </c>
       <c r="K16">
-        <v>1.053578966197314</v>
+        <v>1.038322815653238</v>
       </c>
       <c r="L16">
-        <v>1.049180087151526</v>
+        <v>1.026100771269669</v>
       </c>
       <c r="M16">
-        <v>1.061733408630788</v>
+        <v>1.040723395899139</v>
       </c>
       <c r="N16">
-        <v>1.049694805234493</v>
+        <v>1.031584196143839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042299560780446</v>
+        <v>1.003979262098243</v>
       </c>
       <c r="D17">
-        <v>1.050487092943141</v>
+        <v>1.025889024724854</v>
       </c>
       <c r="E17">
-        <v>1.046125698137328</v>
+        <v>1.013669746231411</v>
       </c>
       <c r="F17">
-        <v>1.058720129183019</v>
+        <v>1.028542020949511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04417900567087</v>
+        <v>1.047083497233307</v>
       </c>
       <c r="J17">
-        <v>1.048439153464285</v>
+        <v>1.031285377334763</v>
       </c>
       <c r="K17">
-        <v>1.053803210904849</v>
+        <v>1.039457857769532</v>
       </c>
       <c r="L17">
-        <v>1.049456625886643</v>
+        <v>1.027442266566012</v>
       </c>
       <c r="M17">
-        <v>1.062008655695712</v>
+        <v>1.042067452009803</v>
       </c>
       <c r="N17">
-        <v>1.049928057319856</v>
+        <v>1.032749920860665</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042515135092259</v>
+        <v>1.005086822634213</v>
       </c>
       <c r="D18">
-        <v>1.05065969682492</v>
+        <v>1.026742102101968</v>
       </c>
       <c r="E18">
-        <v>1.046329159158517</v>
+        <v>1.014648321321676</v>
       </c>
       <c r="F18">
-        <v>1.058922247857415</v>
+        <v>1.029517613547414</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044238626380951</v>
+        <v>1.047449528668187</v>
       </c>
       <c r="J18">
-        <v>1.048575004783753</v>
+        <v>1.031959023842455</v>
       </c>
       <c r="K18">
-        <v>1.0539339898238</v>
+        <v>1.04011466335537</v>
       </c>
       <c r="L18">
-        <v>1.04961795740931</v>
+        <v>1.028218906931085</v>
       </c>
       <c r="M18">
-        <v>1.062169226182141</v>
+        <v>1.042845570123954</v>
       </c>
       <c r="N18">
-        <v>1.050064101563781</v>
+        <v>1.033424524023666</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042588651705299</v>
+        <v>1.00546306053131</v>
       </c>
       <c r="D19">
-        <v>1.05071856045049</v>
+        <v>1.02703198268611</v>
       </c>
       <c r="E19">
-        <v>1.046398552172107</v>
+        <v>1.014980870722675</v>
       </c>
       <c r="F19">
-        <v>1.058991181949795</v>
+        <v>1.029849151756764</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044258938209633</v>
+        <v>1.047573723400429</v>
       </c>
       <c r="J19">
-        <v>1.048621325231755</v>
+        <v>1.032187826585656</v>
       </c>
       <c r="K19">
-        <v>1.05397857876455</v>
+        <v>1.040337738747895</v>
       </c>
       <c r="L19">
-        <v>1.049672972541146</v>
+        <v>1.028482745568443</v>
       </c>
       <c r="M19">
-        <v>1.062223980524072</v>
+        <v>1.043109909653766</v>
       </c>
       <c r="N19">
-        <v>1.050110487792132</v>
+        <v>1.033653651693006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042259912898079</v>
+        <v>1.003774859637621</v>
       </c>
       <c r="D20">
-        <v>1.050455348590473</v>
+        <v>1.025731631234126</v>
       </c>
       <c r="E20">
-        <v>1.046088281595802</v>
+        <v>1.013489209538569</v>
       </c>
       <c r="F20">
-        <v>1.058682958979809</v>
+        <v>1.028362035702602</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044168030685577</v>
+        <v>1.047015876171473</v>
       </c>
       <c r="J20">
-        <v>1.048414164005873</v>
+        <v>1.03116103832581</v>
       </c>
       <c r="K20">
-        <v>1.053779153551337</v>
+        <v>1.039336623755204</v>
       </c>
       <c r="L20">
-        <v>1.049426952666915</v>
+        <v>1.027298943170654</v>
       </c>
       <c r="M20">
-        <v>1.061979121848248</v>
+        <v>1.041923855443965</v>
       </c>
       <c r="N20">
-        <v>1.049903032373547</v>
+        <v>1.032625405276057</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041191941440096</v>
+        <v>0.9981854333679165</v>
       </c>
       <c r="D21">
-        <v>1.049600331476979</v>
+        <v>1.021433001279142</v>
       </c>
       <c r="E21">
-        <v>1.045080819381287</v>
+        <v>1.008559728231695</v>
       </c>
       <c r="F21">
-        <v>1.057682069924756</v>
+        <v>1.023447795363803</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043871285590259</v>
+        <v>1.04515882583131</v>
       </c>
       <c r="J21">
-        <v>1.047740573961637</v>
+        <v>1.027759217262223</v>
       </c>
       <c r="K21">
-        <v>1.053130579175068</v>
+        <v>1.036019386340401</v>
       </c>
       <c r="L21">
-        <v>1.048627486913505</v>
+        <v>1.023380728508819</v>
       </c>
       <c r="M21">
-        <v>1.061183341812555</v>
+        <v>1.037998154295892</v>
       </c>
       <c r="N21">
-        <v>1.049228485754186</v>
+        <v>1.029218753236366</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04052107601516</v>
+        <v>0.9945899511175098</v>
       </c>
       <c r="D22">
-        <v>1.049063299570379</v>
+        <v>1.018673359315227</v>
       </c>
       <c r="E22">
-        <v>1.044448358566002</v>
+        <v>1.005396159070579</v>
       </c>
       <c r="F22">
-        <v>1.057053678182802</v>
+        <v>1.020294246019204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043683796214431</v>
+        <v>1.043956710291674</v>
       </c>
       <c r="J22">
-        <v>1.047316997864724</v>
+        <v>1.025569446913963</v>
       </c>
       <c r="K22">
-        <v>1.05272262834333</v>
+        <v>1.033883752952355</v>
       </c>
       <c r="L22">
-        <v>1.048125119237862</v>
+        <v>1.020861469619053</v>
       </c>
       <c r="M22">
-        <v>1.060683223363567</v>
+        <v>1.035474112747166</v>
       </c>
       <c r="N22">
-        <v>1.048804308130631</v>
+        <v>1.02702587316304</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040876656270166</v>
+        <v>0.9965039365435285</v>
       </c>
       <c r="D23">
-        <v>1.049347937636192</v>
+        <v>1.020141857384209</v>
       </c>
       <c r="E23">
-        <v>1.044783545559926</v>
+        <v>1.007079509078185</v>
       </c>
       <c r="F23">
-        <v>1.057386714092445</v>
+        <v>1.021972237383877</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043783274334225</v>
+        <v>1.044597327730796</v>
       </c>
       <c r="J23">
-        <v>1.047541549255902</v>
+        <v>1.026735254195248</v>
       </c>
       <c r="K23">
-        <v>1.052938906237631</v>
+        <v>1.035020763914667</v>
       </c>
       <c r="L23">
-        <v>1.048391406168908</v>
+        <v>1.022202419077673</v>
       </c>
       <c r="M23">
-        <v>1.060948324366908</v>
+        <v>1.036817601265495</v>
       </c>
       <c r="N23">
-        <v>1.049029178410541</v>
+        <v>1.028193336024385</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042277827862392</v>
+        <v>1.003867246365274</v>
       </c>
       <c r="D24">
-        <v>1.050469692311295</v>
+        <v>1.025802768953574</v>
       </c>
       <c r="E24">
-        <v>1.046105188190692</v>
+        <v>1.01357080695122</v>
       </c>
       <c r="F24">
-        <v>1.058699754287123</v>
+        <v>1.028443383828669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044172990123784</v>
+        <v>1.047046442485478</v>
       </c>
       <c r="J24">
-        <v>1.048425455690471</v>
+        <v>1.031217238234579</v>
       </c>
       <c r="K24">
-        <v>1.05379002409335</v>
+        <v>1.039391420369234</v>
       </c>
       <c r="L24">
-        <v>1.049440360621474</v>
+        <v>1.027363722830579</v>
       </c>
       <c r="M24">
-        <v>1.061992466850059</v>
+        <v>1.041988758587842</v>
       </c>
       <c r="N24">
-        <v>1.049914340093632</v>
+        <v>1.032681684995143</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043906436227076</v>
+        <v>1.012082742264411</v>
       </c>
       <c r="D25">
-        <v>1.051773781076882</v>
+        <v>1.032139665977314</v>
       </c>
       <c r="E25">
-        <v>1.047643062963981</v>
+        <v>1.020842612166356</v>
       </c>
       <c r="F25">
-        <v>1.060227365603041</v>
+        <v>1.035693196130588</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044621236063268</v>
+        <v>1.049745968812809</v>
       </c>
       <c r="J25">
-        <v>1.049450872889677</v>
+        <v>1.036210205570968</v>
       </c>
       <c r="K25">
-        <v>1.054776941238725</v>
+        <v>1.044258731769921</v>
       </c>
       <c r="L25">
-        <v>1.050658832169495</v>
+        <v>1.033125765461943</v>
       </c>
       <c r="M25">
-        <v>1.063205054883897</v>
+        <v>1.047761583714867</v>
       </c>
       <c r="N25">
-        <v>1.050941213502878</v>
+        <v>1.03768174291785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018394180274952</v>
+        <v>1.022520159728358</v>
       </c>
       <c r="D2">
-        <v>1.037022268502038</v>
+        <v>1.035339002560874</v>
       </c>
       <c r="E2">
-        <v>1.026450753304946</v>
+        <v>1.038301805150403</v>
       </c>
       <c r="F2">
-        <v>1.041284419716873</v>
+        <v>1.041445943733998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051791912946361</v>
+        <v>1.05096885497329</v>
       </c>
       <c r="J2">
-        <v>1.040038306646507</v>
+        <v>1.044047545202302</v>
       </c>
       <c r="K2">
-        <v>1.047988838315449</v>
+        <v>1.046327020755805</v>
       </c>
       <c r="L2">
-        <v>1.037553487330136</v>
+        <v>1.049252129035139</v>
       </c>
       <c r="M2">
-        <v>1.052197067530295</v>
+        <v>1.052356558876953</v>
       </c>
       <c r="N2">
-        <v>1.041515280336005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017906012844475</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050009033260865</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043827489001697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022847891976391</v>
+        <v>1.026722219357217</v>
       </c>
       <c r="D3">
-        <v>1.040474977538213</v>
+        <v>1.038145256505195</v>
       </c>
       <c r="E3">
-        <v>1.030419943699059</v>
+        <v>1.041940992882684</v>
       </c>
       <c r="F3">
-        <v>1.045241470235329</v>
+        <v>1.044841678138029</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053218784846598</v>
+        <v>1.052086689680242</v>
       </c>
       <c r="J3">
-        <v>1.042734502939786</v>
+        <v>1.046510000444753</v>
       </c>
       <c r="K3">
-        <v>1.050614897287234</v>
+        <v>1.048312260935697</v>
       </c>
       <c r="L3">
-        <v>1.040677846261934</v>
+        <v>1.052063945859352</v>
       </c>
       <c r="M3">
-        <v>1.055326440516838</v>
+        <v>1.054931233555948</v>
       </c>
       <c r="N3">
-        <v>1.044215305537279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01878745183052</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052046686443654</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045228562218206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025673404098787</v>
+        <v>1.029389312020696</v>
       </c>
       <c r="D4">
-        <v>1.042668475273992</v>
+        <v>1.039930065828411</v>
       </c>
       <c r="E4">
-        <v>1.032943275575156</v>
+        <v>1.044256498901689</v>
       </c>
       <c r="F4">
-        <v>1.047756948521534</v>
+        <v>1.047005212617369</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054115987215207</v>
+        <v>1.052787767766104</v>
       </c>
       <c r="J4">
-        <v>1.04444242539343</v>
+        <v>1.048069984864872</v>
       </c>
       <c r="K4">
-        <v>1.052277822511843</v>
+        <v>1.049569320554061</v>
       </c>
       <c r="L4">
-        <v>1.042659720106627</v>
+        <v>1.053848590721468</v>
       </c>
       <c r="M4">
-        <v>1.057311230977622</v>
+        <v>1.056567588658213</v>
       </c>
       <c r="N4">
-        <v>1.04592565343671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019345375360459</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05334173036135</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046118287159108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026848228347598</v>
+        <v>1.030503074453895</v>
       </c>
       <c r="D5">
-        <v>1.043581196518237</v>
+        <v>1.040678609962887</v>
       </c>
       <c r="E5">
-        <v>1.033993672300709</v>
+        <v>1.045224947667488</v>
       </c>
       <c r="F5">
-        <v>1.048804035045625</v>
+        <v>1.047910161924457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054487076774261</v>
+        <v>1.053080428004506</v>
       </c>
       <c r="J5">
-        <v>1.045151912221192</v>
+        <v>1.048722467215649</v>
       </c>
       <c r="K5">
-        <v>1.052968473336386</v>
+        <v>1.05009673995457</v>
       </c>
       <c r="L5">
-        <v>1.043483668083094</v>
+        <v>1.054594845110674</v>
       </c>
       <c r="M5">
-        <v>1.058136321088123</v>
+        <v>1.05725181195568</v>
       </c>
       <c r="N5">
-        <v>1.046636147817146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019579371277352</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053883237605042</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04649831984285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027044736089575</v>
+        <v>1.030694924415828</v>
       </c>
       <c r="D6">
-        <v>1.043733902289194</v>
+        <v>1.040810488753357</v>
       </c>
       <c r="E6">
-        <v>1.034169438158334</v>
+        <v>1.045392053556212</v>
       </c>
       <c r="F6">
-        <v>1.048979244353965</v>
+        <v>1.048065577190137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054549031172923</v>
+        <v>1.053133095112566</v>
       </c>
       <c r="J6">
-        <v>1.045270545719146</v>
+        <v>1.048836984551786</v>
       </c>
       <c r="K6">
-        <v>1.05308394859918</v>
+        <v>1.050191466786738</v>
       </c>
       <c r="L6">
-        <v>1.043621479547892</v>
+        <v>1.054724649481104</v>
       </c>
       <c r="M6">
-        <v>1.058274319241633</v>
+        <v>1.057370179008631</v>
       </c>
       <c r="N6">
-        <v>1.046754949788274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019621355792789</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053976915487544</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046573966790864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025689152720141</v>
+        <v>1.029419201640518</v>
       </c>
       <c r="D7">
-        <v>1.042680707742525</v>
+        <v>1.039957906950266</v>
       </c>
       <c r="E7">
-        <v>1.032957351472997</v>
+        <v>1.044283045678762</v>
       </c>
       <c r="F7">
-        <v>1.047770980233302</v>
+        <v>1.047027927386393</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054120969485794</v>
+        <v>1.052802041860377</v>
       </c>
       <c r="J7">
-        <v>1.04445193874581</v>
+        <v>1.04809334049137</v>
       </c>
       <c r="K7">
-        <v>1.052287083873939</v>
+        <v>1.04959400880899</v>
       </c>
       <c r="L7">
-        <v>1.042670765632818</v>
+        <v>1.053872017431279</v>
       </c>
       <c r="M7">
-        <v>1.05732229210217</v>
+        <v>1.056587236354448</v>
       </c>
       <c r="N7">
-        <v>1.04593518029914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019356273062827</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053357279924739</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046155684194484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019911285865476</v>
+        <v>1.02397025106975</v>
       </c>
       <c r="D8">
-        <v>1.03819772859588</v>
+        <v>1.036316323611557</v>
       </c>
       <c r="E8">
-        <v>1.027801700008102</v>
+        <v>1.039557206760226</v>
       </c>
       <c r="F8">
-        <v>1.042631257759673</v>
+        <v>1.042614129989331</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052279622920456</v>
+        <v>1.051364399762062</v>
       </c>
       <c r="J8">
-        <v>1.040957258573827</v>
+        <v>1.044905262059182</v>
       </c>
       <c r="K8">
-        <v>1.048883999805342</v>
+        <v>1.047025850198621</v>
       </c>
       <c r="L8">
-        <v>1.038617801183345</v>
+        <v>1.050226739121922</v>
       </c>
       <c r="M8">
-        <v>1.053263140334891</v>
+        <v>1.053246221574275</v>
       </c>
       <c r="N8">
-        <v>1.042435537280468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018216463009167</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050713132173348</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044344349673388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009276345606587</v>
+        <v>1.013927423479114</v>
       </c>
       <c r="D9">
-        <v>1.029972577651983</v>
+        <v>1.029623146904386</v>
       </c>
       <c r="E9">
-        <v>1.018355045756448</v>
+        <v>1.03089281751134</v>
       </c>
       <c r="F9">
-        <v>1.033213118914764</v>
+        <v>1.034548711565038</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048828124402513</v>
+        <v>1.048638900320988</v>
       </c>
       <c r="J9">
-        <v>1.034505731717928</v>
+        <v>1.038997776080207</v>
       </c>
       <c r="K9">
-        <v>1.042597392267708</v>
+        <v>1.042253220674188</v>
       </c>
       <c r="L9">
-        <v>1.031157182591125</v>
+        <v>1.043503803645958</v>
       </c>
       <c r="M9">
-        <v>1.045789376888127</v>
+        <v>1.047105069422107</v>
       </c>
       <c r="N9">
-        <v>1.035974848516433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016096588661906</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045852873718825</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040966666738784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001848556155422</v>
+        <v>1.007047338808936</v>
       </c>
       <c r="D10">
-        <v>1.024249014673351</v>
+        <v>1.025077171598758</v>
       </c>
       <c r="E10">
-        <v>1.011788752164478</v>
+        <v>1.025037305588244</v>
       </c>
       <c r="F10">
-        <v>1.0266667931299</v>
+        <v>1.029160069145513</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046377576271003</v>
+        <v>1.046761103182987</v>
       </c>
       <c r="J10">
-        <v>1.029989023116793</v>
+        <v>1.034984113121635</v>
       </c>
       <c r="K10">
-        <v>1.038193826453242</v>
+        <v>1.039007945393902</v>
       </c>
       <c r="L10">
-        <v>1.025948370008678</v>
+        <v>1.038968754476478</v>
       </c>
       <c r="M10">
-        <v>1.040570703303966</v>
+        <v>1.043022059968451</v>
       </c>
       <c r="N10">
-        <v>1.031451725671011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014668265597885</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042672640045515</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038688799159309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9985441796958319</v>
+        <v>1.004982512461461</v>
       </c>
       <c r="D11">
-        <v>1.021708588964549</v>
+        <v>1.02383807411261</v>
       </c>
       <c r="E11">
-        <v>1.008875695325703</v>
+        <v>1.023667190504014</v>
       </c>
       <c r="F11">
-        <v>1.023762773180693</v>
+        <v>1.028274994528267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045278458314707</v>
+        <v>1.046434052741228</v>
       </c>
       <c r="J11">
-        <v>1.027977648158857</v>
+        <v>1.034149472108436</v>
       </c>
       <c r="K11">
-        <v>1.036232405222705</v>
+        <v>1.038324018732656</v>
       </c>
       <c r="L11">
-        <v>1.023632147915482</v>
+        <v>1.038156166643826</v>
       </c>
       <c r="M11">
-        <v>1.038250053497083</v>
+        <v>1.04268268405868</v>
       </c>
       <c r="N11">
-        <v>1.029437494329927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014485364517822</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042838087676979</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038237937705931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9973028233713531</v>
+        <v>1.004585623349438</v>
       </c>
       <c r="D12">
-        <v>1.020755167099052</v>
+        <v>1.023664802052729</v>
       </c>
       <c r="E12">
-        <v>1.007782610918705</v>
+        <v>1.023612625190525</v>
       </c>
       <c r="F12">
-        <v>1.022673119548868</v>
+        <v>1.028496653199483</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044864253386602</v>
+        <v>1.046506474958511</v>
       </c>
       <c r="J12">
-        <v>1.027221772835026</v>
+        <v>1.034197171350376</v>
       </c>
       <c r="K12">
-        <v>1.035495248345609</v>
+        <v>1.038352244403191</v>
       </c>
       <c r="L12">
-        <v>1.022762212002005</v>
+        <v>1.038301008059829</v>
       </c>
       <c r="M12">
-        <v>1.037378458915523</v>
+        <v>1.043097535419253</v>
       </c>
       <c r="N12">
-        <v>1.028680545576435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014593148107172</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043491031487543</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038257894001955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9975697426558837</v>
+        <v>1.005463027633688</v>
       </c>
       <c r="D13">
-        <v>1.020960130388835</v>
+        <v>1.024319264636776</v>
       </c>
       <c r="E13">
-        <v>1.008017590417902</v>
+        <v>1.024584255930898</v>
       </c>
       <c r="F13">
-        <v>1.022907359521136</v>
+        <v>1.029609270489817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044953374610537</v>
+        <v>1.046906541006026</v>
       </c>
       <c r="J13">
-        <v>1.02738431393891</v>
+        <v>1.034946186044515</v>
       </c>
       <c r="K13">
-        <v>1.035653766565702</v>
+        <v>1.038952398919659</v>
       </c>
       <c r="L13">
-        <v>1.022949257763598</v>
+        <v>1.039212639343496</v>
       </c>
       <c r="M13">
-        <v>1.037565860935604</v>
+        <v>1.044148163809877</v>
       </c>
       <c r="N13">
-        <v>1.028843317507331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014941722250982</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.0445971248699</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038679738418837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9984418580408564</v>
+        <v>1.006650582383411</v>
       </c>
       <c r="D14">
-        <v>1.02162998143146</v>
+        <v>1.025150993160172</v>
       </c>
       <c r="E14">
-        <v>1.008785569303342</v>
+        <v>1.025723671497127</v>
       </c>
       <c r="F14">
-        <v>1.023672929142398</v>
+        <v>1.030786202741255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045244342651446</v>
+        <v>1.047333488271047</v>
       </c>
       <c r="J14">
-        <v>1.027915348437675</v>
+        <v>1.035784545597138</v>
       </c>
       <c r="K14">
-        <v>1.036171649326473</v>
+        <v>1.039630058187974</v>
       </c>
       <c r="L14">
-        <v>1.023560437084913</v>
+        <v>1.040192607123786</v>
       </c>
       <c r="M14">
-        <v>1.038178205787112</v>
+        <v>1.045166227445479</v>
       </c>
       <c r="N14">
-        <v>1.029375106135995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015293531407297</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045574453116871</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039160278904816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9989773241424678</v>
+        <v>1.007226395894597</v>
       </c>
       <c r="D15">
-        <v>1.022041386398677</v>
+        <v>1.025543064732227</v>
       </c>
       <c r="E15">
-        <v>1.009257265526093</v>
+        <v>1.026239078702276</v>
       </c>
       <c r="F15">
-        <v>1.024143151236602</v>
+        <v>1.031287776938386</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045422822872162</v>
+        <v>1.047514862565349</v>
       </c>
       <c r="J15">
-        <v>1.028241362777625</v>
+        <v>1.036152318592494</v>
       </c>
       <c r="K15">
-        <v>1.036489582688494</v>
+        <v>1.039929489301403</v>
       </c>
       <c r="L15">
-        <v>1.023935720147369</v>
+        <v>1.040613290236983</v>
       </c>
       <c r="M15">
-        <v>1.03855420541929</v>
+        <v>1.045574036882132</v>
       </c>
       <c r="N15">
-        <v>1.029701583453702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015436437980248</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045934168285552</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039377824079651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00206593962115</v>
+        <v>1.009963883191566</v>
       </c>
       <c r="D16">
-        <v>1.024416267116094</v>
+        <v>1.02733619330768</v>
       </c>
       <c r="E16">
-        <v>1.011980564611958</v>
+        <v>1.028531312070922</v>
       </c>
       <c r="F16">
-        <v>1.026858015341471</v>
+        <v>1.033383585638184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046449700705488</v>
+        <v>1.048242498974106</v>
       </c>
       <c r="J16">
-        <v>1.030121305733133</v>
+        <v>1.037712141930091</v>
       </c>
       <c r="K16">
-        <v>1.038322815653238</v>
+        <v>1.041193541307157</v>
       </c>
       <c r="L16">
-        <v>1.026100771269669</v>
+        <v>1.042368626248128</v>
       </c>
       <c r="M16">
-        <v>1.040723395899139</v>
+        <v>1.047140173601491</v>
       </c>
       <c r="N16">
-        <v>1.031584196143839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015975448498756</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047133504951347</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040274691257067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003979262098243</v>
+        <v>1.011445446485326</v>
       </c>
       <c r="D17">
-        <v>1.025889024724854</v>
+        <v>1.028279787958288</v>
       </c>
       <c r="E17">
-        <v>1.013669746231411</v>
+        <v>1.029695866282622</v>
       </c>
       <c r="F17">
-        <v>1.028542020949511</v>
+        <v>1.034372045069391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047083497233307</v>
+        <v>1.048576266080613</v>
       </c>
       <c r="J17">
-        <v>1.031285377334763</v>
+        <v>1.038470788737417</v>
       </c>
       <c r="K17">
-        <v>1.039457857769532</v>
+        <v>1.041809496230569</v>
       </c>
       <c r="L17">
-        <v>1.027442266566012</v>
+        <v>1.043202510527448</v>
       </c>
       <c r="M17">
-        <v>1.042067452009803</v>
+        <v>1.04780310266507</v>
       </c>
       <c r="N17">
-        <v>1.032749920860665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016205064994157</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047529113534731</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040712761687287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005086822634213</v>
+        <v>1.01195599455707</v>
       </c>
       <c r="D18">
-        <v>1.026742102101968</v>
+        <v>1.028551002173724</v>
       </c>
       <c r="E18">
-        <v>1.014648321321676</v>
+        <v>1.029949329890584</v>
       </c>
       <c r="F18">
-        <v>1.029517613547414</v>
+        <v>1.034429771307562</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047449528668187</v>
+        <v>1.048583858229305</v>
       </c>
       <c r="J18">
-        <v>1.031959023842455</v>
+        <v>1.038574805709984</v>
       </c>
       <c r="K18">
-        <v>1.04011466335537</v>
+        <v>1.041894457922101</v>
       </c>
       <c r="L18">
-        <v>1.028218906931085</v>
+        <v>1.043270376142721</v>
       </c>
       <c r="M18">
-        <v>1.042845570123954</v>
+        <v>1.047679536887486</v>
       </c>
       <c r="N18">
-        <v>1.033424524023666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016173276142925</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047195075985581</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040761264924695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00546306053131</v>
+        <v>1.011616638506332</v>
       </c>
       <c r="D19">
-        <v>1.02703198268611</v>
+        <v>1.028247748922556</v>
       </c>
       <c r="E19">
-        <v>1.014980870722675</v>
+        <v>1.029397445705853</v>
       </c>
       <c r="F19">
-        <v>1.029849151756764</v>
+        <v>1.033653208795066</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047573723400429</v>
+        <v>1.048319582228871</v>
       </c>
       <c r="J19">
-        <v>1.032187826585656</v>
+        <v>1.038115748277447</v>
       </c>
       <c r="K19">
-        <v>1.040337738747895</v>
+        <v>1.041534046984483</v>
       </c>
       <c r="L19">
-        <v>1.028482745568443</v>
+        <v>1.042665397379569</v>
       </c>
       <c r="M19">
-        <v>1.043109909653766</v>
+        <v>1.046853703352876</v>
       </c>
       <c r="N19">
-        <v>1.033653651693006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015925073630843</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046218558827149</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040512804760963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003774859637621</v>
+        <v>1.008876393080546</v>
       </c>
       <c r="D20">
-        <v>1.025731631234126</v>
+        <v>1.026304339112876</v>
       </c>
       <c r="E20">
-        <v>1.013489209538569</v>
+        <v>1.026595683547332</v>
       </c>
       <c r="F20">
-        <v>1.028362035702602</v>
+        <v>1.030590427045623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047015876171473</v>
+        <v>1.047281254629273</v>
       </c>
       <c r="J20">
-        <v>1.03116103832581</v>
+        <v>1.036069381367941</v>
       </c>
       <c r="K20">
-        <v>1.039336623755204</v>
+        <v>1.039899907550387</v>
       </c>
       <c r="L20">
-        <v>1.027298943170654</v>
+        <v>1.040186463012408</v>
       </c>
       <c r="M20">
-        <v>1.041923855443965</v>
+        <v>1.04411589375561</v>
       </c>
       <c r="N20">
-        <v>1.032625405276057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01506290745221</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04352779394451</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039361325986223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9981854333679165</v>
+        <v>1.003512876217388</v>
       </c>
       <c r="D21">
-        <v>1.021433001279142</v>
+        <v>1.022744458712781</v>
       </c>
       <c r="E21">
-        <v>1.008559728231695</v>
+        <v>1.021969869324899</v>
       </c>
       <c r="F21">
-        <v>1.023447795363803</v>
+        <v>1.026266194370443</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04515882583131</v>
+        <v>1.045755556238282</v>
       </c>
       <c r="J21">
-        <v>1.027759217262223</v>
+        <v>1.032864456222555</v>
       </c>
       <c r="K21">
-        <v>1.036019386340401</v>
+        <v>1.037307372926223</v>
       </c>
       <c r="L21">
-        <v>1.023380728508819</v>
+        <v>1.036546636725511</v>
       </c>
       <c r="M21">
-        <v>1.037998154295892</v>
+        <v>1.040766465943262</v>
       </c>
       <c r="N21">
-        <v>1.029218753236366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013900440557914</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040836313725556</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037531545566024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9945899511175098</v>
+        <v>1.000108401571163</v>
       </c>
       <c r="D22">
-        <v>1.018673359315227</v>
+        <v>1.02048954208169</v>
       </c>
       <c r="E22">
-        <v>1.005396159070579</v>
+        <v>1.019064180915715</v>
       </c>
       <c r="F22">
-        <v>1.020294246019204</v>
+        <v>1.023579151738341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043956710291674</v>
+        <v>1.04478632196811</v>
       </c>
       <c r="J22">
-        <v>1.025569446913963</v>
+        <v>1.030843837381611</v>
       </c>
       <c r="K22">
-        <v>1.033883752952355</v>
+        <v>1.0356657392575</v>
       </c>
       <c r="L22">
-        <v>1.020861469619053</v>
+        <v>1.034267202420833</v>
       </c>
       <c r="M22">
-        <v>1.035474112747166</v>
+        <v>1.03869753920113</v>
       </c>
       <c r="N22">
-        <v>1.02702587316304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013170248813574</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039198895828943</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036357393115665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9965039365435285</v>
+        <v>1.001905299042825</v>
       </c>
       <c r="D23">
-        <v>1.020141857384209</v>
+        <v>1.021671944206273</v>
       </c>
       <c r="E23">
-        <v>1.007079509078185</v>
+        <v>1.020596328698999</v>
       </c>
       <c r="F23">
-        <v>1.021972237383877</v>
+        <v>1.024997593773244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044597327730796</v>
+        <v>1.045292638127919</v>
       </c>
       <c r="J23">
-        <v>1.026735254195248</v>
+        <v>1.031904992445107</v>
       </c>
       <c r="K23">
-        <v>1.035020763914667</v>
+        <v>1.03652280038294</v>
       </c>
       <c r="L23">
-        <v>1.022202419077673</v>
+        <v>1.035466892186406</v>
       </c>
       <c r="M23">
-        <v>1.036817601265495</v>
+        <v>1.039787858094369</v>
       </c>
       <c r="N23">
-        <v>1.028193336024385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013550857469046</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040061811172076</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036953763264321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003867246365274</v>
+        <v>1.008847786007979</v>
       </c>
       <c r="D24">
-        <v>1.025802768953574</v>
+        <v>1.026263830523934</v>
       </c>
       <c r="E24">
-        <v>1.01357080695122</v>
+        <v>1.02653332628952</v>
       </c>
       <c r="F24">
-        <v>1.028443383828669</v>
+        <v>1.030498332777601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047046442485478</v>
+        <v>1.04724180146549</v>
       </c>
       <c r="J24">
-        <v>1.031217238234579</v>
+        <v>1.036009450770336</v>
       </c>
       <c r="K24">
-        <v>1.039391420369234</v>
+        <v>1.039844905030362</v>
       </c>
       <c r="L24">
-        <v>1.027363722830579</v>
+        <v>1.040109976058802</v>
       </c>
       <c r="M24">
-        <v>1.041988758587842</v>
+        <v>1.044010226388875</v>
       </c>
       <c r="N24">
-        <v>1.032681684995143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015027163305371</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04340352688141</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039295159499185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012082742264411</v>
+        <v>1.016600744664058</v>
       </c>
       <c r="D25">
-        <v>1.032139665977314</v>
+        <v>1.031413162315119</v>
       </c>
       <c r="E25">
-        <v>1.020842612166356</v>
+        <v>1.033194564332045</v>
       </c>
       <c r="F25">
-        <v>1.035693196130588</v>
+        <v>1.036685213233714</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049745968812809</v>
+        <v>1.049382098650925</v>
       </c>
       <c r="J25">
-        <v>1.036210205570968</v>
+        <v>1.040582058246088</v>
       </c>
       <c r="K25">
-        <v>1.044258731769921</v>
+        <v>1.043542643483792</v>
       </c>
       <c r="L25">
-        <v>1.033125765461943</v>
+        <v>1.045298539784222</v>
       </c>
       <c r="M25">
-        <v>1.047761583714867</v>
+        <v>1.048739531729497</v>
       </c>
       <c r="N25">
-        <v>1.03768174291785</v>
+        <v>1.016669969492124</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047146430397551</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041906773697766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022520159728358</v>
+        <v>1.021283088006572</v>
       </c>
       <c r="D2">
-        <v>1.035339002560874</v>
+        <v>1.033535288653822</v>
       </c>
       <c r="E2">
-        <v>1.038301805150403</v>
+        <v>1.037181206074797</v>
       </c>
       <c r="F2">
-        <v>1.041445943733998</v>
+        <v>1.040570445736202</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05096885497329</v>
+        <v>1.050173315736126</v>
       </c>
       <c r="J2">
-        <v>1.044047545202302</v>
+        <v>1.042845339985322</v>
       </c>
       <c r="K2">
-        <v>1.046327020755805</v>
+        <v>1.044546386919642</v>
       </c>
       <c r="L2">
-        <v>1.049252129035139</v>
+        <v>1.048145755178283</v>
       </c>
       <c r="M2">
-        <v>1.052356558876953</v>
+        <v>1.051492087860242</v>
       </c>
       <c r="N2">
-        <v>1.017906012844475</v>
+        <v>1.018102455654524</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050009033260865</v>
+        <v>1.049324870970006</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043827489001697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042577158866889</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023712167866804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026722219357217</v>
+        <v>1.025254612804498</v>
       </c>
       <c r="D3">
-        <v>1.038145256505195</v>
+        <v>1.036078003555275</v>
       </c>
       <c r="E3">
-        <v>1.041940992882684</v>
+        <v>1.040610435478894</v>
       </c>
       <c r="F3">
-        <v>1.044841678138029</v>
+        <v>1.043802754415871</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052086689680242</v>
+        <v>1.05114828366581</v>
       </c>
       <c r="J3">
-        <v>1.046510000444753</v>
+        <v>1.045079712155347</v>
       </c>
       <c r="K3">
-        <v>1.048312260935697</v>
+        <v>1.046269167477908</v>
       </c>
       <c r="L3">
-        <v>1.052063945859352</v>
+        <v>1.050748785042647</v>
       </c>
       <c r="M3">
-        <v>1.054931233555948</v>
+        <v>1.053904245322796</v>
       </c>
       <c r="N3">
-        <v>1.01878745183052</v>
+        <v>1.018732818447935</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052046686443654</v>
+        <v>1.051233906426031</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045228562218206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043792375496479</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024086996073983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029389312020696</v>
+        <v>1.027777433784816</v>
       </c>
       <c r="D4">
-        <v>1.039930065828411</v>
+        <v>1.037696952594015</v>
       </c>
       <c r="E4">
-        <v>1.044256498901689</v>
+        <v>1.042794390492083</v>
       </c>
       <c r="F4">
-        <v>1.047005212617369</v>
+        <v>1.04586399333635</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052787767766104</v>
+        <v>1.051759491036454</v>
       </c>
       <c r="J4">
-        <v>1.048069984864872</v>
+        <v>1.046496324998264</v>
       </c>
       <c r="K4">
-        <v>1.049569320554061</v>
+        <v>1.047360739789642</v>
       </c>
       <c r="L4">
-        <v>1.053848590721468</v>
+        <v>1.0524023671848</v>
       </c>
       <c r="M4">
-        <v>1.056567588658213</v>
+        <v>1.055438683612468</v>
       </c>
       <c r="N4">
-        <v>1.019345375360459</v>
+        <v>1.019132304174037</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05334173036135</v>
+        <v>1.052448292732008</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046118287159108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044565170970752</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024322008404376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030503074453895</v>
+        <v>1.028831252035844</v>
       </c>
       <c r="D5">
-        <v>1.040678609962887</v>
+        <v>1.038376474353531</v>
       </c>
       <c r="E5">
-        <v>1.045224947667488</v>
+        <v>1.043708148871551</v>
       </c>
       <c r="F5">
-        <v>1.047910161924457</v>
+        <v>1.046726436373336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053080428004506</v>
+        <v>1.052014703414191</v>
       </c>
       <c r="J5">
-        <v>1.048722467215649</v>
+        <v>1.047089102423724</v>
       </c>
       <c r="K5">
-        <v>1.05009673995457</v>
+        <v>1.047819225252798</v>
       </c>
       <c r="L5">
-        <v>1.054594845110674</v>
+        <v>1.053094081036428</v>
       </c>
       <c r="M5">
-        <v>1.05725181195568</v>
+        <v>1.056080516901442</v>
       </c>
       <c r="N5">
-        <v>1.019579371277352</v>
+        <v>1.019299977436481</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053883237605042</v>
+        <v>1.052956252334895</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04649831984285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044897176049625</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02442076910469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030694924415828</v>
+        <v>1.029012600532334</v>
       </c>
       <c r="D6">
-        <v>1.040810488753357</v>
+        <v>1.03849637531406</v>
       </c>
       <c r="E6">
-        <v>1.045392053556212</v>
+        <v>1.04386567420889</v>
       </c>
       <c r="F6">
-        <v>1.048065577190137</v>
+        <v>1.046874405376545</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053133095112566</v>
+        <v>1.052060798929643</v>
       </c>
       <c r="J6">
-        <v>1.048836984551786</v>
+        <v>1.047193161098505</v>
       </c>
       <c r="K6">
-        <v>1.050191466786738</v>
+        <v>1.047901989452232</v>
       </c>
       <c r="L6">
-        <v>1.054724649481104</v>
+        <v>1.053214331271559</v>
       </c>
       <c r="M6">
-        <v>1.057370179008631</v>
+        <v>1.056191458215664</v>
       </c>
       <c r="N6">
-        <v>1.019621355792789</v>
+        <v>1.019330082861298</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053976915487544</v>
+        <v>1.053044053458037</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046573966790864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044965236698878</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024439356591738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029419201640518</v>
+        <v>1.027815154925299</v>
       </c>
       <c r="D7">
-        <v>1.039957906950266</v>
+        <v>1.037730254133788</v>
       </c>
       <c r="E7">
-        <v>1.044283045678762</v>
+        <v>1.042828036437976</v>
       </c>
       <c r="F7">
-        <v>1.047027927386393</v>
+        <v>1.045892251714125</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052802041860377</v>
+        <v>1.051777690850407</v>
       </c>
       <c r="J7">
-        <v>1.04809334049137</v>
+        <v>1.046527309295833</v>
       </c>
       <c r="K7">
-        <v>1.04959400880899</v>
+        <v>1.047390818565827</v>
       </c>
       <c r="L7">
-        <v>1.053872017431279</v>
+        <v>1.052432809565146</v>
       </c>
       <c r="M7">
-        <v>1.056587236354448</v>
+        <v>1.05546381029969</v>
       </c>
       <c r="N7">
-        <v>1.019356273062827</v>
+        <v>1.019169384792963</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053357279924739</v>
+        <v>1.052468178497389</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046155684194484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044608385562812</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024331634309561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02397025106975</v>
+        <v>1.02268345542387</v>
       </c>
       <c r="D8">
-        <v>1.036316323611557</v>
+        <v>1.0344447171764</v>
       </c>
       <c r="E8">
-        <v>1.039557206760226</v>
+        <v>1.038391221282984</v>
       </c>
       <c r="F8">
-        <v>1.042614129989331</v>
+        <v>1.041703355485044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051364399762062</v>
+        <v>1.050535456657973</v>
       </c>
       <c r="J8">
-        <v>1.044905262059182</v>
+        <v>1.043653514256378</v>
       </c>
       <c r="K8">
-        <v>1.047025850198621</v>
+        <v>1.045177482581613</v>
       </c>
       <c r="L8">
-        <v>1.050226739121922</v>
+        <v>1.049075106745762</v>
       </c>
       <c r="M8">
-        <v>1.053246221574275</v>
+        <v>1.052346573536009</v>
       </c>
       <c r="N8">
-        <v>1.018216463009167</v>
+        <v>1.018413663473387</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050713132173348</v>
+        <v>1.050001130635346</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044344349673388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04304839972008</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023855847401894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013927423479114</v>
+        <v>1.013210301537872</v>
       </c>
       <c r="D9">
-        <v>1.029623146904386</v>
+        <v>1.02839459100353</v>
       </c>
       <c r="E9">
-        <v>1.03089281751134</v>
+        <v>1.030244433335034</v>
       </c>
       <c r="F9">
-        <v>1.034548711565038</v>
+        <v>1.034041527842812</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048638900320988</v>
+        <v>1.048159661031049</v>
       </c>
       <c r="J9">
-        <v>1.038997776080207</v>
+        <v>1.038305041844077</v>
       </c>
       <c r="K9">
-        <v>1.042253220674188</v>
+        <v>1.041043191454365</v>
       </c>
       <c r="L9">
-        <v>1.043503803645958</v>
+        <v>1.042865159491633</v>
       </c>
       <c r="M9">
-        <v>1.047105069422107</v>
+        <v>1.046605434957244</v>
       </c>
       <c r="N9">
-        <v>1.016096588661906</v>
+        <v>1.016912070313122</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045852873718825</v>
+        <v>1.045457449341127</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040966666738784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040121784853911</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022940668309244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007047338808936</v>
+        <v>1.006773563885066</v>
       </c>
       <c r="D10">
-        <v>1.025077171598758</v>
+        <v>1.024327851303916</v>
       </c>
       <c r="E10">
-        <v>1.025037305588244</v>
+        <v>1.024790206034599</v>
       </c>
       <c r="F10">
-        <v>1.029160069145513</v>
+        <v>1.028966611802192</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046761103182987</v>
+        <v>1.046546919994407</v>
       </c>
       <c r="J10">
-        <v>1.034984113121635</v>
+        <v>1.034720990786581</v>
       </c>
       <c r="K10">
-        <v>1.039007945393902</v>
+        <v>1.038271325472053</v>
       </c>
       <c r="L10">
-        <v>1.038968754476478</v>
+        <v>1.03872584083177</v>
       </c>
       <c r="M10">
-        <v>1.043022059968451</v>
+        <v>1.04283184584437</v>
       </c>
       <c r="N10">
-        <v>1.014668265597885</v>
+        <v>1.016029423756012</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042672640045515</v>
+        <v>1.042522108047814</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038688799159309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038180330133911</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022328020113795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004982512461461</v>
+        <v>1.004865378251615</v>
       </c>
       <c r="D11">
-        <v>1.02383807411261</v>
+        <v>1.02324256166027</v>
       </c>
       <c r="E11">
-        <v>1.023667190504014</v>
+        <v>1.023561626018331</v>
       </c>
       <c r="F11">
-        <v>1.028274994528267</v>
+        <v>1.028192396203186</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046434052741228</v>
+        <v>1.046303634202761</v>
       </c>
       <c r="J11">
-        <v>1.034149472108436</v>
+        <v>1.034037143247024</v>
       </c>
       <c r="K11">
-        <v>1.038324018732656</v>
+        <v>1.037739076515493</v>
       </c>
       <c r="L11">
-        <v>1.038156166643826</v>
+        <v>1.038052475555925</v>
       </c>
       <c r="M11">
-        <v>1.04268268405868</v>
+        <v>1.042601534546871</v>
       </c>
       <c r="N11">
-        <v>1.014485364517822</v>
+        <v>1.016151330307979</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042838087676979</v>
+        <v>1.042773899407867</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038237937705931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037839924238267</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022283967247393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004585623349438</v>
+        <v>1.004486420173308</v>
       </c>
       <c r="D12">
-        <v>1.023664802052729</v>
+        <v>1.023083951512634</v>
       </c>
       <c r="E12">
-        <v>1.023612625190525</v>
+        <v>1.023523292375038</v>
       </c>
       <c r="F12">
-        <v>1.028496653199483</v>
+        <v>1.028426793772705</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046506474958511</v>
+        <v>1.046379922598906</v>
       </c>
       <c r="J12">
-        <v>1.034197171350376</v>
+        <v>1.034102112867929</v>
       </c>
       <c r="K12">
-        <v>1.038352244403191</v>
+        <v>1.037781871071825</v>
       </c>
       <c r="L12">
-        <v>1.038301008059829</v>
+        <v>1.038213285810639</v>
       </c>
       <c r="M12">
-        <v>1.043097535419253</v>
+        <v>1.043028919966326</v>
       </c>
       <c r="N12">
-        <v>1.014593148107172</v>
+        <v>1.01633472454891</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043491031487543</v>
+        <v>1.043436775698968</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038257894001955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037870180524176</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022346934348018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005463027633688</v>
+        <v>1.005259830992528</v>
       </c>
       <c r="D13">
-        <v>1.024319264636776</v>
+        <v>1.023634249024919</v>
       </c>
       <c r="E13">
-        <v>1.024584255930898</v>
+        <v>1.024401336282418</v>
       </c>
       <c r="F13">
-        <v>1.029609270489817</v>
+        <v>1.02946630649173</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046906541006026</v>
+        <v>1.046714146034782</v>
       </c>
       <c r="J13">
-        <v>1.034946186044515</v>
+        <v>1.034751428171491</v>
       </c>
       <c r="K13">
-        <v>1.038952398919659</v>
+        <v>1.038279679352301</v>
       </c>
       <c r="L13">
-        <v>1.039212639343496</v>
+        <v>1.039032998810587</v>
       </c>
       <c r="M13">
-        <v>1.044148163809877</v>
+        <v>1.044007730184744</v>
       </c>
       <c r="N13">
-        <v>1.014941722250982</v>
+        <v>1.016546611547311</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0445971248699</v>
+        <v>1.044486108461886</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038679738418837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038219414127995</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022501007869057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006650582383411</v>
+        <v>1.006321240736225</v>
       </c>
       <c r="D14">
-        <v>1.025150993160172</v>
+        <v>1.024341100555798</v>
       </c>
       <c r="E14">
-        <v>1.025723671497127</v>
+        <v>1.025427196971458</v>
       </c>
       <c r="F14">
-        <v>1.030786202741255</v>
+        <v>1.030554580637889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047333488271047</v>
+        <v>1.047064864252177</v>
       </c>
       <c r="J14">
-        <v>1.035784545597138</v>
+        <v>1.035468674680311</v>
       </c>
       <c r="K14">
-        <v>1.039630058187974</v>
+        <v>1.038834515861143</v>
       </c>
       <c r="L14">
-        <v>1.040192607123786</v>
+        <v>1.039901374738508</v>
       </c>
       <c r="M14">
-        <v>1.045166227445479</v>
+        <v>1.044938648519226</v>
       </c>
       <c r="N14">
-        <v>1.015293531407297</v>
+        <v>1.01670901013714</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045574453116871</v>
+        <v>1.045394570146899</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039160278904816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038613246678189</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02265058361845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007226395894597</v>
+        <v>1.006840475324607</v>
       </c>
       <c r="D15">
-        <v>1.025543064732227</v>
+        <v>1.02467736432592</v>
       </c>
       <c r="E15">
-        <v>1.026239078702276</v>
+        <v>1.025891640784247</v>
       </c>
       <c r="F15">
-        <v>1.031287776938386</v>
+        <v>1.031016372666152</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047514862565349</v>
+        <v>1.047212987434355</v>
       </c>
       <c r="J15">
-        <v>1.036152318592494</v>
+        <v>1.035782041051356</v>
       </c>
       <c r="K15">
-        <v>1.039929489301403</v>
+        <v>1.0390790094477</v>
       </c>
       <c r="L15">
-        <v>1.040613290236983</v>
+        <v>1.040271946166446</v>
       </c>
       <c r="M15">
-        <v>1.045574036882132</v>
+        <v>1.045307332301348</v>
       </c>
       <c r="N15">
-        <v>1.015436437980248</v>
+        <v>1.016761771731773</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045934168285552</v>
+        <v>1.045723365097778</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039377824079651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038792517733544</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022710397558808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009963883191566</v>
+        <v>1.009343342466053</v>
       </c>
       <c r="D16">
-        <v>1.02733619330768</v>
+        <v>1.026236901132884</v>
       </c>
       <c r="E16">
-        <v>1.028531312070922</v>
+        <v>1.027972192388673</v>
       </c>
       <c r="F16">
-        <v>1.033383585638184</v>
+        <v>1.032946959324373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048242498974106</v>
+        <v>1.047806814819213</v>
       </c>
       <c r="J16">
-        <v>1.037712141930091</v>
+        <v>1.03711548506525</v>
       </c>
       <c r="K16">
-        <v>1.041193541307157</v>
+        <v>1.040112729742798</v>
       </c>
       <c r="L16">
-        <v>1.042368626248128</v>
+        <v>1.041818871636146</v>
       </c>
       <c r="M16">
-        <v>1.047140173601491</v>
+        <v>1.046710771373592</v>
       </c>
       <c r="N16">
-        <v>1.015975448498756</v>
+        <v>1.016912533207574</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047133504951347</v>
+        <v>1.046794095856515</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040274691257067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039526831096102</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022927948026856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011445446485326</v>
+        <v>1.010722027133164</v>
       </c>
       <c r="D17">
-        <v>1.028279787958288</v>
+        <v>1.027074795762224</v>
       </c>
       <c r="E17">
-        <v>1.029695866282622</v>
+        <v>1.029043642526743</v>
       </c>
       <c r="F17">
-        <v>1.034372045069391</v>
+        <v>1.033862723361485</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048576266080613</v>
+        <v>1.048083119055687</v>
       </c>
       <c r="J17">
-        <v>1.038470788737417</v>
+        <v>1.037774318929376</v>
       </c>
       <c r="K17">
-        <v>1.041809496230569</v>
+        <v>1.040624194431429</v>
       </c>
       <c r="L17">
-        <v>1.043202510527448</v>
+        <v>1.042560899574812</v>
       </c>
       <c r="M17">
-        <v>1.04780310266507</v>
+        <v>1.047301971159112</v>
       </c>
       <c r="N17">
-        <v>1.016205064994157</v>
+        <v>1.016973669574982</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047529113534731</v>
+        <v>1.047132968836504</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040712761687287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039891271263137</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023018657699699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01195599455707</v>
+        <v>1.01122081117063</v>
       </c>
       <c r="D18">
-        <v>1.028551002173724</v>
+        <v>1.027331534405487</v>
       </c>
       <c r="E18">
-        <v>1.029949329890584</v>
+        <v>1.029286117948986</v>
       </c>
       <c r="F18">
-        <v>1.034429771307562</v>
+        <v>1.033911718203186</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048583858229305</v>
+        <v>1.048087271152417</v>
       </c>
       <c r="J18">
-        <v>1.038574805709984</v>
+        <v>1.037866510757609</v>
       </c>
       <c r="K18">
-        <v>1.041894457922101</v>
+        <v>1.040694597149584</v>
       </c>
       <c r="L18">
-        <v>1.043270376142721</v>
+        <v>1.042617783052034</v>
       </c>
       <c r="M18">
-        <v>1.047679536887486</v>
+        <v>1.047169685190932</v>
       </c>
       <c r="N18">
-        <v>1.016173276142925</v>
+        <v>1.016911020228625</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047195075985581</v>
+        <v>1.046791954869421</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040761264924695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039928344913088</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022995638527366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011616638506332</v>
+        <v>1.010939530763934</v>
       </c>
       <c r="D19">
-        <v>1.028247748922556</v>
+        <v>1.027086127412187</v>
       </c>
       <c r="E19">
-        <v>1.029397445705853</v>
+        <v>1.028786289047363</v>
       </c>
       <c r="F19">
-        <v>1.033653208795066</v>
+        <v>1.033175525253652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048319582228871</v>
+        <v>1.047861323642183</v>
       </c>
       <c r="J19">
-        <v>1.038115748277447</v>
+        <v>1.037463281778377</v>
       </c>
       <c r="K19">
-        <v>1.041534046984483</v>
+        <v>1.040391015645902</v>
       </c>
       <c r="L19">
-        <v>1.042665397379569</v>
+        <v>1.042063986763846</v>
       </c>
       <c r="M19">
-        <v>1.046853703352876</v>
+        <v>1.04638355601718</v>
       </c>
       <c r="N19">
-        <v>1.015925073630843</v>
+        <v>1.016728786540406</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046218558827149</v>
+        <v>1.045846710511091</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040512804760963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039720692578544</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022879899906772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008876393080546</v>
+        <v>1.008452778460926</v>
       </c>
       <c r="D20">
-        <v>1.026304339112876</v>
+        <v>1.025403074433889</v>
       </c>
       <c r="E20">
-        <v>1.026595683547332</v>
+        <v>1.026213166737846</v>
       </c>
       <c r="F20">
-        <v>1.030590427045623</v>
+        <v>1.03029102001193</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047281254629273</v>
+        <v>1.04697902619469</v>
       </c>
       <c r="J20">
-        <v>1.036069381367941</v>
+        <v>1.035661703850542</v>
       </c>
       <c r="K20">
-        <v>1.039899907550387</v>
+        <v>1.03901347957126</v>
       </c>
       <c r="L20">
-        <v>1.040186463012408</v>
+        <v>1.039810234539239</v>
       </c>
       <c r="M20">
-        <v>1.04411589375561</v>
+        <v>1.043821359372596</v>
       </c>
       <c r="N20">
-        <v>1.01506290745221</v>
+        <v>1.016196852638448</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04352779394451</v>
+        <v>1.043294702089695</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039361325986223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038751036381436</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022496027187197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003512876217388</v>
+        <v>1.003592078944275</v>
       </c>
       <c r="D21">
-        <v>1.022744458712781</v>
+        <v>1.022340801672242</v>
       </c>
       <c r="E21">
-        <v>1.021969869324899</v>
+        <v>1.02204129917063</v>
       </c>
       <c r="F21">
-        <v>1.026266194370443</v>
+        <v>1.026322152646346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045755556238282</v>
+        <v>1.045746914411933</v>
       </c>
       <c r="J21">
-        <v>1.032864456222555</v>
+        <v>1.032940380754107</v>
       </c>
       <c r="K21">
-        <v>1.037307372926223</v>
+        <v>1.036910931710943</v>
       </c>
       <c r="L21">
-        <v>1.036546636725511</v>
+        <v>1.03661678793867</v>
       </c>
       <c r="M21">
-        <v>1.040766465943262</v>
+        <v>1.040821433365845</v>
       </c>
       <c r="N21">
-        <v>1.013900440557914</v>
+        <v>1.015854465803377</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040836313725556</v>
+        <v>1.040879816733475</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037531545566024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037268025804929</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022029420133349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000108401571163</v>
+        <v>1.000509244698645</v>
       </c>
       <c r="D22">
-        <v>1.02048954208169</v>
+        <v>1.020404043022431</v>
       </c>
       <c r="E22">
-        <v>1.019064180915715</v>
+        <v>1.019425368005236</v>
       </c>
       <c r="F22">
-        <v>1.023579151738341</v>
+        <v>1.023862245372862</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04478632196811</v>
+        <v>1.044965865853822</v>
       </c>
       <c r="J22">
-        <v>1.030843837381611</v>
+        <v>1.031227102622392</v>
       </c>
       <c r="K22">
-        <v>1.0356657392575</v>
+        <v>1.035581846473158</v>
       </c>
       <c r="L22">
-        <v>1.034267202420833</v>
+        <v>1.034621582944799</v>
       </c>
       <c r="M22">
-        <v>1.03869753920113</v>
+        <v>1.038975358633448</v>
       </c>
       <c r="N22">
-        <v>1.013170248813574</v>
+        <v>1.015638017206551</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039198895828943</v>
+        <v>1.03941877164652</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036357393115665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036313563015669</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021734616777781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001905299042825</v>
+        <v>1.0021190527565</v>
       </c>
       <c r="D23">
-        <v>1.021671944206273</v>
+        <v>1.021404616819551</v>
       </c>
       <c r="E23">
-        <v>1.020596328698999</v>
+        <v>1.020789026044096</v>
       </c>
       <c r="F23">
-        <v>1.024997593773244</v>
+        <v>1.025148587911367</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045292638127919</v>
+        <v>1.045363240809766</v>
       </c>
       <c r="J23">
-        <v>1.031904992445107</v>
+        <v>1.03210965303998</v>
       </c>
       <c r="K23">
-        <v>1.03652280038294</v>
+        <v>1.036260365892478</v>
       </c>
       <c r="L23">
-        <v>1.035466892186406</v>
+        <v>1.035656054974473</v>
       </c>
       <c r="M23">
-        <v>1.039787858094369</v>
+        <v>1.039936113322026</v>
       </c>
       <c r="N23">
-        <v>1.013550857469046</v>
+        <v>1.01570192101402</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040061811172076</v>
+        <v>1.040179145306365</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036953763264321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036782754078726</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021881112788732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008847786007979</v>
+        <v>1.008430829144606</v>
       </c>
       <c r="D24">
-        <v>1.026263830523934</v>
+        <v>1.025368901918174</v>
       </c>
       <c r="E24">
-        <v>1.02653332628952</v>
+        <v>1.026156788885658</v>
       </c>
       <c r="F24">
-        <v>1.030498332777601</v>
+        <v>1.030203580054524</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04724180146549</v>
+        <v>1.046944157833841</v>
       </c>
       <c r="J24">
-        <v>1.036009450770336</v>
+        <v>1.035608159659604</v>
       </c>
       <c r="K24">
-        <v>1.039844905030362</v>
+        <v>1.03896469134337</v>
       </c>
       <c r="L24">
-        <v>1.040109976058802</v>
+        <v>1.039739621692889</v>
       </c>
       <c r="M24">
-        <v>1.044010226388875</v>
+        <v>1.043720265512232</v>
       </c>
       <c r="N24">
-        <v>1.015027163305371</v>
+        <v>1.016167850051563</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04340352688141</v>
+        <v>1.043174043172242</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039295159499185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038686590294853</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022475725261772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016600744664058</v>
+        <v>1.015716136482626</v>
       </c>
       <c r="D25">
-        <v>1.031413162315119</v>
+        <v>1.030001623337102</v>
       </c>
       <c r="E25">
-        <v>1.033194564332045</v>
+        <v>1.032394268425104</v>
       </c>
       <c r="F25">
-        <v>1.036685213233714</v>
+        <v>1.036059435618988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049382098650925</v>
+        <v>1.048801439870387</v>
       </c>
       <c r="J25">
-        <v>1.040582058246088</v>
+        <v>1.039725923744915</v>
       </c>
       <c r="K25">
-        <v>1.043542643483792</v>
+        <v>1.042151393963426</v>
       </c>
       <c r="L25">
-        <v>1.045298539784222</v>
+        <v>1.044509688551082</v>
       </c>
       <c r="M25">
-        <v>1.048739531729497</v>
+        <v>1.048122625116116</v>
       </c>
       <c r="N25">
-        <v>1.016669969492124</v>
+        <v>1.017282985110764</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047146430397551</v>
+        <v>1.046658194461987</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041906773697766</v>
+        <v>1.040936565147927</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023190440204126</v>
       </c>
     </row>
   </sheetData>
